--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_306.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_306.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32796-d281283-Reviews-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>296</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-GuestHouse-Hotel-Norwalk.h973796.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_306.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_306.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="440">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1232 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r578353402-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>32796</t>
+  </si>
+  <si>
+    <t>281283</t>
+  </si>
+  <si>
+    <t>578353402</t>
+  </si>
+  <si>
+    <t>05/06/2018</t>
+  </si>
+  <si>
+    <t>Very good room, poor breakfast</t>
+  </si>
+  <si>
+    <t>GuestHouse Inn &amp; Suites is situated in Norwalk, a town beside Los Angeles.The room is large, with two big and comfortable beds, a coffee machine, but if you need a fridge, you have to rent one. The bathroom is large enough.The breakfast was a disappointment, for an European with souvenirs from European hotels.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r565662799-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>565662799</t>
+  </si>
+  <si>
+    <t>03/10/2018</t>
+  </si>
+  <si>
+    <t>Christine, the Director of Sales is AMAZING!</t>
+  </si>
+  <si>
+    <t>Where to start?Christine, the Director of Sales is AMAZING. She is the most, friendly, nice, professional, and helpful person ever. We recently celebrated my daughter's 15 (Quinceañera) and thank god for her. Everything went perfectly. The place was immaculate, and elegant. Her staffs, from the Servers, to the Front Desk Agents, Security Guards, were extremely courteous and helpful. My daughter smothered cake on my face, and off to the rescue was one of the servers (sorry to say I did not get her name), and handed me some napkins.The rooms are clean, very well appointed, and an exceptional value.There is a Club in this hotel as well. If you like 80's Disco music, this is definitely the place. Again THANKS Christine! We had a BLAST!!!!Luis F.Assistant GM Comfort Inn Santa MonicaMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Where to start?Christine, the Director of Sales is AMAZING. She is the most, friendly, nice, professional, and helpful person ever. We recently celebrated my daughter's 15 (Quinceañera) and thank god for her. Everything went perfectly. The place was immaculate, and elegant. Her staffs, from the Servers, to the Front Desk Agents, Security Guards, were extremely courteous and helpful. My daughter smothered cake on my face, and off to the rescue was one of the servers (sorry to say I did not get her name), and handed me some napkins.The rooms are clean, very well appointed, and an exceptional value.There is a Club in this hotel as well. If you like 80's Disco music, this is definitely the place. Again THANKS Christine! We had a BLAST!!!!Luis F.Assistant GM Comfort Inn Santa MonicaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r546532887-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>546532887</t>
+  </si>
+  <si>
+    <t>12/10/2017</t>
+  </si>
+  <si>
+    <t>I'm very happy here.</t>
+  </si>
+  <si>
+    <t>I love this hotel. I have been staying on an extended stay as the house is sold, after staying for just a few days at other motels. I have found that this one is less expensive than the others I've stayed at, but is by far, the best one yet. It's quiet and peaceful, and has everything I need. 
+I don't mind that it costs $7.00 for breakfast. You don't get just a sweet roll or cereal here to pass it off as breakfast. Rather, you get sausage, eggs, and potatoes with toast, and with water, coffee, and orange juice to drink. Where can you get a good breakfast like that for only $7.00? Maybe it's not like going to a restaurant where you have a menu to choose from, but for what they sell every day, being the same, it's very tasty and inexpensive. 
+The hotel staff is very courteous and polite, and whenever I have needed something, like a window screen, they jump on it. I'm very happy with the service here!
+The location is a bit remote, but it's still close to several shopping areas and not far from Knott's Berry Farm and Disneyland. And it's freeway close, next to the I-5, and not far from the 605, 105, and the 91 freeways.
+Overall, for the price, I couldn't find a better place, and I'm very happy with this place, so I'm staying until I get the...I love this hotel. I have been staying on an extended stay as the house is sold, after staying for just a few days at other motels. I have found that this one is less expensive than the others I've stayed at, but is by far, the best one yet. It's quiet and peaceful, and has everything I need. I don't mind that it costs $7.00 for breakfast. You don't get just a sweet roll or cereal here to pass it off as breakfast. Rather, you get sausage, eggs, and potatoes with toast, and with water, coffee, and orange juice to drink. Where can you get a good breakfast like that for only $7.00? Maybe it's not like going to a restaurant where you have a menu to choose from, but for what they sell every day, being the same, it's very tasty and inexpensive. The hotel staff is very courteous and polite, and whenever I have needed something, like a window screen, they jump on it. I'm very happy with the service here!The location is a bit remote, but it's still close to several shopping areas and not far from Knott's Berry Farm and Disneyland. And it's freeway close, next to the I-5, and not far from the 605, 105, and the 91 freeways.Overall, for the price, I couldn't find a better place, and I'm very happy with this place, so I'm staying until I get the money from my share of the sale of the house.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I love this hotel. I have been staying on an extended stay as the house is sold, after staying for just a few days at other motels. I have found that this one is less expensive than the others I've stayed at, but is by far, the best one yet. It's quiet and peaceful, and has everything I need. 
+I don't mind that it costs $7.00 for breakfast. You don't get just a sweet roll or cereal here to pass it off as breakfast. Rather, you get sausage, eggs, and potatoes with toast, and with water, coffee, and orange juice to drink. Where can you get a good breakfast like that for only $7.00? Maybe it's not like going to a restaurant where you have a menu to choose from, but for what they sell every day, being the same, it's very tasty and inexpensive. 
+The hotel staff is very courteous and polite, and whenever I have needed something, like a window screen, they jump on it. I'm very happy with the service here!
+The location is a bit remote, but it's still close to several shopping areas and not far from Knott's Berry Farm and Disneyland. And it's freeway close, next to the I-5, and not far from the 605, 105, and the 91 freeways.
+Overall, for the price, I couldn't find a better place, and I'm very happy with this place, so I'm staying until I get the...I love this hotel. I have been staying on an extended stay as the house is sold, after staying for just a few days at other motels. I have found that this one is less expensive than the others I've stayed at, but is by far, the best one yet. It's quiet and peaceful, and has everything I need. I don't mind that it costs $7.00 for breakfast. You don't get just a sweet roll or cereal here to pass it off as breakfast. Rather, you get sausage, eggs, and potatoes with toast, and with water, coffee, and orange juice to drink. Where can you get a good breakfast like that for only $7.00? Maybe it's not like going to a restaurant where you have a menu to choose from, but for what they sell every day, being the same, it's very tasty and inexpensive. The hotel staff is very courteous and polite, and whenever I have needed something, like a window screen, they jump on it. I'm very happy with the service here!The location is a bit remote, but it's still close to several shopping areas and not far from Knott's Berry Farm and Disneyland. And it's freeway close, next to the I-5, and not far from the 605, 105, and the 91 freeways.Overall, for the price, I couldn't find a better place, and I'm very happy with this place, so I'm staying until I get the money from my share of the sale of the house.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r456985965-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>456985965</t>
+  </si>
+  <si>
+    <t>02/03/2017</t>
+  </si>
+  <si>
+    <t>Visit of hell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forgot my ring inside room was told they had it that i could pick it up went to pick it up and the front desk couldn't find it i caught her in a lie now suing the company someone in that company took my ring and stole it im very pissed because i was told it was safe and that inwould be able to pick it up and to catch the manager in a lie pissed me off even more all i want is my promise ring back dont leave anything in the room thats valuable to you because the staff steals and the managers know and they cover </t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r449629700-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>449629700</t>
+  </si>
+  <si>
+    <t>01/05/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New years eve. </t>
+  </si>
+  <si>
+    <t>My wife and I  got a package  offered by the hotel. We arrived 30 min. Early went to the counter to check in, all was well until we went to our room to find it not even clean and ready. So had put everything back in the car in the rain. Went back to the front desk. And was told it would be another 30 min. So  again back in the rain grab our luggage  go up to the room  and the maid was just finishing up. She apologized. So now we're in the room I went to sit on one of the beds and I felt like I fell into a big hole. The other bed felt a whole lot better, but still not what I thought it would be. Unfortunately I won't give this hotel a very good rating. The rest of our event went well. I do have to say the hotel manager is one very hard working lady her name is Christine. Other than that the food was good. music was great. Again the guest rooms. need alot of attention. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>My wife and I  got a package  offered by the hotel. We arrived 30 min. Early went to the counter to check in, all was well until we went to our room to find it not even clean and ready. So had put everything back in the car in the rain. Went back to the front desk. And was told it would be another 30 min. So  again back in the rain grab our luggage  go up to the room  and the maid was just finishing up. She apologized. So now we're in the room I went to sit on one of the beds and I felt like I fell into a big hole. The other bed felt a whole lot better, but still not what I thought it would be. Unfortunately I won't give this hotel a very good rating. The rest of our event went well. I do have to say the hotel manager is one very hard working lady her name is Christine. Other than that the food was good. music was great. Again the guest rooms. need alot of attention. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r444497007-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>444497007</t>
+  </si>
+  <si>
+    <t>12/15/2016</t>
+  </si>
+  <si>
+    <t>below average</t>
+  </si>
+  <si>
+    <t>Bed felt like cardboard. Pillow and sheets were rough. No heavy comforter. Walls were paper thin and heard other talking all night, in the near rooms and walking around. Busy place. Otherwise clean and tidy looking. I didn't handle check in, nor see the food areas. so no comment on that.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r439263611-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>439263611</t>
+  </si>
+  <si>
+    <t>11/22/2016</t>
+  </si>
+  <si>
+    <t>Jbhunt</t>
+  </si>
+  <si>
+    <t>I was sleeping here for my jobs orientation. Breakfast buffet was free with room.the place was extremely busy with tourist also people from my class. If you are in this part of town it will not be a disappointment to stay here. The beds are comfortable and rooms are equipped with kitchen appliances. .</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r430485699-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>430485699</t>
+  </si>
+  <si>
+    <t>10/21/2016</t>
+  </si>
+  <si>
+    <t>Strategical stay</t>
+  </si>
+  <si>
+    <t>I've been visiting California for various reason. Business, family reunion and tour sometimes. If you looking for a hotel that allows you to move easily doing your tours with affordable price and spacious room in California, this hotel is yours. It locates just beside to the highway 5 that connects all through California even up to Canada and also 105 that connects directly to LAX. 'The Original Disney Land' is just 15-20 minutes a way. This hotel is my favorite one when I visit California!</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r406832935-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>406832935</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Hotel for the price.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not sure what some of these other people were complaining about. My son and I had a pleasant stay, enjoyed the heated pool, rooms we're spacious and clean. Staff was helpful and friendly. Most people that come to California come for the tourist attractions not the hotel. But I thought this was a great hotel for the price and an awesome value! </t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r393898906-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>393898906</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>The Griswolds</t>
+  </si>
+  <si>
+    <t>Hotell or motell that's the question? This  place has seen better days and better surroundings too. It's OK for stop and rest but not a place to enjoy your vacation. Best part of this place is the pool area located in the middle of the facilities. Friendly and helpful staff.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r391055695-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>391055695</t>
+  </si>
+  <si>
+    <t>07/10/2016</t>
+  </si>
+  <si>
+    <t>okay but not great</t>
+  </si>
+  <si>
+    <t>I defintely do not think this is a 3 star hotel. I was looking for price and it wasnt as pricey as some of the other hotels. Check in was nice and when you see the hotel it looks good as far as appearance. At first glance the room looked okay. However my sons truck went under the bed and it was so trashy and I found a pudding cup opened under there..ugh. The beds are bad. They make a lot of noise and the pillows are really hard. Walls are super thin so you can hear everything. The pool was nice along with the outside lounge area as well. There is a bar and restaurant which we did not go to....the price of breakfast was way too much. The hotel is within 30 to 40 min of everything. If they would upgrade this could b a really nice place.... So i guess its true what they say... you get what you pay for. Better off spending another 20 bucks and getting a better bed with breakfast included.MoreShow less</t>
+  </si>
+  <si>
+    <t>I defintely do not think this is a 3 star hotel. I was looking for price and it wasnt as pricey as some of the other hotels. Check in was nice and when you see the hotel it looks good as far as appearance. At first glance the room looked okay. However my sons truck went under the bed and it was so trashy and I found a pudding cup opened under there..ugh. The beds are bad. They make a lot of noise and the pillows are really hard. Walls are super thin so you can hear everything. The pool was nice along with the outside lounge area as well. There is a bar and restaurant which we did not go to....the price of breakfast was way too much. The hotel is within 30 to 40 min of everything. If they would upgrade this could b a really nice place.... So i guess its true what they say... you get what you pay for. Better off spending another 20 bucks and getting a better bed with breakfast included.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r357960138-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>357960138</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Poor sound proof</t>
+  </si>
+  <si>
+    <t>The room is sort of ok...very basic..no fridge...the cleaning always come at 9am..way too early. If you placed a "Do not disturb" card they will skip the room completely. The sound proof is poor as i can practically hear the tv from the next room. On the better side, it is at the quiet end of the street.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r351276602-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>351276602</t>
+  </si>
+  <si>
+    <t>02/27/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needs improvement </t>
+  </si>
+  <si>
+    <t>When we first arrived, I was pleased with the lobby and the employees at the front desk. As we walked to our room we saw a nice pool that looked clean. After entering our room it was outdated but still looked clean. I wasn't disappointed because it's worth the money we paid for it. However, once I entered the bathroom I was appalled by the shower. The shower has dark black grudge and slime. When I first stepped inside I thought the shower was going to break because it made this creepy cracking noise. It worked out for my husband and I as we wanted to save money on our hotel to enjoy doing as many things in Los Angeles. Also be advised you need to have a car in order to stay here as anything important in LA is about 45 minutes away. The neighborhood itself of Norwalk is very nice, however there are some sketchy people who stay there. The walls are paper thin, we could hear our lousy neighbors fist fighting. It was crazy. This hotel would be so nice if they renovated and got rid of the sketchy people. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>When we first arrived, I was pleased with the lobby and the employees at the front desk. As we walked to our room we saw a nice pool that looked clean. After entering our room it was outdated but still looked clean. I wasn't disappointed because it's worth the money we paid for it. However, once I entered the bathroom I was appalled by the shower. The shower has dark black grudge and slime. When I first stepped inside I thought the shower was going to break because it made this creepy cracking noise. It worked out for my husband and I as we wanted to save money on our hotel to enjoy doing as many things in Los Angeles. Also be advised you need to have a car in order to stay here as anything important in LA is about 45 minutes away. The neighborhood itself of Norwalk is very nice, however there are some sketchy people who stay there. The walls are paper thin, we could hear our lousy neighbors fist fighting. It was crazy. This hotel would be so nice if they renovated and got rid of the sketchy people. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r342637396-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>342637396</t>
+  </si>
+  <si>
+    <t>01/25/2016</t>
+  </si>
+  <si>
+    <t>Problematic Access To Hotel, Ignorant Hotel Staff</t>
+  </si>
+  <si>
+    <t>I had one of the worst days settling in to a move down to Southern California after booking this hotel.  I think that a hotel stay is the MOST important influence on any trip because if the day didn't go so well, it can be made up for in great accommodations.  The day that I was supposed to stay at this hotel had neither, resulting in problems that compounded into the booking of another hotel for the night.
+My girlfriend and I were heading over to the hotel after a long day when we encountered a LOT of construction in the main road by the hotel.  We figured, no problem, it will just take a little longer.  Our GPS was giving us directions and we finally saw the hotel, which is located on an island-like stretch of landspace by the freeway.  It's triangular with 3 large arterials on each side of the property.  Our GPS prompted us to turn onto the street of the main entrance but it was closed due to construction, which started possibly within the hour.  Thus we figured that there would be a side entrance.  I spotted it but guess what...the gate was CLOSED.  I attempted to find yet another entrance but couldn't access the street on that side; the road that we traveled on goes around the street that we were trying to get on.  Meanwhile the GPS was useless in getting us into the...I had one of the worst days settling in to a move down to Southern California after booking this hotel.  I think that a hotel stay is the MOST important influence on any trip because if the day didn't go so well, it can be made up for in great accommodations.  The day that I was supposed to stay at this hotel had neither, resulting in problems that compounded into the booking of another hotel for the night.My girlfriend and I were heading over to the hotel after a long day when we encountered a LOT of construction in the main road by the hotel.  We figured, no problem, it will just take a little longer.  Our GPS was giving us directions and we finally saw the hotel, which is located on an island-like stretch of landspace by the freeway.  It's triangular with 3 large arterials on each side of the property.  Our GPS prompted us to turn onto the street of the main entrance but it was closed due to construction, which started possibly within the hour.  Thus we figured that there would be a side entrance.  I spotted it but guess what...the gate was CLOSED.  I attempted to find yet another entrance but couldn't access the street on that side; the road that we traveled on goes around the street that we were trying to get on.  Meanwhile the GPS was useless in getting us into the property because it kept recalculating the route.  It occurred to me that the 3rd side of the hotel that we were trying to access could only happen coming off the 5 Freeway.  So I had to find the entrance to the freeway, drive in the opposite direction, and double back to even have a chance to get to the hotel.  After I driving on the freeway and exiting, I find that there was construction blocking access!We called the hotel and the front desk staff didn't even know that construction was making it difficult if not possible to access the hotel by car.  They couldn't give us directions matching the streets that I was on and we proceeded to attempt a cancellation with Hotwire.  Now Hotwire rarely allows for cancellations of their Special Deals reservations (ones where you don't know which hotel you will get until after the purchase) and they got the hotel staff on the phone on three-way.  In order to justify not refunding what we had paid, the hotel staff tells Hotwire that there isn't any construction around the hotel and that other guests had no problems getting to the hotel.  I refuted that the construction may have recently started and asked when the last guest arrived.  Their response? "Recently."The oblivious lying staff is a deal-killer with this hotel and is indicative of potentially poor guest service.  Access to the hotel would have been challenging even without the construction since the streets around the hotel have fast travelling cars making it hard to slow down.  For these reasons, I suggest staying away from this hotel if one could help it.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>I had one of the worst days settling in to a move down to Southern California after booking this hotel.  I think that a hotel stay is the MOST important influence on any trip because if the day didn't go so well, it can be made up for in great accommodations.  The day that I was supposed to stay at this hotel had neither, resulting in problems that compounded into the booking of another hotel for the night.
+My girlfriend and I were heading over to the hotel after a long day when we encountered a LOT of construction in the main road by the hotel.  We figured, no problem, it will just take a little longer.  Our GPS was giving us directions and we finally saw the hotel, which is located on an island-like stretch of landspace by the freeway.  It's triangular with 3 large arterials on each side of the property.  Our GPS prompted us to turn onto the street of the main entrance but it was closed due to construction, which started possibly within the hour.  Thus we figured that there would be a side entrance.  I spotted it but guess what...the gate was CLOSED.  I attempted to find yet another entrance but couldn't access the street on that side; the road that we traveled on goes around the street that we were trying to get on.  Meanwhile the GPS was useless in getting us into the...I had one of the worst days settling in to a move down to Southern California after booking this hotel.  I think that a hotel stay is the MOST important influence on any trip because if the day didn't go so well, it can be made up for in great accommodations.  The day that I was supposed to stay at this hotel had neither, resulting in problems that compounded into the booking of another hotel for the night.My girlfriend and I were heading over to the hotel after a long day when we encountered a LOT of construction in the main road by the hotel.  We figured, no problem, it will just take a little longer.  Our GPS was giving us directions and we finally saw the hotel, which is located on an island-like stretch of landspace by the freeway.  It's triangular with 3 large arterials on each side of the property.  Our GPS prompted us to turn onto the street of the main entrance but it was closed due to construction, which started possibly within the hour.  Thus we figured that there would be a side entrance.  I spotted it but guess what...the gate was CLOSED.  I attempted to find yet another entrance but couldn't access the street on that side; the road that we traveled on goes around the street that we were trying to get on.  Meanwhile the GPS was useless in getting us into the property because it kept recalculating the route.  It occurred to me that the 3rd side of the hotel that we were trying to access could only happen coming off the 5 Freeway.  So I had to find the entrance to the freeway, drive in the opposite direction, and double back to even have a chance to get to the hotel.  After I driving on the freeway and exiting, I find that there was construction blocking access!We called the hotel and the front desk staff didn't even know that construction was making it difficult if not possible to access the hotel by car.  They couldn't give us directions matching the streets that I was on and we proceeded to attempt a cancellation with Hotwire.  Now Hotwire rarely allows for cancellations of their Special Deals reservations (ones where you don't know which hotel you will get until after the purchase) and they got the hotel staff on the phone on three-way.  In order to justify not refunding what we had paid, the hotel staff tells Hotwire that there isn't any construction around the hotel and that other guests had no problems getting to the hotel.  I refuted that the construction may have recently started and asked when the last guest arrived.  Their response? "Recently."The oblivious lying staff is a deal-killer with this hotel and is indicative of potentially poor guest service.  Access to the hotel would have been challenging even without the construction since the streets around the hotel have fast travelling cars making it hard to slow down.  For these reasons, I suggest staying away from this hotel if one could help it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r342446971-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>342446971</t>
+  </si>
+  <si>
+    <t>01/24/2016</t>
+  </si>
+  <si>
+    <t>Oh my be careful</t>
+  </si>
+  <si>
+    <t>This place was pretty much a dump.  Booked through hotwire so I did not know what I was getting.  Only reason I gave it a two star because hotwire said we had a fridge and when we got to the hotel there was not one in the smelly room,   so they upgraded us (if you want to call it an upgrade) so we could have a fridge. The room was pretty clean but I would not take my shoes off.  I did not let my kid (11) out of my sight and I was afraid to walk to the lobby alone.  Think twice</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r323725867-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>323725867</t>
+  </si>
+  <si>
+    <t>11/01/2015</t>
+  </si>
+  <si>
+    <t>Look Elsewhere</t>
+  </si>
+  <si>
+    <t>GuestHouse International in Norwalk, California is rougly equivalent to a Motel 6.  The rooms are clean, but old.  All rooms are exterior access, with a deadbolt and chain on the inside. No wifi in rooms.  There is a pool surrounded by a secure fence in the interior courtyard area, however you can easily walk from the street through the parking lot to the pool area without having to pass by hotel personnel.  As with many budget hotels you are required to sign or initial many things that imply that you are not a trusted guest, which also implies that the property has problems with guests who are not trustworthy, and therefore raised questions in my mind related to security, noise levels, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Guesthousenorwalk, Manager at GuestHouse Inn &amp; Suites Norwalk, responded to this reviewResponded December 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2015</t>
+  </si>
+  <si>
+    <t>GuestHouse International in Norwalk, California is rougly equivalent to a Motel 6.  The rooms are clean, but old.  All rooms are exterior access, with a deadbolt and chain on the inside. No wifi in rooms.  There is a pool surrounded by a secure fence in the interior courtyard area, however you can easily walk from the street through the parking lot to the pool area without having to pass by hotel personnel.  As with many budget hotels you are required to sign or initial many things that imply that you are not a trusted guest, which also implies that the property has problems with guests who are not trustworthy, and therefore raised questions in my mind related to security, noise levels, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r312401214-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>312401214</t>
+  </si>
+  <si>
+    <t>09/21/2015</t>
+  </si>
+  <si>
+    <t>Scene from the 1983 film Family Vacation</t>
+  </si>
+  <si>
+    <t>Unfortunately, the last time they cleaned the rooms may have been 1983.  There are some updates, like a flat TV, but the room was very musky and gross smelling. The neighborhood is pretty run down, right along the railroad tracks. The paint was coming off the walls and it was in dire need of some TLC. When I arrived to check in the desk clerks were standing around and one was eating a sandwich. It took them awhile to help me. You know you aren't in a great hotel when they ask if you'll be paying cash for the $50 room deposit.  All in all, the rate was low and it was a roof over our head. So I'd say this is definitely a two start, not a three start hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Guesthousenorwalk, Manager at GuestHouse Inn &amp; Suites Norwalk, responded to this reviewResponded October 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2015</t>
+  </si>
+  <si>
+    <t>Unfortunately, the last time they cleaned the rooms may have been 1983.  There are some updates, like a flat TV, but the room was very musky and gross smelling. The neighborhood is pretty run down, right along the railroad tracks. The paint was coming off the walls and it was in dire need of some TLC. When I arrived to check in the desk clerks were standing around and one was eating a sandwich. It took them awhile to help me. You know you aren't in a great hotel when they ask if you'll be paying cash for the $50 room deposit.  All in all, the rate was low and it was a roof over our head. So I'd say this is definitely a two start, not a three start hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r301875664-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>301875664</t>
+  </si>
+  <si>
+    <t>08/21/2015</t>
+  </si>
+  <si>
+    <t>Bad location!</t>
+  </si>
+  <si>
+    <t>Choose this hotel because of its location near Biola university, but the low price should have told me something..definitely a 2star, no more. Seeing the word "INTERNATIONAL" said it all. This hotel is near the railroad tracks and freeway. It is a huge complex that accommodates busloads of foreigners.Room-king bed was roomy and simple. Bed was actually comfy, but there was hair in the tub...ugh.Hotel staff not overly friendly and there is A $50-incidentals charge</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r282179685-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>282179685</t>
+  </si>
+  <si>
+    <t>06/22/2015</t>
+  </si>
+  <si>
+    <t>Only 1 Big Complaint...</t>
+  </si>
+  <si>
+    <t>Front desk rented our room out, at midnight...while we were in there sleeping. Woke up to people opening our door but couldn't get past the chain...REALLY???? Called down to complain and woman at desk asked if we could kindly send them back to the front desk....Ummm...how about I'm So Sorry? So besides being rudely awoken by an incompetent employees mistake...the room was great! Bldg.5 was quiet, never heard anybody below or next to us. Beds were comfortable, tv is outdated..but it worked. Truck Parking is on an adjacent street, we had our tractor only &amp; parked in the hotel lot. Rate was decent, pools (2) and the entire huge property were very clean. Laundry facility is big...and the cheapest I've ever seen. We'd stay again...and make sure our room is ours only.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Front desk rented our room out, at midnight...while we were in there sleeping. Woke up to people opening our door but couldn't get past the chain...REALLY???? Called down to complain and woman at desk asked if we could kindly send them back to the front desk....Ummm...how about I'm So Sorry? So besides being rudely awoken by an incompetent employees mistake...the room was great! Bldg.5 was quiet, never heard anybody below or next to us. Beds were comfortable, tv is outdated..but it worked. Truck Parking is on an adjacent street, we had our tractor only &amp; parked in the hotel lot. Rate was decent, pools (2) and the entire huge property were very clean. Laundry facility is big...and the cheapest I've ever seen. We'd stay again...and make sure our room is ours only.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r268958800-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>268958800</t>
+  </si>
+  <si>
+    <t>04/29/2015</t>
+  </si>
+  <si>
+    <t>Tour group</t>
+  </si>
+  <si>
+    <t>Dated location just off the I5 in Norwalk. Those are the plusses. Oh yeah, Chevy Chase had his famous swim scene in Vacation at this hotel. It hasnt seen any improvements since then. The cons: 1) bumpy old bed. 2) Carpets worn out. 3) Remote control for TV missing buttons. 4) Bathtub desperately needs resurfacing. 5) Restaurant is crap! Even the cook told me I would fare better if I ordered delivery pizza. 6) Did I mention the jurrasic cockroaches both indoors and outdoors. It damages your sleep when you wake up thinking there is a motorcycle on your leg, but it is just a giant cockroach! Lots of tourgroups stay here. They are okay, usually really friendly, albeit loud folks. There is a Muslim prayer room in the Daisy room. The problem with that is the fact that they let their kids run around the property so loud that nobody can sleep. There are no good walking distance restaurants or anything else nearby. There is an AM/PM close by though. The staff are very friendly. But it is obvious that the ownership is stingy with maintenance and updates. Probably because the tourbus groups dont have a choice! Oh yeah, I didnt see any hookers!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Dated location just off the I5 in Norwalk. Those are the plusses. Oh yeah, Chevy Chase had his famous swim scene in Vacation at this hotel. It hasnt seen any improvements since then. The cons: 1) bumpy old bed. 2) Carpets worn out. 3) Remote control for TV missing buttons. 4) Bathtub desperately needs resurfacing. 5) Restaurant is crap! Even the cook told me I would fare better if I ordered delivery pizza. 6) Did I mention the jurrasic cockroaches both indoors and outdoors. It damages your sleep when you wake up thinking there is a motorcycle on your leg, but it is just a giant cockroach! Lots of tourgroups stay here. They are okay, usually really friendly, albeit loud folks. There is a Muslim prayer room in the Daisy room. The problem with that is the fact that they let their kids run around the property so loud that nobody can sleep. There are no good walking distance restaurants or anything else nearby. There is an AM/PM close by though. The staff are very friendly. But it is obvious that the ownership is stingy with maintenance and updates. Probably because the tourbus groups dont have a choice! Oh yeah, I didnt see any hookers!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r256361710-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>256361710</t>
+  </si>
+  <si>
+    <t>02/25/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So noisy  !! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was basic but clean - okay so far. No fridge or kettle, but a coffee machine and a working television. The thing that really annoyed me was the extremely noisy rooms ! I've stayed in cheap guesthouses and motels all over the world but never experienced something like this. Sleeping was just not possible!  The people in the rooms seem to live here long term and meet up for party's, even if you sign the no party policy when you check in... i would definitely not stay here again ! </t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r251235688-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>251235688</t>
+  </si>
+  <si>
+    <t>01/27/2015</t>
+  </si>
+  <si>
+    <t>Will not stay there again!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was horrible! It smelled, the carpet was nasty, and there was hair in the bathroom sink! So disappointed that American Express would even advertise such an hotel! Once you pay for the rooms there is no refund, so either leave or lose your money! I called to speak with an American Express representative and that was a waste of time. The photos online are very misleading! I was visiting LA for two weeks and I'm so glad I only booked the hotel for one week. </t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r244991068-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>244991068</t>
+  </si>
+  <si>
+    <t>12/18/2014</t>
+  </si>
+  <si>
+    <t>Read reviews before staying here...</t>
+  </si>
+  <si>
+    <t>The pics do not really look like exactly what this place is, but none the less if you just need a place to crash for a day or two, then this is a OK place.  This place was not bad NOR was it good. There is an on site bar so at last call hour, around 2:30 A.M. it got extremely noisy outside of my room. I could hear people walking up &amp; down the hallways and their drunken convos. Every time I went into the office the security guard would just be in there either standing or eating. There are no microwaves or fridges available, you need to pay extra, which is so dumb!! This place is located right off the freeway so if you do not mind the traffic then by all means this is a place for you. What I can say is, the rooms were spacious, I had a two queen bedroom on the second floor.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>The pics do not really look like exactly what this place is, but none the less if you just need a place to crash for a day or two, then this is a OK place.  This place was not bad NOR was it good. There is an on site bar so at last call hour, around 2:30 A.M. it got extremely noisy outside of my room. I could hear people walking up &amp; down the hallways and their drunken convos. Every time I went into the office the security guard would just be in there either standing or eating. There are no microwaves or fridges available, you need to pay extra, which is so dumb!! This place is located right off the freeway so if you do not mind the traffic then by all means this is a place for you. What I can say is, the rooms were spacious, I had a two queen bedroom on the second floor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r242878992-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>242878992</t>
+  </si>
+  <si>
+    <t>12/03/2014</t>
+  </si>
+  <si>
+    <t>Look before you leap.</t>
+  </si>
+  <si>
+    <t>i have stayed at this hotel twice, with a tour group.   On both times, i was unhappy with this hotel.  I am surprised that people actually want to stay here.  I don't USUALLY stay at a hotel like this, but my groups often pick this one, so i have to join them.  I felt my group could do better at Motel 6.  At least this place is MUCH more modern.  The services offered are TOTALLY outdated.  I feel I am staying at a "Motel" not an Inn or Suites.  I have "paid" for an "Inn" cheaper and better than this place, and more amenities offered.  The TV, room, colors of the room, just seem to be ANCIENT.  The Exterior needs attention also.  The location sucks also.  The closest thing within walking distance is an AM/PM.  If I am starving they do have a restaurant, but sorry the food is terrible.  I admit I didn't do breakfast.  Also dinner is WAY to expensive for what you get.  However the office is a palace!????  $10 charge for a refrigerator or microwave.  Repeat the sign says Suites, huh?  I was VERY unimpressed.  I suggest if you are desperate stay there; otherwise I would DEFINITELY go somewhere else.  By the way my Egg Nog spoiled.  I was too cheap to spend $10 for a refrigerator.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>i have stayed at this hotel twice, with a tour group.   On both times, i was unhappy with this hotel.  I am surprised that people actually want to stay here.  I don't USUALLY stay at a hotel like this, but my groups often pick this one, so i have to join them.  I felt my group could do better at Motel 6.  At least this place is MUCH more modern.  The services offered are TOTALLY outdated.  I feel I am staying at a "Motel" not an Inn or Suites.  I have "paid" for an "Inn" cheaper and better than this place, and more amenities offered.  The TV, room, colors of the room, just seem to be ANCIENT.  The Exterior needs attention also.  The location sucks also.  The closest thing within walking distance is an AM/PM.  If I am starving they do have a restaurant, but sorry the food is terrible.  I admit I didn't do breakfast.  Also dinner is WAY to expensive for what you get.  However the office is a palace!????  $10 charge for a refrigerator or microwave.  Repeat the sign says Suites, huh?  I was VERY unimpressed.  I suggest if you are desperate stay there; otherwise I would DEFINITELY go somewhere else.  By the way my Egg Nog spoiled.  I was too cheap to spend $10 for a refrigerator.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r220899782-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>220899782</t>
+  </si>
+  <si>
+    <t>08/10/2014</t>
+  </si>
+  <si>
+    <t>No problems</t>
+  </si>
+  <si>
+    <t>Good decent motel to stay at for the night. The location isn't the best since it is far from most LA attractions but the price was unbeatable. Clean room with bathroom towels, shampoo, etc. Also had a spa/pool areaMostly international guests here for some reason,</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r220184594-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>220184594</t>
+  </si>
+  <si>
+    <t>08/07/2014</t>
+  </si>
+  <si>
+    <t>Not too bad...</t>
+  </si>
+  <si>
+    <t>My husband and I spent two nights here as part of a tour group.The hotel room was clean, quiet and the beds were comfortable, but the room itself was a bit cramped - there's not much space to open up luggage!The free wifi was very slow.And the in-house restaurant's food options were distinctly limited - our menu on the first night consisted of "Salad @ $10, Hamburger @ $10 and Cheeseburger @ $11". Needless to say, we had dinner elsewhere the second night!</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r216335785-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>216335785</t>
+  </si>
+  <si>
+    <t>07/20/2014</t>
+  </si>
+  <si>
+    <t>Should not be called a hotel more like Motel</t>
+  </si>
+  <si>
+    <t>First look from outside looked like a motel or dirty apartment complex color is ugly went to check in the two ladies one heavy set and other rude looking were slow and very impatient and rude and only way to kill all that was being nice and smiling. The lobby was the only nice thing about the appearance of this motel. Got to our room smelled weird, cramped, old tv, &amp; dirty blinds. Swimming pool was alright. Security guard is such a prude! For Christ sakes people are on vacation! He follows people and just a nuisance! Night manager a heavy set lady is a very rude and doesn't do anything at all! Never will come again and don't suggest your family to come here if you don't want to have fun on vacation don't come here! Not worth your money save it for a real hotel! MoreShow less</t>
+  </si>
+  <si>
+    <t>First look from outside looked like a motel or dirty apartment complex color is ugly went to check in the two ladies one heavy set and other rude looking were slow and very impatient and rude and only way to kill all that was being nice and smiling. The lobby was the only nice thing about the appearance of this motel. Got to our room smelled weird, cramped, old tv, &amp; dirty blinds. Swimming pool was alright. Security guard is such a prude! For Christ sakes people are on vacation! He follows people and just a nuisance! Night manager a heavy set lady is a very rude and doesn't do anything at all! Never will come again and don't suggest your family to come here if you don't want to have fun on vacation don't come here! Not worth your money save it for a real hotel! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r205774845-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>205774845</t>
+  </si>
+  <si>
+    <t>05/16/2014</t>
+  </si>
+  <si>
+    <t>Stay here if you liked the 1980s</t>
+  </si>
+  <si>
+    <t>Hard mattress, outside entry, a quarter of a mile walk to the room and a CRAPPY big 1980s TV. The room was SUPER HOT when I got there and took an hour to cool down. The desk clerk was irritating and slow. I would NEVER stay there again!!!</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r199089602-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>199089602</t>
+  </si>
+  <si>
+    <t>03/28/2014</t>
+  </si>
+  <si>
+    <t>Decent - for the price</t>
+  </si>
+  <si>
+    <t>Beds were comfortable.  The shower fixtures were outdated and I had to stand RIGHT under shower head to reach the water.  Too cold to enjoy the pool, but the courtyard near it was nice.  Breakfast was good.   The microwave we "rented" was old and dirty, and the laundry facilities were hideous and in a part of the hotel that did not feel safe at all!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Guesthousenorwalk, Manager at GuestHouse Inn &amp; Suites Norwalk, responded to this reviewResponded April 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2014</t>
+  </si>
+  <si>
+    <t>Beds were comfortable.  The shower fixtures were outdated and I had to stand RIGHT under shower head to reach the water.  Too cold to enjoy the pool, but the courtyard near it was nice.  Breakfast was good.   The microwave we "rented" was old and dirty, and the laundry facilities were hideous and in a part of the hotel that did not feel safe at all!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r197303763-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>197303763</t>
+  </si>
+  <si>
+    <t>03/13/2014</t>
+  </si>
+  <si>
+    <t>I do not recommend</t>
+  </si>
+  <si>
+    <t>I picked this hotel to stay in for a Disneyland vacation. I chose this hotel even though it was a bit further away because the price was better than most and they offered free wi-fi. The wi-fi was very important for our stay, but it did not work. I called the front desk 3 times during my stay and told them it was not working. They did not offer much help other than "try again". 
+The room itself was ok, nothing special, but not awful. There was a door chain on the floor inside the room next to the door, even though there was a new chain put on the door. That just leads me to believe that it was broken at some point- not sure how to feel about that.
+There was trash and empty glasses left by the elevator that was there when we got there and then still there 24 hours later.
+When i checked out, the front desk girl did not ask how my stay was or any questions at all- just asked my room number and then said "Ok thanks".
+The constuction outside made it a little ugly and difficult to get to- we even missed it and had to do a u-turn even though u-turns were not allowed. 
+Overall I would say it might be worth it to stay here if you are hard up for a cheap place- but it was not worth...I picked this hotel to stay in for a Disneyland vacation. I chose this hotel even though it was a bit further away because the price was better than most and they offered free wi-fi. The wi-fi was very important for our stay, but it did not work. I called the front desk 3 times during my stay and told them it was not working. They did not offer much help other than "try again". The room itself was ok, nothing special, but not awful. There was a door chain on the floor inside the room next to the door, even though there was a new chain put on the door. That just leads me to believe that it was broken at some point- not sure how to feel about that.There was trash and empty glasses left by the elevator that was there when we got there and then still there 24 hours later.When i checked out, the front desk girl did not ask how my stay was or any questions at all- just asked my room number and then said "Ok thanks".The constuction outside made it a little ugly and difficult to get to- we even missed it and had to do a u-turn even though u-turns were not allowed. Overall I would say it might be worth it to stay here if you are hard up for a cheap place- but it was not worth it to me. Espcecially, as I said, I pretty much booked the room because wi-fi was included and then it ended up not working and no one even cared to ask how the experience was.MoreShow less</t>
+  </si>
+  <si>
+    <t>I picked this hotel to stay in for a Disneyland vacation. I chose this hotel even though it was a bit further away because the price was better than most and they offered free wi-fi. The wi-fi was very important for our stay, but it did not work. I called the front desk 3 times during my stay and told them it was not working. They did not offer much help other than "try again". 
+The room itself was ok, nothing special, but not awful. There was a door chain on the floor inside the room next to the door, even though there was a new chain put on the door. That just leads me to believe that it was broken at some point- not sure how to feel about that.
+There was trash and empty glasses left by the elevator that was there when we got there and then still there 24 hours later.
+When i checked out, the front desk girl did not ask how my stay was or any questions at all- just asked my room number and then said "Ok thanks".
+The constuction outside made it a little ugly and difficult to get to- we even missed it and had to do a u-turn even though u-turns were not allowed. 
+Overall I would say it might be worth it to stay here if you are hard up for a cheap place- but it was not worth...I picked this hotel to stay in for a Disneyland vacation. I chose this hotel even though it was a bit further away because the price was better than most and they offered free wi-fi. The wi-fi was very important for our stay, but it did not work. I called the front desk 3 times during my stay and told them it was not working. They did not offer much help other than "try again". The room itself was ok, nothing special, but not awful. There was a door chain on the floor inside the room next to the door, even though there was a new chain put on the door. That just leads me to believe that it was broken at some point- not sure how to feel about that.There was trash and empty glasses left by the elevator that was there when we got there and then still there 24 hours later.When i checked out, the front desk girl did not ask how my stay was or any questions at all- just asked my room number and then said "Ok thanks".The constuction outside made it a little ugly and difficult to get to- we even missed it and had to do a u-turn even though u-turns were not allowed. Overall I would say it might be worth it to stay here if you are hard up for a cheap place- but it was not worth it to me. Espcecially, as I said, I pretty much booked the room because wi-fi was included and then it ended up not working and no one even cared to ask how the experience was.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r175838998-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>175838998</t>
+  </si>
+  <si>
+    <t>09/04/2013</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>The motel was challenging to get to with construction going on around it. The front desk clerk was nice, but I was put off by seeing an undercover cop driving around the parking lot. There was only one big bath towel, hand towel, and wash cloth which was fine as I was alone, but this would have been an inconvenience had it been more than one traveler. There are not any places to eat nearby after 9 pm and I felt unsafe trying to find a place to eat by car and using Yelp. The walls were thin and I had to endure the sounds of my next door neighbors having sex for close to an hour. In hindsight, I would not have stayed there.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Guesthousenorwalk, Manager at GuestHouse Inn &amp; Suites Norwalk, responded to this reviewResponded September 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2013</t>
+  </si>
+  <si>
+    <t>The motel was challenging to get to with construction going on around it. The front desk clerk was nice, but I was put off by seeing an undercover cop driving around the parking lot. There was only one big bath towel, hand towel, and wash cloth which was fine as I was alone, but this would have been an inconvenience had it been more than one traveler. There are not any places to eat nearby after 9 pm and I felt unsafe trying to find a place to eat by car and using Yelp. The walls were thin and I had to endure the sounds of my next door neighbors having sex for close to an hour. In hindsight, I would not have stayed there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r168491016-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>168491016</t>
+  </si>
+  <si>
+    <t>07/21/2013</t>
+  </si>
+  <si>
+    <t>NEVER GO THERE</t>
+  </si>
+  <si>
+    <t>Worst Customer service ever. We reached at this hotel at 2 AM in the morning and guess what their key making machine is broken. Now we are standing there for 30 mins and she does not know what to do.Then she calls the security and he opens the door for us. This guy tries to show he is very tough instead of being nice to people who came at 2 AM. Now the door does not open because lock is broken. After struggling for 5 mins he opens the door. Next day we asked the lady to fix the lock. We called 2 times during the day and lady told us it is fixed. But after long day at disney land when we reached at room the door is still not fixed and we had to wait for 30 mins for security guy to come to open the door. Next day when we complained to the lady while checking out she said we cannot do anything. Instead of giving any kind compensation for the trouble she said you can write a review on yelp or call our manager.Will never recommend this place. Worst customer service ever.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Worst Customer service ever. We reached at this hotel at 2 AM in the morning and guess what their key making machine is broken. Now we are standing there for 30 mins and she does not know what to do.Then she calls the security and he opens the door for us. This guy tries to show he is very tough instead of being nice to people who came at 2 AM. Now the door does not open because lock is broken. After struggling for 5 mins he opens the door. Next day we asked the lady to fix the lock. We called 2 times during the day and lady told us it is fixed. But after long day at disney land when we reached at room the door is still not fixed and we had to wait for 30 mins for security guy to come to open the door. Next day when we complained to the lady while checking out she said we cannot do anything. Instead of giving any kind compensation for the trouble she said you can write a review on yelp or call our manager.Will never recommend this place. Worst customer service ever.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r157872127-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>157872127</t>
+  </si>
+  <si>
+    <t>04/15/2013</t>
+  </si>
+  <si>
+    <t>Excellent!!! :)</t>
+  </si>
+  <si>
+    <t>Staff was helpful, knowledge. Great location, highways, stores. Family friendly, pools looked awesome. Great welcoming atmosphere. Wish it was in Colorado, would be my home away from home. Beds comfortable, great cable channels, views!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Guesthousenorwalk, Manager at GuestHouse Inn &amp; Suites Norwalk, responded to this reviewResponded July 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2013</t>
+  </si>
+  <si>
+    <t>Staff was helpful, knowledge. Great location, highways, stores. Family friendly, pools looked awesome. Great welcoming atmosphere. Wish it was in Colorado, would be my home away from home. Beds comfortable, great cable channels, views!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r150129558-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>150129558</t>
+  </si>
+  <si>
+    <t>01/20/2013</t>
+  </si>
+  <si>
+    <t>Great Stay For Business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed here for one night after arriving on a late flight from LAX. I just needed a place to lay my head down before going to a job in the morning. The rate was affordable for a Saturday night. They guy at the desk was friendly and gave me my requested room. I didn't have a reservation and they were still accommodating. The room was clean. The bed was clean. I stay at hundreds of hotels a year for business and this was a good stay . I will be back if I'm in the area again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r149370000-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>149370000</t>
+  </si>
+  <si>
+    <t>01/10/2013</t>
+  </si>
+  <si>
+    <t>Good place for the money</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for a visit to relatives around New Years, we liked the rooms they smelled clean also bed sheets were nice and clean, kudos to house keeping! Be aware they do  offered a microwave and refrigerator but you will be charge $10 a day additional fee. But to be fair they do have it in writing  .. So Read!Also the Wifi signal was VERY VERY slow !! Not happy with about this.... Also besides the coffee maker in the room they do not offer any complementary coffee or breakfast but they do have a restaurant ...</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r146521924-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>146521924</t>
+  </si>
+  <si>
+    <t>11/30/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>The rate was reasonable. I booked online and it was only $60 per night. Frontdesk was very friendly, lobby was very nice, room is clean and nice and they have a large swimming pool with jacuzzi. I was excited to find out that they filmed the vacation movie here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r132573475-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>132573475</t>
+  </si>
+  <si>
+    <t>06/22/2012</t>
+  </si>
+  <si>
+    <t>Refurb money Wasted!</t>
+  </si>
+  <si>
+    <t>I have had the unpleasant chance to stay at this hotel 3 years in a row for business. While it has been refurbished recently they have done little to take care of the hotel. It has a fresh coat of paint, but the walls are dirty and the rooms smell. On occasion my linens appear to be unchanged as well. They need a new maid staff and new management! This property has come a long way since I first stayed here, but at this rate it will be right back very soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Guesthousenorwalk, Manager at GuestHouse Inn &amp; Suites Norwalk, responded to this reviewResponded August 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2012</t>
+  </si>
+  <si>
+    <t>I have had the unpleasant chance to stay at this hotel 3 years in a row for business. While it has been refurbished recently they have done little to take care of the hotel. It has a fresh coat of paint, but the walls are dirty and the rooms smell. On occasion my linens appear to be unchanged as well. They need a new maid staff and new management! This property has come a long way since I first stayed here, but at this rate it will be right back very soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r130612908-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>130612908</t>
+  </si>
+  <si>
+    <t>05/25/2012</t>
+  </si>
+  <si>
+    <t>Decent hotel for awesome price.</t>
+  </si>
+  <si>
+    <t>I had stayed here before several years back and I remember being a little skeptical at first.  The city itself seems a bit sketchy but the price was decent enough for me to try.  The location was right next to the 5 freeway and my girlfriend and I decided to spend the night since we had been driving all day.  All I can remember is that I had a good nights sleep and was more then ready for the long journey back home.  There wasn't anything particularly special, but at the same time, nothing particularly bad.  However, this past week I decided to stay here for about three nights since I needed to be in the area for business.  I chose this place again because I had been here before without any problems, and the prices were the best compared to most others (the cheaper ones seemed way too inadequate for my taste).  I walked in the lobby and found the entire place had been changed.  It wasn't how I had remembered it years ago.  The lobby was different and seemed a lot more modern than my previous visit.  It seems as if they had done some work over the years.  The room itself didn't seem that much different then I had remembered, but I did see some minor improvements here and there.  Again, I had an excellent nights sleep and was fully refreshed in the morning.  Service was good...I had stayed here before several years back and I remember being a little skeptical at first.  The city itself seems a bit sketchy but the price was decent enough for me to try.  The location was right next to the 5 freeway and my girlfriend and I decided to spend the night since we had been driving all day.  All I can remember is that I had a good nights sleep and was more then ready for the long journey back home.  There wasn't anything particularly special, but at the same time, nothing particularly bad.  However, this past week I decided to stay here for about three nights since I needed to be in the area for business.  I chose this place again because I had been here before without any problems, and the prices were the best compared to most others (the cheaper ones seemed way too inadequate for my taste).  I walked in the lobby and found the entire place had been changed.  It wasn't how I had remembered it years ago.  The lobby was different and seemed a lot more modern than my previous visit.  It seems as if they had done some work over the years.  The room itself didn't seem that much different then I had remembered, but I did see some minor improvements here and there.  Again, I had an excellent nights sleep and was fully refreshed in the morning.  Service was good and the room provided me with everything I needed.  The next two nights were much of the same.  I have been to plenty of hotels in my lifetime and this place might not be a five star hotel, but its a great bargain.  I always do ratings according to what I get for the price.  My recommendation: If you're looking for a five-star hotel, go pay for one.  But, if you're looking for the best deal, I'd highly recommend this place.  From my own experience, this place exceeded expectations for its reasonable price.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>I had stayed here before several years back and I remember being a little skeptical at first.  The city itself seems a bit sketchy but the price was decent enough for me to try.  The location was right next to the 5 freeway and my girlfriend and I decided to spend the night since we had been driving all day.  All I can remember is that I had a good nights sleep and was more then ready for the long journey back home.  There wasn't anything particularly special, but at the same time, nothing particularly bad.  However, this past week I decided to stay here for about three nights since I needed to be in the area for business.  I chose this place again because I had been here before without any problems, and the prices were the best compared to most others (the cheaper ones seemed way too inadequate for my taste).  I walked in the lobby and found the entire place had been changed.  It wasn't how I had remembered it years ago.  The lobby was different and seemed a lot more modern than my previous visit.  It seems as if they had done some work over the years.  The room itself didn't seem that much different then I had remembered, but I did see some minor improvements here and there.  Again, I had an excellent nights sleep and was fully refreshed in the morning.  Service was good...I had stayed here before several years back and I remember being a little skeptical at first.  The city itself seems a bit sketchy but the price was decent enough for me to try.  The location was right next to the 5 freeway and my girlfriend and I decided to spend the night since we had been driving all day.  All I can remember is that I had a good nights sleep and was more then ready for the long journey back home.  There wasn't anything particularly special, but at the same time, nothing particularly bad.  However, this past week I decided to stay here for about three nights since I needed to be in the area for business.  I chose this place again because I had been here before without any problems, and the prices were the best compared to most others (the cheaper ones seemed way too inadequate for my taste).  I walked in the lobby and found the entire place had been changed.  It wasn't how I had remembered it years ago.  The lobby was different and seemed a lot more modern than my previous visit.  It seems as if they had done some work over the years.  The room itself didn't seem that much different then I had remembered, but I did see some minor improvements here and there.  Again, I had an excellent nights sleep and was fully refreshed in the morning.  Service was good and the room provided me with everything I needed.  The next two nights were much of the same.  I have been to plenty of hotels in my lifetime and this place might not be a five star hotel, but its a great bargain.  I always do ratings according to what I get for the price.  My recommendation: If you're looking for a five-star hotel, go pay for one.  But, if you're looking for the best deal, I'd highly recommend this place.  From my own experience, this place exceeded expectations for its reasonable price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r130103816-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>130103816</t>
+  </si>
+  <si>
+    <t>05/17/2012</t>
+  </si>
+  <si>
+    <t>THE WORST HOTEL EVER. DON'T STAY HERE... (F-) RATING.</t>
+  </si>
+  <si>
+    <t>The worst hotel ever. Don't stay here. (F) Rating. Someone try to enter me and my wife's room with another key card without authorization.  Lucky i lock my door with the chain lock, so they couldn't get in.  Me and my wife were scared for our lives, we could've been robbed or killed.  Rape or anything if i didn't lock the door with that chain lock.  Me and my wife lefted this hotel right after the incident. The front desk didn't know what to say.  This is unacceptable for service.  This was my first time staying in this hotel.  This was the second room the hotel gave me because the first room was damaged. Latern frame was damaged, paint in the restroom was peeled off, damaged light panels and damaged pull out damaged.  The room had a new paint smell that made me and my wife feel sick too. I highly recommend no one stay here.  For your family safety, pay a little more extra to have your family safe and a clean room.  Across from our first room, a man and women were interacting have sex with the window open...  It seems like prositution hooker, the lady was dress up and dancing on him and kissing him...  It was just sick.  I wouldn't want a family with kids to see that... This was the view across from our first room and later we switch room and the second room...The worst hotel ever. Don't stay here. (F) Rating. Someone try to enter me and my wife's room with another key card without authorization.  Lucky i lock my door with the chain lock, so they couldn't get in.  Me and my wife were scared for our lives, we could've been robbed or killed.  Rape or anything if i didn't lock the door with that chain lock.  Me and my wife lefted this hotel right after the incident. The front desk didn't know what to say.  This is unacceptable for service.  This was my first time staying in this hotel.  This was the second room the hotel gave me because the first room was damaged. Latern frame was damaged, paint in the restroom was peeled off, damaged light panels and damaged pull out damaged.  The room had a new paint smell that made me and my wife feel sick too. I highly recommend no one stay here.  For your family safety, pay a little more extra to have your family safe and a clean room.  Across from our first room, a man and women were interacting have sex with the window open...  It seems like prositution hooker, the lady was dress up and dancing on him and kissing him...  It was just sick.  I wouldn't want a family with kids to see that... This was the view across from our first room and later we switch room and the second room some try to enter our room late that night.  It was worst experience staying in a hotel room in my life.  Motel 6 is better than this place.  Loud noise at night, people walking and talking... A drug dealing place and prosituition place.  Please don't stay here.  Respectfully Customer Steven.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>The worst hotel ever. Don't stay here. (F) Rating. Someone try to enter me and my wife's room with another key card without authorization.  Lucky i lock my door with the chain lock, so they couldn't get in.  Me and my wife were scared for our lives, we could've been robbed or killed.  Rape or anything if i didn't lock the door with that chain lock.  Me and my wife lefted this hotel right after the incident. The front desk didn't know what to say.  This is unacceptable for service.  This was my first time staying in this hotel.  This was the second room the hotel gave me because the first room was damaged. Latern frame was damaged, paint in the restroom was peeled off, damaged light panels and damaged pull out damaged.  The room had a new paint smell that made me and my wife feel sick too. I highly recommend no one stay here.  For your family safety, pay a little more extra to have your family safe and a clean room.  Across from our first room, a man and women were interacting have sex with the window open...  It seems like prositution hooker, the lady was dress up and dancing on him and kissing him...  It was just sick.  I wouldn't want a family with kids to see that... This was the view across from our first room and later we switch room and the second room...The worst hotel ever. Don't stay here. (F) Rating. Someone try to enter me and my wife's room with another key card without authorization.  Lucky i lock my door with the chain lock, so they couldn't get in.  Me and my wife were scared for our lives, we could've been robbed or killed.  Rape or anything if i didn't lock the door with that chain lock.  Me and my wife lefted this hotel right after the incident. The front desk didn't know what to say.  This is unacceptable for service.  This was my first time staying in this hotel.  This was the second room the hotel gave me because the first room was damaged. Latern frame was damaged, paint in the restroom was peeled off, damaged light panels and damaged pull out damaged.  The room had a new paint smell that made me and my wife feel sick too. I highly recommend no one stay here.  For your family safety, pay a little more extra to have your family safe and a clean room.  Across from our first room, a man and women were interacting have sex with the window open...  It seems like prositution hooker, the lady was dress up and dancing on him and kissing him...  It was just sick.  I wouldn't want a family with kids to see that... This was the view across from our first room and later we switch room and the second room some try to enter our room late that night.  It was worst experience staying in a hotel room in my life.  Motel 6 is better than this place.  Loud noise at night, people walking and talking... A drug dealing place and prosituition place.  Please don't stay here.  Respectfully Customer Steven.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r126205791-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>126205791</t>
+  </si>
+  <si>
+    <t>03/16/2012</t>
+  </si>
+  <si>
+    <t>Don't do it. AVOID at all costs.</t>
+  </si>
+  <si>
+    <t>We spent the past weekend here for a business trip. We had 6 rooms total shared with my colleagues. First thing, this is NOT a 3 star establishment.
+Lobby was locked WITHOUT any signs when we tried to check in late past 1am.
+Front desk will NOT help you with cleanliness, room switching, OR service.
+There is a night club/bar on the establishment so there will be LOUD music and inebriated people walking about at night. NOT a family friendly hotel.
+Housekeeping is ONLY available during the mornings and calling to the front desk to help past certain hours means them responding with Housekeeping isn't available or is closed try again tomorrow.
+Good luck asking for any towels, toiletries, or any type of service needed beyond the mornings. We asked for extra towels night of check in, DENIED; asked for towels the next morning, denied; asked for toiletries the following night, denied in ALL 6 rooms.
+We stayed in buildings 2, 4, and 6. Building 4 is supposedly newly remodeled and where I stayed for two nights. The only thing that looked remotely new was the tub but if you check the caulking it doesn’t look new at all. 
+Drains are SLOW if not backed up and water will run cold after the second person. TVs are small and outdated.
+Dressers are NOT clean. You will want to keep your belongings in your luggage off the floors.
+Carpet is years...We spent the past weekend here for a business trip. We had 6 rooms total shared with my colleagues. First thing, this is NOT a 3 star establishment.Lobby was locked WITHOUT any signs when we tried to check in late past 1am.Front desk will NOT help you with cleanliness, room switching, OR service.There is a night club/bar on the establishment so there will be LOUD music and inebriated people walking about at night. NOT a family friendly hotel.Housekeeping is ONLY available during the mornings and calling to the front desk to help past certain hours means them responding with Housekeeping isn't available or is closed try again tomorrow.Good luck asking for any towels, toiletries, or any type of service needed beyond the mornings. We asked for extra towels night of check in, DENIED; asked for towels the next morning, denied; asked for toiletries the following night, denied in ALL 6 rooms.We stayed in buildings 2, 4, and 6. Building 4 is supposedly newly remodeled and where I stayed for two nights. The only thing that looked remotely new was the tub but if you check the caulking it doesn’t look new at all. Drains are SLOW if not backed up and water will run cold after the second person. TVs are small and outdated.Dressers are NOT clean. You will want to keep your belongings in your luggage off the floors.Carpet is years old OR hasn’t been cleaned in months. You do not want to take your shoes off at all. Bed spread looks like something from the 80’s and is far from comfortable.Housekeeping will knock on your door EVERY hour, on the hour from 7am TILL check out. They won't give you extra towels.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>Guesthousenorwalk, Manager at GuestHouse Inn &amp; Suites Norwalk, responded to this reviewResponded August 20, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2012</t>
+  </si>
+  <si>
+    <t>We spent the past weekend here for a business trip. We had 6 rooms total shared with my colleagues. First thing, this is NOT a 3 star establishment.
+Lobby was locked WITHOUT any signs when we tried to check in late past 1am.
+Front desk will NOT help you with cleanliness, room switching, OR service.
+There is a night club/bar on the establishment so there will be LOUD music and inebriated people walking about at night. NOT a family friendly hotel.
+Housekeeping is ONLY available during the mornings and calling to the front desk to help past certain hours means them responding with Housekeeping isn't available or is closed try again tomorrow.
+Good luck asking for any towels, toiletries, or any type of service needed beyond the mornings. We asked for extra towels night of check in, DENIED; asked for towels the next morning, denied; asked for toiletries the following night, denied in ALL 6 rooms.
+We stayed in buildings 2, 4, and 6. Building 4 is supposedly newly remodeled and where I stayed for two nights. The only thing that looked remotely new was the tub but if you check the caulking it doesn’t look new at all. 
+Drains are SLOW if not backed up and water will run cold after the second person. TVs are small and outdated.
+Dressers are NOT clean. You will want to keep your belongings in your luggage off the floors.
+Carpet is years...We spent the past weekend here for a business trip. We had 6 rooms total shared with my colleagues. First thing, this is NOT a 3 star establishment.Lobby was locked WITHOUT any signs when we tried to check in late past 1am.Front desk will NOT help you with cleanliness, room switching, OR service.There is a night club/bar on the establishment so there will be LOUD music and inebriated people walking about at night. NOT a family friendly hotel.Housekeeping is ONLY available during the mornings and calling to the front desk to help past certain hours means them responding with Housekeeping isn't available or is closed try again tomorrow.Good luck asking for any towels, toiletries, or any type of service needed beyond the mornings. We asked for extra towels night of check in, DENIED; asked for towels the next morning, denied; asked for toiletries the following night, denied in ALL 6 rooms.We stayed in buildings 2, 4, and 6. Building 4 is supposedly newly remodeled and where I stayed for two nights. The only thing that looked remotely new was the tub but if you check the caulking it doesn’t look new at all. Drains are SLOW if not backed up and water will run cold after the second person. TVs are small and outdated.Dressers are NOT clean. You will want to keep your belongings in your luggage off the floors.Carpet is years old OR hasn’t been cleaned in months. You do not want to take your shoes off at all. Bed spread looks like something from the 80’s and is far from comfortable.Housekeeping will knock on your door EVERY hour, on the hour from 7am TILL check out. They won't give you extra towels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r125994725-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>125994725</t>
+  </si>
+  <si>
+    <t>03/12/2012</t>
+  </si>
+  <si>
+    <t>Scary</t>
+  </si>
+  <si>
+    <t>I stayed here with my girlfriend for 2 nights and we were terrified. The first clue should have been the bail bond stores next door. We went for a walk and a City of Norwalk Police car pulled beside us and suggested it was not a great neighbourhood for 2 women to walk alone in! The lobby is new but the rooms are ancient and it appears some of the back buildings are used as dormitories. Please stay away! MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here with my girlfriend for 2 nights and we were terrified. The first clue should have been the bail bond stores next door. We went for a walk and a City of Norwalk Police car pulled beside us and suggested it was not a great neighbourhood for 2 women to walk alone in! The lobby is new but the rooms are ancient and it appears some of the back buildings are used as dormitories. Please stay away! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r120600783-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>120600783</t>
+  </si>
+  <si>
+    <t>11/14/2011</t>
+  </si>
+  <si>
+    <t>Great Hotel to stay</t>
+  </si>
+  <si>
+    <t>We found the Guesthouse Hotel online and they had a great price and the pictures looked very pretty.  We booked a suite for one week at this location and we were very pleased with our stay.  They have two outdoor heated pools that was great as it was never over crowded.  The staff was very friendly and offered suggestions for places we can eat at even the nearby movie theatre and park.  We were always called by our names which made us feel welcome and safe a home away from home.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>We found the Guesthouse Hotel online and they had a great price and the pictures looked very pretty.  We booked a suite for one week at this location and we were very pleased with our stay.  They have two outdoor heated pools that was great as it was never over crowded.  The staff was very friendly and offered suggestions for places we can eat at even the nearby movie theatre and park.  We were always called by our names which made us feel welcome and safe a home away from home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r120255185-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>120255185</t>
+  </si>
+  <si>
+    <t>11/06/2011</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>When we first read all the complains, we were not that sure to stay. But at checking time the girl at the front desk Melissa, let us check in earlier than regular time. She was very helpful and gave us perfect directions to shopping centers close to the hotel. The rooms were very cleaned and big. Ah also a great breakfast for the kids in the morning is buffet style only for $7.00.. We had freshly warm french toast and fresh coffee. I will definitely recommend Guesthouse Hotel to my family and friends. We'll go back on our next vacations.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>Guesthousenorwalk, Manager at GuestHouse Inn &amp; Suites Norwalk, responded to this reviewResponded August 21, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2012</t>
+  </si>
+  <si>
+    <t>When we first read all the complains, we were not that sure to stay. But at checking time the girl at the front desk Melissa, let us check in earlier than regular time. She was very helpful and gave us perfect directions to shopping centers close to the hotel. The rooms were very cleaned and big. Ah also a great breakfast for the kids in the morning is buffet style only for $7.00.. We had freshly warm french toast and fresh coffee. I will definitely recommend Guesthouse Hotel to my family and friends. We'll go back on our next vacations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r119899719-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>119899719</t>
+  </si>
+  <si>
+    <t>10/30/2011</t>
+  </si>
+  <si>
+    <t>Very reasonable price close to Disney Anahiem, CA</t>
+  </si>
+  <si>
+    <t>I shared room with my friends we went to have long weekend we wanna be close to Disney and Knotts, very good people at the desk/housekeeping and restaurant people</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r117716763-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>117716763</t>
+  </si>
+  <si>
+    <t>09/05/2011</t>
+  </si>
+  <si>
+    <t>It was actually a decent motel for a one night stay &amp; we would probably stay again</t>
+  </si>
+  <si>
+    <t>I was worried when I first read the reviews, most of them being negative.  Honestly after we checked in, we were actually quite surprised.  I must say, having lived in So. California all my life &amp; frequenting most of the cheaper motels/hotels, and also the higher quality 5 start hotels, I cant really say this was entirely bad. It wasn't.  If you have higher expectations of lodging, than its going to have to be the higher priced chains, because quite honestly reasonably priced in this area and allover LA county, you get what you pay for, in some cases worse.  With that said, this was not bad, but we weren't expecting it to be more than what we wanted for a one night stay.    The motel itself was huge...It was clean, it was alot bigger in size for that price compared to motel 6 amongst the others.  Yes I agree w/some the outside cosmetic features, as well as on the inside could use more updating/more of a facelift, but I did like the old hotel antique look about it, big burgundy &amp; mustard colar thick curtains and the cherry wood (looking) furniture made me feel the I was back in the 1970s, I love that cheezyness, it was classy.  Ok some flaws were shown, on the bathroom vanity &amp; bathroom were some scratches &amp; markings that couldn't be hidden, its normal when you have a lot of people staying there...I was worried when I first read the reviews, most of them being negative.  Honestly after we checked in, we were actually quite surprised.  I must say, having lived in So. California all my life &amp; frequenting most of the cheaper motels/hotels, and also the higher quality 5 start hotels, I cant really say this was entirely bad. It wasn't.  If you have higher expectations of lodging, than its going to have to be the higher priced chains, because quite honestly reasonably priced in this area and allover LA county, you get what you pay for, in some cases worse.  With that said, this was not bad, but we weren't expecting it to be more than what we wanted for a one night stay.    The motel itself was huge...It was clean, it was alot bigger in size for that price compared to motel 6 amongst the others.  Yes I agree w/some the outside cosmetic features, as well as on the inside could use more updating/more of a facelift, but I did like the old hotel antique look about it, big burgundy &amp; mustard colar thick curtains and the cherry wood (looking) furniture made me feel the I was back in the 1970s, I love that cheezyness, it was classy.  Ok some flaws were shown, on the bathroom vanity &amp; bathroom were some scratches &amp; markings that couldn't be hidden, its normal when you have a lot of people staying there throughout the years. Aside from that we were really ok w/it.  And we were placed by the pool area, not my first choice, but when we saw that it was mostly diverse families &amp; not the typical young party crowd/rebel rousers, we were really pleased, &amp; it wasn't that noisey, the families outside got quiet after a certain time.  They even have a resturant and a bar/lounge area that was actually another pleasant surprise and it was a dj/band catered to people our age 40's +, playing old school 80s stuff as well as oldies &amp; contemporary/rock music, I loved it. Prices weren't bad either.  The restaurant had alot people in it, so it couldn't have been that bad, we just didn't get a chance to try it.  Overall our experience was good, better than what we expected, for the price we paid.  Like I said anyone w/higher expectations (&amp; rightfully so) need not go there, but you will have to go to a higher priced motel/hotel and pay for what you expect, its the area and the masses of people it caters to.My only complaints would be the toilets were clogged, thank god for my husband being a jack of all trades &amp; resolving it (this w/out a plunger) and more towels.  Yes the bed was stiff as a board, and the pillows were quite tiny, but they did the job, they felt comfortalble, just half the size of standard twin size &amp; we slept like babies on the bed, even though it was hard.  The coffee pots are only one cup coffee (two per room) but I would think if they had the bigger ones, people in the past stay have ruined it by stealing them or breaking them.  Cable &amp; Internet was fine, had no problems.  It comes also w/the blow dryer, the mini fridge, iron/ironing board &amp; the usual stuff. so all in all I would say we were statisfied for what we paid for, had a peaceful night (being outside the pool area?? thats a plus) and would reccommend it to people that just want a decent place to sleep in for a night, maybe two, I wouldn't go past two though.  Staff was friendly &amp; helpful too.   And if your expecting more (more than Motel 6) than you really should consider the higher priced lodging accomodations.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was worried when I first read the reviews, most of them being negative.  Honestly after we checked in, we were actually quite surprised.  I must say, having lived in So. California all my life &amp; frequenting most of the cheaper motels/hotels, and also the higher quality 5 start hotels, I cant really say this was entirely bad. It wasn't.  If you have higher expectations of lodging, than its going to have to be the higher priced chains, because quite honestly reasonably priced in this area and allover LA county, you get what you pay for, in some cases worse.  With that said, this was not bad, but we weren't expecting it to be more than what we wanted for a one night stay.    The motel itself was huge...It was clean, it was alot bigger in size for that price compared to motel 6 amongst the others.  Yes I agree w/some the outside cosmetic features, as well as on the inside could use more updating/more of a facelift, but I did like the old hotel antique look about it, big burgundy &amp; mustard colar thick curtains and the cherry wood (looking) furniture made me feel the I was back in the 1970s, I love that cheezyness, it was classy.  Ok some flaws were shown, on the bathroom vanity &amp; bathroom were some scratches &amp; markings that couldn't be hidden, its normal when you have a lot of people staying there...I was worried when I first read the reviews, most of them being negative.  Honestly after we checked in, we were actually quite surprised.  I must say, having lived in So. California all my life &amp; frequenting most of the cheaper motels/hotels, and also the higher quality 5 start hotels, I cant really say this was entirely bad. It wasn't.  If you have higher expectations of lodging, than its going to have to be the higher priced chains, because quite honestly reasonably priced in this area and allover LA county, you get what you pay for, in some cases worse.  With that said, this was not bad, but we weren't expecting it to be more than what we wanted for a one night stay.    The motel itself was huge...It was clean, it was alot bigger in size for that price compared to motel 6 amongst the others.  Yes I agree w/some the outside cosmetic features, as well as on the inside could use more updating/more of a facelift, but I did like the old hotel antique look about it, big burgundy &amp; mustard colar thick curtains and the cherry wood (looking) furniture made me feel the I was back in the 1970s, I love that cheezyness, it was classy.  Ok some flaws were shown, on the bathroom vanity &amp; bathroom were some scratches &amp; markings that couldn't be hidden, its normal when you have a lot of people staying there throughout the years. Aside from that we were really ok w/it.  And we were placed by the pool area, not my first choice, but when we saw that it was mostly diverse families &amp; not the typical young party crowd/rebel rousers, we were really pleased, &amp; it wasn't that noisey, the families outside got quiet after a certain time.  They even have a resturant and a bar/lounge area that was actually another pleasant surprise and it was a dj/band catered to people our age 40's +, playing old school 80s stuff as well as oldies &amp; contemporary/rock music, I loved it. Prices weren't bad either.  The restaurant had alot people in it, so it couldn't have been that bad, we just didn't get a chance to try it.  Overall our experience was good, better than what we expected, for the price we paid.  Like I said anyone w/higher expectations (&amp; rightfully so) need not go there, but you will have to go to a higher priced motel/hotel and pay for what you expect, its the area and the masses of people it caters to.My only complaints would be the toilets were clogged, thank god for my husband being a jack of all trades &amp; resolving it (this w/out a plunger) and more towels.  Yes the bed was stiff as a board, and the pillows were quite tiny, but they did the job, they felt comfortalble, just half the size of standard twin size &amp; we slept like babies on the bed, even though it was hard.  The coffee pots are only one cup coffee (two per room) but I would think if they had the bigger ones, people in the past stay have ruined it by stealing them or breaking them.  Cable &amp; Internet was fine, had no problems.  It comes also w/the blow dryer, the mini fridge, iron/ironing board &amp; the usual stuff. so all in all I would say we were statisfied for what we paid for, had a peaceful night (being outside the pool area?? thats a plus) and would reccommend it to people that just want a decent place to sleep in for a night, maybe two, I wouldn't go past two though.  Staff was friendly &amp; helpful too.   And if your expecting more (more than Motel 6) than you really should consider the higher priced lodging accomodations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r115827649-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>115827649</t>
+  </si>
+  <si>
+    <t>07/26/2011</t>
+  </si>
+  <si>
+    <t>No Stars is too many!</t>
+  </si>
+  <si>
+    <t>3 Stars is a joke! Centrally located if you need a bail bond or a pawn shop. We checked in and immediatly called Expedia to question the rating and were told that it was not a merit rating but was a self-assigned rating. The rooms are out of date and the beds are horrible. Expedia did try 4 times to get us released from the last 3 days of our stay but to no avail, they even HUNG UP on Expedia. The Expedia rep told us that it was his worst experience in dealing with a hotel and he even went to bat and got us a 200.00 credit from EXPEDIA not the hotel and found us a new hotel (2 stars but night and day nicer!) Please be forewarned about this facility. On the positive the grounds are quite nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>3 Stars is a joke! Centrally located if you need a bail bond or a pawn shop. We checked in and immediatly called Expedia to question the rating and were told that it was not a merit rating but was a self-assigned rating. The rooms are out of date and the beds are horrible. Expedia did try 4 times to get us released from the last 3 days of our stay but to no avail, they even HUNG UP on Expedia. The Expedia rep told us that it was his worst experience in dealing with a hotel and he even went to bat and got us a 200.00 credit from EXPEDIA not the hotel and found us a new hotel (2 stars but night and day nicer!) Please be forewarned about this facility. On the positive the grounds are quite nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r114696211-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>114696211</t>
+  </si>
+  <si>
+    <t>06/23/2011</t>
+  </si>
+  <si>
+    <t>Horrible front desk and room service</t>
+  </si>
+  <si>
+    <t>Worst experience in all. The front desk could not find the reservation. Got non-cleaned room at 6PM. Wedding party was going until 12AM. They tried to charge us twice: Charged for the stay at the checkin and then tried to do again upon checkout. I had to search through the packed bags to find a copy of the receipt. Room cleaning always forgot to restock something.. eg. creamers or cups.MoreShow less</t>
+  </si>
+  <si>
+    <t>Guesthousenorwalk, General Manager at GuestHouse Inn &amp; Suites Norwalk, responded to this reviewResponded June 28, 2011</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2011</t>
+  </si>
+  <si>
+    <t>Worst experience in all. The front desk could not find the reservation. Got non-cleaned room at 6PM. Wedding party was going until 12AM. They tried to charge us twice: Charged for the stay at the checkin and then tried to do again upon checkout. I had to search through the packed bags to find a copy of the receipt. Room cleaning always forgot to restock something.. eg. creamers or cups.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r110623748-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>110623748</t>
+  </si>
+  <si>
+    <t>05/30/2011</t>
+  </si>
+  <si>
+    <t>what is with all the complants</t>
+  </si>
+  <si>
+    <t>Ok i read all the complants before going to this motel , and was quite scared, but the rooms were clean and very large, asked for a refer and got one, bathroom clean, motel was not like the reviews said,,staff was fine , went with a lot of kids , scoccer group and they had a blast.. NO BED  BUGS,,STAFF WAS NICE... for 65 dollars it was better than motel 6 , or days inn etc, you get the idea,,, oh yea i never make a comment but had too on this one,,, have a nice day...MoreShow less</t>
+  </si>
+  <si>
+    <t>Ok i read all the complants before going to this motel , and was quite scared, but the rooms were clean and very large, asked for a refer and got one, bathroom clean, motel was not like the reviews said,,staff was fine , went with a lot of kids , scoccer group and they had a blast.. NO BED  BUGS,,STAFF WAS NICE... for 65 dollars it was better than motel 6 , or days inn etc, you get the idea,,, oh yea i never make a comment but had too on this one,,, have a nice day...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r83495987-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>83495987</t>
+  </si>
+  <si>
+    <t>10/14/2010</t>
+  </si>
+  <si>
+    <t>Fair for one night</t>
+  </si>
+  <si>
+    <t>The hotel is located near the highway on the way to LA. The room was OK with a good bed. We went to the buffet that was very limited and of poor quality for 16$ per person. The personal was not very friendly, maybe because there was a wedding in the room next to the restaurant where a fight started. In conclusion it was ok for one night but I wouldn't stay there several days.MoreShow less</t>
+  </si>
+  <si>
+    <t>Guesthousenorwalk, Manager at GuestHouse Inn &amp; Suites Norwalk, responded to this reviewResponded April 3, 2011</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2011</t>
+  </si>
+  <si>
+    <t>The hotel is located near the highway on the way to LA. The room was OK with a good bed. We went to the buffet that was very limited and of poor quality for 16$ per person. The personal was not very friendly, maybe because there was a wedding in the room next to the restaurant where a fight started. In conclusion it was ok for one night but I wouldn't stay there several days.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r77193971-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>77193971</t>
+  </si>
+  <si>
+    <t>08/28/2010</t>
+  </si>
+  <si>
+    <t>Was probably top of the line before sliced bread</t>
+  </si>
+  <si>
+    <t>I wouldnt tell anyone to stay away, but there are better places for the same price within reasonable distance, not unclean at all, I have seen no roaches, friendly staff, just not a super nice or new facility, and the price doesn't reflect that.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>I wouldnt tell anyone to stay away, but there are better places for the same price within reasonable distance, not unclean at all, I have seen no roaches, friendly staff, just not a super nice or new facility, and the price doesn't reflect that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r72671719-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>72671719</t>
+  </si>
+  <si>
+    <t>07/27/2010</t>
+  </si>
+  <si>
+    <t>Roaches!! need I say more??</t>
+  </si>
+  <si>
+    <t>We stayed at Disneyland later then expected and my husband and i were just too tired to drive home especially with two little ones so last minute we decided to stay at the Guess house and just leave early morning. The fact that the room was old and not up to date didn't really bother us. Our shower was covered in hair and our comforter had holes and a funny odor. From having personal experience working in hotels i have learn that most hotels DO NOT wash their comforters to keep from looking old so the first thing i did was remove the comforters off the beds. It was a late night so my family and i decided to call it a night and go to bed early. my husband and I woke up and could not stop itching (from the BEDBUGS) so we decided to go ahead and force ourselves to take a shower in the hairy tub besides we didn't want to ride all the way home itchy. when we walked in the bathroom there was a bigger problem there were three roaches, my daughter screamed. Two ran in the crack of the wall and one HUGE one just sat there and stared at me as if i was an intruder. We immediately took all our things outside to shake them off my son had one in his shoe and that was the final straw i called the...We stayed at Disneyland later then expected and my husband and i were just too tired to drive home especially with two little ones so last minute we decided to stay at the Guess house and just leave early morning. The fact that the room was old and not up to date didn't really bother us. Our shower was covered in hair and our comforter had holes and a funny odor. From having personal experience working in hotels i have learn that most hotels DO NOT wash their comforters to keep from looking old so the first thing i did was remove the comforters off the beds. It was a late night so my family and i decided to call it a night and go to bed early. my husband and I woke up and could not stop itching (from the BEDBUGS) so we decided to go ahead and force ourselves to take a shower in the hairy tub besides we didn't want to ride all the way home itchy. when we walked in the bathroom there was a bigger problem there were three roaches, my daughter screamed. Two ran in the crack of the wall and one HUGE one just sat there and stared at me as if i was an intruder. We immediately took all our things outside to shake them off my son had one in his shoe and that was the final straw i called the front desk and the lady said she would send someone right away. A lady came from house keeping and we showed her the HUGE one that was still roaming around as if he owned the room and the lady looked at the roach as if it was normal and she just stepped on it CRUNCH!!!! (it was disgusting).. the roach still popped backed up and took off running so she got some tissue and just picked it up the freakin 3 1/2 inch roach (NO JOKE) like nothing and flushed it down the toilet then she smiled at us and said sorry.We get up the front desk to get reimbursed and the lady said all she can do is give us $20 dollars off of our $79+tax room and i was not going to settle for that so she calls the manager to talk to me and HE was totally RUDE and didn't want to accommodate us at all. I explained to him how i had small children in the room and there was a roach in my sons shoe and his response was well that's all i can do if you have a problem call the Better Business Bureau then he demanded to talk back to the front desk how rude is that. I don't understand how he is a manger of a hotel when he doesn't know a thing about customer service. you couldn't pay me to stay another night in that roach infested hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>We stayed at Disneyland later then expected and my husband and i were just too tired to drive home especially with two little ones so last minute we decided to stay at the Guess house and just leave early morning. The fact that the room was old and not up to date didn't really bother us. Our shower was covered in hair and our comforter had holes and a funny odor. From having personal experience working in hotels i have learn that most hotels DO NOT wash their comforters to keep from looking old so the first thing i did was remove the comforters off the beds. It was a late night so my family and i decided to call it a night and go to bed early. my husband and I woke up and could not stop itching (from the BEDBUGS) so we decided to go ahead and force ourselves to take a shower in the hairy tub besides we didn't want to ride all the way home itchy. when we walked in the bathroom there was a bigger problem there were three roaches, my daughter screamed. Two ran in the crack of the wall and one HUGE one just sat there and stared at me as if i was an intruder. We immediately took all our things outside to shake them off my son had one in his shoe and that was the final straw i called the...We stayed at Disneyland later then expected and my husband and i were just too tired to drive home especially with two little ones so last minute we decided to stay at the Guess house and just leave early morning. The fact that the room was old and not up to date didn't really bother us. Our shower was covered in hair and our comforter had holes and a funny odor. From having personal experience working in hotels i have learn that most hotels DO NOT wash their comforters to keep from looking old so the first thing i did was remove the comforters off the beds. It was a late night so my family and i decided to call it a night and go to bed early. my husband and I woke up and could not stop itching (from the BEDBUGS) so we decided to go ahead and force ourselves to take a shower in the hairy tub besides we didn't want to ride all the way home itchy. when we walked in the bathroom there was a bigger problem there were three roaches, my daughter screamed. Two ran in the crack of the wall and one HUGE one just sat there and stared at me as if i was an intruder. We immediately took all our things outside to shake them off my son had one in his shoe and that was the final straw i called the front desk and the lady said she would send someone right away. A lady came from house keeping and we showed her the HUGE one that was still roaming around as if he owned the room and the lady looked at the roach as if it was normal and she just stepped on it CRUNCH!!!! (it was disgusting).. the roach still popped backed up and took off running so she got some tissue and just picked it up the freakin 3 1/2 inch roach (NO JOKE) like nothing and flushed it down the toilet then she smiled at us and said sorry.We get up the front desk to get reimbursed and the lady said all she can do is give us $20 dollars off of our $79+tax room and i was not going to settle for that so she calls the manager to talk to me and HE was totally RUDE and didn't want to accommodate us at all. I explained to him how i had small children in the room and there was a roach in my sons shoe and his response was well that's all i can do if you have a problem call the Better Business Bureau then he demanded to talk back to the front desk how rude is that. I don't understand how he is a manger of a hotel when he doesn't know a thing about customer service. you couldn't pay me to stay another night in that roach infested hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r60834395-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>60834395</t>
+  </si>
+  <si>
+    <t>04/09/2010</t>
+  </si>
+  <si>
+    <t>terrible service and rooms and bug problems</t>
+  </si>
+  <si>
+    <t>The motel rooms are poorly lit, and sparser than any Motel 6.  I was told when I called to check that the motel had a fitness center. Too bad they didn't tell me it was closed for construction.I woke up covered in bug bites. I went to go take a shower and two large cockroaches jumped out at me.  I immediately removed everything from the room. I went to check out and was told by a clerk who could barely get off her personal phone call that the manager wasn't there yet. I asked if I could get a refund and she said she couldn't do that. I left my phone number but heard nothing back from the motel. Disgusting facility, right next to the railroad tracks and freeway so it was very noisy, and disgusting rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>The motel rooms are poorly lit, and sparser than any Motel 6.  I was told when I called to check that the motel had a fitness center. Too bad they didn't tell me it was closed for construction.I woke up covered in bug bites. I went to go take a shower and two large cockroaches jumped out at me.  I immediately removed everything from the room. I went to check out and was told by a clerk who could barely get off her personal phone call that the manager wasn't there yet. I asked if I could get a refund and she said she couldn't do that. I left my phone number but heard nothing back from the motel. Disgusting facility, right next to the railroad tracks and freeway so it was very noisy, and disgusting rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r35058397-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>35058397</t>
+  </si>
+  <si>
+    <t>07/18/2009</t>
+  </si>
+  <si>
+    <t>3 star lobby, 1-2 star room</t>
+  </si>
+  <si>
+    <t>If you think you get a good deal for a 3 star hotel at such price (I got $53/night), be aware of the gap between your expectation and the reality. The lobby looked good, but the room was even worse than some of the motel 6/super 8 I've ever stayed in.  The room looked clean over all, but ever since I touched the blanket, I felt itchy. The bathroom was one of the worst I've ever used. The shower was dirty, and the shower nozzle is super low. I am 5'11 and I had to bend my legs and squat so I could rinse my hair. In-room wireless Internet never worked. There were tons of AP on the network list but none worked. Soon I found that I don't care all of above, because I just want to fall asleep ASAP so I could wake up and check out the next morning ASAP.If you're a tight budget traveler, this hotel might be one of your option. But I believe you could find a better, at least cleaner, one at the same price.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>If you think you get a good deal for a 3 star hotel at such price (I got $53/night), be aware of the gap between your expectation and the reality. The lobby looked good, but the room was even worse than some of the motel 6/super 8 I've ever stayed in.  The room looked clean over all, but ever since I touched the blanket, I felt itchy. The bathroom was one of the worst I've ever used. The shower was dirty, and the shower nozzle is super low. I am 5'11 and I had to bend my legs and squat so I could rinse my hair. In-room wireless Internet never worked. There were tons of AP on the network list but none worked. Soon I found that I don't care all of above, because I just want to fall asleep ASAP so I could wake up and check out the next morning ASAP.If you're a tight budget traveler, this hotel might be one of your option. But I believe you could find a better, at least cleaner, one at the same price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r24334464-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>24334464</t>
+  </si>
+  <si>
+    <t>02/07/2009</t>
+  </si>
+  <si>
+    <t>This is a motel</t>
+  </si>
+  <si>
+    <t>3 Stars??? Give me a break. Based on a few reviews, I made a reservation for this hotel. I got a good deal: 50 USD. Norwalk is an ugly and scary town in the middle of L.A. If you don´t HAVE to come here, please don´t do so. This not a hotel, it´s a MOTEL. If you have ever stayed in a Motel 6, well is almost the same thing. The room was fairly clean, but totally basic and dated. I just recommend this hotel for one night (if you want a cheap room, in an ugly town, in a cheap motel).MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>Guesthousenorwalk, Management at GuestHouse Inn &amp; Suites Norwalk, responded to this reviewResponded February 16, 2009</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2009</t>
+  </si>
+  <si>
+    <t>3 Stars??? Give me a break. Based on a few reviews, I made a reservation for this hotel. I got a good deal: 50 USD. Norwalk is an ugly and scary town in the middle of L.A. If you don´t HAVE to come here, please don´t do so. This not a hotel, it´s a MOTEL. If you have ever stayed in a Motel 6, well is almost the same thing. The room was fairly clean, but totally basic and dated. I just recommend this hotel for one night (if you want a cheap room, in an ugly town, in a cheap motel).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r20682297-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>20682297</t>
+  </si>
+  <si>
+    <t>10/06/2008</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>Nice Hotel to stay at</t>
+  </si>
+  <si>
+    <t>September 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r20121729-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>20121729</t>
+  </si>
+  <si>
+    <t>09/16/2008</t>
+  </si>
+  <si>
+    <t>Bed Bugs! Beware!!!</t>
+  </si>
+  <si>
+    <t>It looked like a clean hotel, but I woke up with bed bugs. I tried to call the front desk, but my phone wouldn't work. I immediately left and asked the manager to call me. I haven't heard from them, and their staff seemed unresponsive. I am horrified and I still get chills thinking about it. I took pictures of my bed to show the manager, but it didn't seem like they cared.MoreShow less</t>
+  </si>
+  <si>
+    <t>Guesthousenorwalk, Managing Partner at GuestHouse Inn &amp; Suites Norwalk, responded to this reviewResponded September 17, 2008</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2008</t>
+  </si>
+  <si>
+    <t>It looked like a clean hotel, but I woke up with bed bugs. I tried to call the front desk, but my phone wouldn't work. I immediately left and asked the manager to call me. I haven't heard from them, and their staff seemed unresponsive. I am horrified and I still get chills thinking about it. I took pictures of my bed to show the manager, but it didn't seem like they cared.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r17938494-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>17938494</t>
+  </si>
+  <si>
+    <t>07/16/2008</t>
+  </si>
+  <si>
+    <t>A must stay</t>
+  </si>
+  <si>
+    <t>I booked this hotel for a wedding for my nephew and thought it would be a so,so hotel.  However, when I entered the lot, the landscape was beautiful. They even had the El Camino Real Bell on the property. I believe the hotel is on that historical path. ANyway, the lobby appeared to be BRAND NEW with marble floors and modern fixtures.  I went to my room and it was nive and clean and for the rate I paid, it was a great value!  Looking forward in staying here again and telling ALL my friends about this hotel in Norwalk, California.</t>
+  </si>
+  <si>
+    <t>July 2008</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1874,3633 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>106</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>129</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" t="s">
+        <v>134</v>
+      </c>
+      <c r="L15" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>136</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>143</v>
+      </c>
+      <c r="O16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>150</v>
+      </c>
+      <c r="X17" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s">
+        <v>157</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>158</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>159</v>
+      </c>
+      <c r="X18" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>167</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" t="s">
+        <v>171</v>
+      </c>
+      <c r="L20" t="s">
+        <v>172</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>173</v>
+      </c>
+      <c r="O20" t="s">
+        <v>94</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>176</v>
+      </c>
+      <c r="J21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K21" t="s">
+        <v>178</v>
+      </c>
+      <c r="L21" t="s">
+        <v>179</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>180</v>
+      </c>
+      <c r="O21" t="s">
+        <v>94</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" t="s">
+        <v>185</v>
+      </c>
+      <c r="L22" t="s">
+        <v>186</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>187</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" t="s">
+        <v>191</v>
+      </c>
+      <c r="L23" t="s">
+        <v>192</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>193</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>195</v>
+      </c>
+      <c r="J24" t="s">
+        <v>196</v>
+      </c>
+      <c r="K24" t="s">
+        <v>197</v>
+      </c>
+      <c r="L24" t="s">
+        <v>198</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>199</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>202</v>
+      </c>
+      <c r="J25" t="s">
+        <v>203</v>
+      </c>
+      <c r="K25" t="s">
+        <v>204</v>
+      </c>
+      <c r="L25" t="s">
+        <v>205</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>206</v>
+      </c>
+      <c r="O25" t="s">
+        <v>94</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>209</v>
+      </c>
+      <c r="J26" t="s">
+        <v>210</v>
+      </c>
+      <c r="K26" t="s">
+        <v>211</v>
+      </c>
+      <c r="L26" t="s">
+        <v>212</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>213</v>
+      </c>
+      <c r="O26" t="s">
+        <v>214</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>215</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>216</v>
+      </c>
+      <c r="J27" t="s">
+        <v>217</v>
+      </c>
+      <c r="K27" t="s">
+        <v>218</v>
+      </c>
+      <c r="L27" t="s">
+        <v>219</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>220</v>
+      </c>
+      <c r="O27" t="s">
+        <v>214</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>221</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>222</v>
+      </c>
+      <c r="J28" t="s">
+        <v>223</v>
+      </c>
+      <c r="K28" t="s">
+        <v>224</v>
+      </c>
+      <c r="L28" t="s">
+        <v>225</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>227</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>228</v>
+      </c>
+      <c r="J29" t="s">
+        <v>229</v>
+      </c>
+      <c r="K29" t="s">
+        <v>230</v>
+      </c>
+      <c r="L29" t="s">
+        <v>231</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>232</v>
+      </c>
+      <c r="O29" t="s">
+        <v>214</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>233</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>234</v>
+      </c>
+      <c r="J30" t="s">
+        <v>235</v>
+      </c>
+      <c r="K30" t="s">
+        <v>236</v>
+      </c>
+      <c r="L30" t="s">
+        <v>237</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>238</v>
+      </c>
+      <c r="O30" t="s">
+        <v>214</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>239</v>
+      </c>
+      <c r="X30" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>242</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>243</v>
+      </c>
+      <c r="J31" t="s">
+        <v>244</v>
+      </c>
+      <c r="K31" t="s">
+        <v>245</v>
+      </c>
+      <c r="L31" t="s">
+        <v>246</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>238</v>
+      </c>
+      <c r="O31" t="s">
+        <v>214</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>248</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>249</v>
+      </c>
+      <c r="J32" t="s">
+        <v>250</v>
+      </c>
+      <c r="K32" t="s">
+        <v>251</v>
+      </c>
+      <c r="L32" t="s">
+        <v>252</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>253</v>
+      </c>
+      <c r="O32" t="s">
+        <v>68</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>254</v>
+      </c>
+      <c r="X32" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>257</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>258</v>
+      </c>
+      <c r="J33" t="s">
+        <v>259</v>
+      </c>
+      <c r="K33" t="s">
+        <v>260</v>
+      </c>
+      <c r="L33" t="s">
+        <v>261</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>262</v>
+      </c>
+      <c r="O33" t="s">
+        <v>214</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>264</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>265</v>
+      </c>
+      <c r="J34" t="s">
+        <v>266</v>
+      </c>
+      <c r="K34" t="s">
+        <v>267</v>
+      </c>
+      <c r="L34" t="s">
+        <v>268</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>269</v>
+      </c>
+      <c r="X34" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>272</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>273</v>
+      </c>
+      <c r="J35" t="s">
+        <v>274</v>
+      </c>
+      <c r="K35" t="s">
+        <v>275</v>
+      </c>
+      <c r="L35" t="s">
+        <v>276</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>277</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>278</v>
+      </c>
+      <c r="J36" t="s">
+        <v>279</v>
+      </c>
+      <c r="K36" t="s">
+        <v>280</v>
+      </c>
+      <c r="L36" t="s">
+        <v>281</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>282</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>283</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>284</v>
+      </c>
+      <c r="J37" t="s">
+        <v>285</v>
+      </c>
+      <c r="K37" t="s">
+        <v>286</v>
+      </c>
+      <c r="L37" t="s">
+        <v>287</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>288</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>289</v>
+      </c>
+      <c r="J38" t="s">
+        <v>290</v>
+      </c>
+      <c r="K38" t="s">
+        <v>291</v>
+      </c>
+      <c r="L38" t="s">
+        <v>292</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>293</v>
+      </c>
+      <c r="O38" t="s">
+        <v>94</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>294</v>
+      </c>
+      <c r="X38" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>297</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>298</v>
+      </c>
+      <c r="J39" t="s">
+        <v>299</v>
+      </c>
+      <c r="K39" t="s">
+        <v>300</v>
+      </c>
+      <c r="L39" t="s">
+        <v>301</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>302</v>
+      </c>
+      <c r="O39" t="s">
+        <v>68</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>294</v>
+      </c>
+      <c r="X39" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>304</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>305</v>
+      </c>
+      <c r="J40" t="s">
+        <v>306</v>
+      </c>
+      <c r="K40" t="s">
+        <v>307</v>
+      </c>
+      <c r="L40" t="s">
+        <v>308</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>309</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>294</v>
+      </c>
+      <c r="X40" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>311</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>312</v>
+      </c>
+      <c r="J41" t="s">
+        <v>313</v>
+      </c>
+      <c r="K41" t="s">
+        <v>314</v>
+      </c>
+      <c r="L41" t="s">
+        <v>315</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>316</v>
+      </c>
+      <c r="O41" t="s">
+        <v>94</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>317</v>
+      </c>
+      <c r="X41" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>320</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>321</v>
+      </c>
+      <c r="J42" t="s">
+        <v>322</v>
+      </c>
+      <c r="K42" t="s">
+        <v>323</v>
+      </c>
+      <c r="L42" t="s">
+        <v>324</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>317</v>
+      </c>
+      <c r="X42" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>326</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>327</v>
+      </c>
+      <c r="J43" t="s">
+        <v>328</v>
+      </c>
+      <c r="K43" t="s">
+        <v>329</v>
+      </c>
+      <c r="L43" t="s">
+        <v>330</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>331</v>
+      </c>
+      <c r="O43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>294</v>
+      </c>
+      <c r="X43" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>333</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>334</v>
+      </c>
+      <c r="J44" t="s">
+        <v>335</v>
+      </c>
+      <c r="K44" t="s">
+        <v>336</v>
+      </c>
+      <c r="L44" t="s">
+        <v>337</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>338</v>
+      </c>
+      <c r="O44" t="s">
+        <v>60</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>339</v>
+      </c>
+      <c r="X44" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>342</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>343</v>
+      </c>
+      <c r="J45" t="s">
+        <v>344</v>
+      </c>
+      <c r="K45" t="s">
+        <v>345</v>
+      </c>
+      <c r="L45" t="s">
+        <v>346</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>347</v>
+      </c>
+      <c r="O45" t="s">
+        <v>214</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>348</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>349</v>
+      </c>
+      <c r="J46" t="s">
+        <v>350</v>
+      </c>
+      <c r="K46" t="s">
+        <v>351</v>
+      </c>
+      <c r="L46" t="s">
+        <v>352</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>347</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>354</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>355</v>
+      </c>
+      <c r="J47" t="s">
+        <v>356</v>
+      </c>
+      <c r="K47" t="s">
+        <v>357</v>
+      </c>
+      <c r="L47" t="s">
+        <v>358</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>359</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>361</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>362</v>
+      </c>
+      <c r="J48" t="s">
+        <v>363</v>
+      </c>
+      <c r="K48" t="s">
+        <v>364</v>
+      </c>
+      <c r="L48" t="s">
+        <v>365</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>359</v>
+      </c>
+      <c r="O48" t="s">
+        <v>60</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>366</v>
+      </c>
+      <c r="X48" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>369</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>370</v>
+      </c>
+      <c r="J49" t="s">
+        <v>371</v>
+      </c>
+      <c r="K49" t="s">
+        <v>372</v>
+      </c>
+      <c r="L49" t="s">
+        <v>373</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>366</v>
+      </c>
+      <c r="X49" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>375</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>376</v>
+      </c>
+      <c r="J50" t="s">
+        <v>377</v>
+      </c>
+      <c r="K50" t="s">
+        <v>378</v>
+      </c>
+      <c r="L50" t="s">
+        <v>379</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>380</v>
+      </c>
+      <c r="X50" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>383</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>384</v>
+      </c>
+      <c r="J51" t="s">
+        <v>385</v>
+      </c>
+      <c r="K51" t="s">
+        <v>386</v>
+      </c>
+      <c r="L51" t="s">
+        <v>387</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>388</v>
+      </c>
+      <c r="O51" t="s">
+        <v>94</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>380</v>
+      </c>
+      <c r="X51" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>390</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>391</v>
+      </c>
+      <c r="J52" t="s">
+        <v>392</v>
+      </c>
+      <c r="K52" t="s">
+        <v>393</v>
+      </c>
+      <c r="L52" t="s">
+        <v>394</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>395</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>397</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>398</v>
+      </c>
+      <c r="J53" t="s">
+        <v>399</v>
+      </c>
+      <c r="K53" t="s">
+        <v>400</v>
+      </c>
+      <c r="L53" t="s">
+        <v>401</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>402</v>
+      </c>
+      <c r="O53" t="s">
+        <v>94</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>380</v>
+      </c>
+      <c r="X53" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>404</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>405</v>
+      </c>
+      <c r="J54" t="s">
+        <v>406</v>
+      </c>
+      <c r="K54" t="s">
+        <v>407</v>
+      </c>
+      <c r="L54" t="s">
+        <v>408</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>409</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>411</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>412</v>
+      </c>
+      <c r="J55" t="s">
+        <v>413</v>
+      </c>
+      <c r="K55" t="s">
+        <v>414</v>
+      </c>
+      <c r="L55" t="s">
+        <v>415</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>416</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>417</v>
+      </c>
+      <c r="X55" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>420</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>421</v>
+      </c>
+      <c r="J56" t="s">
+        <v>422</v>
+      </c>
+      <c r="K56" t="s">
+        <v>423</v>
+      </c>
+      <c r="L56" t="s">
+        <v>424</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>425</v>
+      </c>
+      <c r="O56" t="s">
+        <v>94</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>426</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>427</v>
+      </c>
+      <c r="J57" t="s">
+        <v>428</v>
+      </c>
+      <c r="K57" t="s">
+        <v>429</v>
+      </c>
+      <c r="L57" t="s">
+        <v>430</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>425</v>
+      </c>
+      <c r="O57" t="s">
+        <v>68</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>431</v>
+      </c>
+      <c r="X57" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>434</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>435</v>
+      </c>
+      <c r="J58" t="s">
+        <v>436</v>
+      </c>
+      <c r="K58" t="s">
+        <v>437</v>
+      </c>
+      <c r="L58" t="s">
+        <v>438</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>439</v>
+      </c>
+      <c r="O58" t="s">
+        <v>94</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>438</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_306.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_306.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="497">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Gabriel A</t>
+  </si>
+  <si>
     <t>07/02/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Luis F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r565662799-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -202,6 +208,9 @@
   </si>
   <si>
     <t>Where to start?Christine, the Director of Sales is AMAZING. She is the most, friendly, nice, professional, and helpful person ever. We recently celebrated my daughter's 15 (Quinceañera) and thank god for her. Everything went perfectly. The place was immaculate, and elegant. Her staffs, from the Servers, to the Front Desk Agents, Security Guards, were extremely courteous and helpful. My daughter smothered cake on my face, and off to the rescue was one of the servers (sorry to say I did not get her name), and handed me some napkins.The rooms are clean, very well appointed, and an exceptional value.There is a Club in this hotel as well. If you like 80's Disco music, this is definitely the place. Again THANKS Christine! We had a BLAST!!!!Luis F.Assistant GM Comfort Inn Santa MonicaMore</t>
+  </si>
+  <si>
+    <t>BlackBart1955</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r546532887-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
@@ -236,6 +245,9 @@
 Overall, for the price, I couldn't find a better place, and I'm very happy with this place, so I'm staying until I get the...I love this hotel. I have been staying on an extended stay as the house is sold, after staying for just a few days at other motels. I have found that this one is less expensive than the others I've stayed at, but is by far, the best one yet. It's quiet and peaceful, and has everything I need. I don't mind that it costs $7.00 for breakfast. You don't get just a sweet roll or cereal here to pass it off as breakfast. Rather, you get sausage, eggs, and potatoes with toast, and with water, coffee, and orange juice to drink. Where can you get a good breakfast like that for only $7.00? Maybe it's not like going to a restaurant where you have a menu to choose from, but for what they sell every day, being the same, it's very tasty and inexpensive. The hotel staff is very courteous and polite, and whenever I have needed something, like a window screen, they jump on it. I'm very happy with the service here!The location is a bit remote, but it's still close to several shopping areas and not far from Knott's Berry Farm and Disneyland. And it's freeway close, next to the I-5, and not far from the 605, 105, and the 91 freeways.Overall, for the price, I couldn't find a better place, and I'm very happy with this place, so I'm staying until I get the money from my share of the sale of the house.More</t>
   </si>
   <si>
+    <t>idinagipson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r456985965-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -254,6 +266,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>Antonio P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r449629700-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -275,6 +290,9 @@
     <t>My wife and I  got a package  offered by the hotel. We arrived 30 min. Early went to the counter to check in, all was well until we went to our room to find it not even clean and ready. So had put everything back in the car in the rain. Went back to the front desk. And was told it would be another 30 min. So  again back in the rain grab our luggage  go up to the room  and the maid was just finishing up. She apologized. So now we're in the room I went to sit on one of the beds and I felt like I fell into a big hole. The other bed felt a whole lot better, but still not what I thought it would be. Unfortunately I won't give this hotel a very good rating. The rest of our event went well. I do have to say the hotel manager is one very hard working lady her name is Christine. Other than that the food was good. music was great. Again the guest rooms. need alot of attention. More</t>
   </si>
   <si>
+    <t>Jim B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r444497007-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -290,6 +308,9 @@
     <t>Bed felt like cardboard. Pillow and sheets were rough. No heavy comforter. Walls were paper thin and heard other talking all night, in the near rooms and walking around. Busy place. Otherwise clean and tidy looking. I didn't handle check in, nor see the food areas. so no comment on that.</t>
   </si>
   <si>
+    <t>pick55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r439263611-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -311,6 +332,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>dannykim3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r430485699-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -329,6 +353,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Stan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r406832935-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -347,6 +374,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Theo_Kis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r393898906-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -362,6 +392,9 @@
     <t>Hotell or motell that's the question? This  place has seen better days and better surroundings too. It's OK for stop and rest but not a place to enjoy your vacation. Best part of this place is the pool area located in the middle of the facilities. Friendly and helpful staff.</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r391055695-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -380,6 +413,9 @@
     <t>I defintely do not think this is a 3 star hotel. I was looking for price and it wasnt as pricey as some of the other hotels. Check in was nice and when you see the hotel it looks good as far as appearance. At first glance the room looked okay. However my sons truck went under the bed and it was so trashy and I found a pudding cup opened under there..ugh. The beds are bad. They make a lot of noise and the pillows are really hard. Walls are super thin so you can hear everything. The pool was nice along with the outside lounge area as well. There is a bar and restaurant which we did not go to....the price of breakfast was way too much. The hotel is within 30 to 40 min of everything. If they would upgrade this could b a really nice place.... So i guess its true what they say... you get what you pay for. Better off spending another 20 bucks and getting a better bed with breakfast included.More</t>
   </si>
   <si>
+    <t>KC A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r357960138-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -398,6 +434,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Juliecuad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r351276602-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -417,6 +456,9 @@
   </si>
   <si>
     <t>When we first arrived, I was pleased with the lobby and the employees at the front desk. As we walked to our room we saw a nice pool that looked clean. After entering our room it was outdated but still looked clean. I wasn't disappointed because it's worth the money we paid for it. However, once I entered the bathroom I was appalled by the shower. The shower has dark black grudge and slime. When I first stepped inside I thought the shower was going to break because it made this creepy cracking noise. It worked out for my husband and I as we wanted to save money on our hotel to enjoy doing as many things in Los Angeles. Also be advised you need to have a car in order to stay here as anything important in LA is about 45 minutes away. The neighborhood itself of Norwalk is very nice, however there are some sketchy people who stay there. The walls are paper thin, we could hear our lousy neighbors fist fighting. It was crazy. This hotel would be so nice if they renovated and got rid of the sketchy people. More</t>
+  </si>
+  <si>
+    <t>K W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r342637396-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
@@ -442,6 +484,9 @@
 My girlfriend and I were heading over to the hotel after a long day when we encountered a LOT of construction in the main road by the hotel.  We figured, no problem, it will just take a little longer.  Our GPS was giving us directions and we finally saw the hotel, which is located on an island-like stretch of landspace by the freeway.  It's triangular with 3 large arterials on each side of the property.  Our GPS prompted us to turn onto the street of the main entrance but it was closed due to construction, which started possibly within the hour.  Thus we figured that there would be a side entrance.  I spotted it but guess what...the gate was CLOSED.  I attempted to find yet another entrance but couldn't access the street on that side; the road that we traveled on goes around the street that we were trying to get on.  Meanwhile the GPS was useless in getting us into the...I had one of the worst days settling in to a move down to Southern California after booking this hotel.  I think that a hotel stay is the MOST important influence on any trip because if the day didn't go so well, it can be made up for in great accommodations.  The day that I was supposed to stay at this hotel had neither, resulting in problems that compounded into the booking of another hotel for the night.My girlfriend and I were heading over to the hotel after a long day when we encountered a LOT of construction in the main road by the hotel.  We figured, no problem, it will just take a little longer.  Our GPS was giving us directions and we finally saw the hotel, which is located on an island-like stretch of landspace by the freeway.  It's triangular with 3 large arterials on each side of the property.  Our GPS prompted us to turn onto the street of the main entrance but it was closed due to construction, which started possibly within the hour.  Thus we figured that there would be a side entrance.  I spotted it but guess what...the gate was CLOSED.  I attempted to find yet another entrance but couldn't access the street on that side; the road that we traveled on goes around the street that we were trying to get on.  Meanwhile the GPS was useless in getting us into the property because it kept recalculating the route.  It occurred to me that the 3rd side of the hotel that we were trying to access could only happen coming off the 5 Freeway.  So I had to find the entrance to the freeway, drive in the opposite direction, and double back to even have a chance to get to the hotel.  After I driving on the freeway and exiting, I find that there was construction blocking access!We called the hotel and the front desk staff didn't even know that construction was making it difficult if not possible to access the hotel by car.  They couldn't give us directions matching the streets that I was on and we proceeded to attempt a cancellation with Hotwire.  Now Hotwire rarely allows for cancellations of their Special Deals reservations (ones where you don't know which hotel you will get until after the purchase) and they got the hotel staff on the phone on three-way.  In order to justify not refunding what we had paid, the hotel staff tells Hotwire that there isn't any construction around the hotel and that other guests had no problems getting to the hotel.  I refuted that the construction may have recently started and asked when the last guest arrived.  Their response? "Recently."The oblivious lying staff is a deal-killer with this hotel and is indicative of potentially poor guest service.  Access to the hotel would have been challenging even without the construction since the streets around the hotel have fast travelling cars making it hard to slow down.  For these reasons, I suggest staying away from this hotel if one could help it.More</t>
   </si>
   <si>
+    <t>sunny-sand</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r342446971-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -460,6 +505,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>tkwitt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r323725867-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -487,6 +535,9 @@
     <t>GuestHouse International in Norwalk, California is rougly equivalent to a Motel 6.  The rooms are clean, but old.  All rooms are exterior access, with a deadbolt and chain on the inside. No wifi in rooms.  There is a pool surrounded by a secure fence in the interior courtyard area, however you can easily walk from the street through the parking lot to the pool area without having to pass by hotel personnel.  As with many budget hotels you are required to sign or initial many things that imply that you are not a trusted guest, which also implies that the property has problems with guests who are not trustworthy, and therefore raised questions in my mind related to security, noise levels, etc.More</t>
   </si>
   <si>
+    <t>Jason559</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r312401214-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -514,6 +565,9 @@
     <t>Unfortunately, the last time they cleaned the rooms may have been 1983.  There are some updates, like a flat TV, but the room was very musky and gross smelling. The neighborhood is pretty run down, right along the railroad tracks. The paint was coming off the walls and it was in dire need of some TLC. When I arrived to check in the desk clerks were standing around and one was eating a sandwich. It took them awhile to help me. You know you aren't in a great hotel when they ask if you'll be paying cash for the $50 room deposit.  All in all, the rate was low and it was a roof over our head. So I'd say this is definitely a two start, not a three start hotel.More</t>
   </si>
   <si>
+    <t>Lindy Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r301875664-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -532,6 +586,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Blaise H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r282179685-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -553,6 +610,9 @@
     <t>Front desk rented our room out, at midnight...while we were in there sleeping. Woke up to people opening our door but couldn't get past the chain...REALLY???? Called down to complain and woman at desk asked if we could kindly send them back to the front desk....Ummm...how about I'm So Sorry? So besides being rudely awoken by an incompetent employees mistake...the room was great! Bldg.5 was quiet, never heard anybody below or next to us. Beds were comfortable, tv is outdated..but it worked. Truck Parking is on an adjacent street, we had our tractor only &amp; parked in the hotel lot. Rate was decent, pools (2) and the entire huge property were very clean. Laundry facility is big...and the cheapest I've ever seen. We'd stay again...and make sure our room is ours only.More</t>
   </si>
   <si>
+    <t>Jeffery H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r268958800-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -574,6 +634,9 @@
     <t>Dated location just off the I5 in Norwalk. Those are the plusses. Oh yeah, Chevy Chase had his famous swim scene in Vacation at this hotel. It hasnt seen any improvements since then. The cons: 1) bumpy old bed. 2) Carpets worn out. 3) Remote control for TV missing buttons. 4) Bathtub desperately needs resurfacing. 5) Restaurant is crap! Even the cook told me I would fare better if I ordered delivery pizza. 6) Did I mention the jurrasic cockroaches both indoors and outdoors. It damages your sleep when you wake up thinking there is a motorcycle on your leg, but it is just a giant cockroach! Lots of tourgroups stay here. They are okay, usually really friendly, albeit loud folks. There is a Muslim prayer room in the Daisy room. The problem with that is the fact that they let their kids run around the property so loud that nobody can sleep. There are no good walking distance restaurants or anything else nearby. There is an AM/PM close by though. The staff are very friendly. But it is obvious that the ownership is stingy with maintenance and updates. Probably because the tourbus groups dont have a choice! Oh yeah, I didnt see any hookers!More</t>
   </si>
   <si>
+    <t>almaserenalohmann</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r256361710-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -592,6 +655,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>JoaunneP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r251235688-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -610,6 +676,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>Gennesis V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r244991068-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -631,6 +700,9 @@
     <t>The pics do not really look like exactly what this place is, but none the less if you just need a place to crash for a day or two, then this is a OK place.  This place was not bad NOR was it good. There is an on site bar so at last call hour, around 2:30 A.M. it got extremely noisy outside of my room. I could hear people walking up &amp; down the hallways and their drunken convos. Every time I went into the office the security guard would just be in there either standing or eating. There are no microwaves or fridges available, you need to pay extra, which is so dumb!! This place is located right off the freeway so if you do not mind the traffic then by all means this is a place for you. What I can say is, the rooms were spacious, I had a two queen bedroom on the second floor.More</t>
   </si>
   <si>
+    <t>Driver_316</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r242878992-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -652,6 +724,9 @@
     <t>i have stayed at this hotel twice, with a tour group.   On both times, i was unhappy with this hotel.  I am surprised that people actually want to stay here.  I don't USUALLY stay at a hotel like this, but my groups often pick this one, so i have to join them.  I felt my group could do better at Motel 6.  At least this place is MUCH more modern.  The services offered are TOTALLY outdated.  I feel I am staying at a "Motel" not an Inn or Suites.  I have "paid" for an "Inn" cheaper and better than this place, and more amenities offered.  The TV, room, colors of the room, just seem to be ANCIENT.  The Exterior needs attention also.  The location sucks also.  The closest thing within walking distance is an AM/PM.  If I am starving they do have a restaurant, but sorry the food is terrible.  I admit I didn't do breakfast.  Also dinner is WAY to expensive for what you get.  However the office is a palace!????  $10 charge for a refrigerator or microwave.  Repeat the sign says Suites, huh?  I was VERY unimpressed.  I suggest if you are desperate stay there; otherwise I would DEFINITELY go somewhere else.  By the way my Egg Nog spoiled.  I was too cheap to spend $10 for a refrigerator.More</t>
   </si>
   <si>
+    <t>Titanium123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r220899782-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -673,6 +748,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Adeline T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r220184594-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -691,6 +769,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Eli89312014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r216335785-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -709,6 +790,9 @@
     <t>First look from outside looked like a motel or dirty apartment complex color is ugly went to check in the two ladies one heavy set and other rude looking were slow and very impatient and rude and only way to kill all that was being nice and smiling. The lobby was the only nice thing about the appearance of this motel. Got to our room smelled weird, cramped, old tv, &amp; dirty blinds. Swimming pool was alright. Security guard is such a prude! For Christ sakes people are on vacation! He follows people and just a nuisance! Night manager a heavy set lady is a very rude and doesn't do anything at all! Never will come again and don't suggest your family to come here if you don't want to have fun on vacation don't come here! Not worth your money save it for a real hotel! More</t>
   </si>
   <si>
+    <t>RQ-Traveler12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r205774845-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -727,6 +811,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Calista M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r199089602-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -752,6 +839,9 @@
   </si>
   <si>
     <t>Beds were comfortable.  The shower fixtures were outdated and I had to stand RIGHT under shower head to reach the water.  Too cold to enjoy the pool, but the courtyard near it was nice.  Breakfast was good.   The microwave we "rented" was old and dirty, and the laundry facilities were hideous and in a part of the hotel that did not feel safe at all!More</t>
+  </si>
+  <si>
+    <t>emilyambro</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r197303763-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
@@ -782,6 +872,9 @@
 Overall I would say it might be worth it to stay here if you are hard up for a cheap place- but it was not worth...I picked this hotel to stay in for a Disneyland vacation. I chose this hotel even though it was a bit further away because the price was better than most and they offered free wi-fi. The wi-fi was very important for our stay, but it did not work. I called the front desk 3 times during my stay and told them it was not working. They did not offer much help other than "try again". The room itself was ok, nothing special, but not awful. There was a door chain on the floor inside the room next to the door, even though there was a new chain put on the door. That just leads me to believe that it was broken at some point- not sure how to feel about that.There was trash and empty glasses left by the elevator that was there when we got there and then still there 24 hours later.When i checked out, the front desk girl did not ask how my stay was or any questions at all- just asked my room number and then said "Ok thanks".The constuction outside made it a little ugly and difficult to get to- we even missed it and had to do a u-turn even though u-turns were not allowed. Overall I would say it might be worth it to stay here if you are hard up for a cheap place- but it was not worth it to me. Espcecially, as I said, I pretty much booked the room because wi-fi was included and then it ended up not working and no one even cared to ask how the experience was.More</t>
   </si>
   <si>
+    <t>Hootie9337</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r175838998-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -809,6 +902,9 @@
     <t>The motel was challenging to get to with construction going on around it. The front desk clerk was nice, but I was put off by seeing an undercover cop driving around the parking lot. There was only one big bath towel, hand towel, and wash cloth which was fine as I was alone, but this would have been an inconvenience had it been more than one traveler. There are not any places to eat nearby after 9 pm and I felt unsafe trying to find a place to eat by car and using Yelp. The walls were thin and I had to endure the sounds of my next door neighbors having sex for close to an hour. In hindsight, I would not have stayed there.More</t>
   </si>
   <si>
+    <t>Arun M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r168491016-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -830,6 +926,9 @@
     <t>Worst Customer service ever. We reached at this hotel at 2 AM in the morning and guess what their key making machine is broken. Now we are standing there for 30 mins and she does not know what to do.Then she calls the security and he opens the door for us. This guy tries to show he is very tough instead of being nice to people who came at 2 AM. Now the door does not open because lock is broken. After struggling for 5 mins he opens the door. Next day we asked the lady to fix the lock. We called 2 times during the day and lady told us it is fixed. But after long day at disney land when we reached at room the door is still not fixed and we had to wait for 30 mins for security guy to come to open the door. Next day when we complained to the lady while checking out she said we cannot do anything. Instead of giving any kind compensation for the trouble she said you can write a review on yelp or call our manager.Will never recommend this place. Worst customer service ever.More</t>
   </si>
   <si>
+    <t>Arvilamay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r157872127-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -854,6 +953,9 @@
     <t>Staff was helpful, knowledge. Great location, highways, stores. Family friendly, pools looked awesome. Great welcoming atmosphere. Wish it was in Colorado, would be my home away from home. Beds comfortable, great cable channels, views!!!More</t>
   </si>
   <si>
+    <t>BosLegal83</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r150129558-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -869,6 +971,9 @@
     <t xml:space="preserve">I stayed here for one night after arriving on a late flight from LAX. I just needed a place to lay my head down before going to a job in the morning. The rate was affordable for a Saturday night. They guy at the desk was friendly and gave me my requested room. I didn't have a reservation and they were still accommodating. The room was clean. The bed was clean. I stay at hundreds of hotels a year for business and this was a good stay . I will be back if I'm in the area again. </t>
   </si>
   <si>
+    <t>Jaywalke</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r149370000-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -887,6 +992,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>Jose G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r146521924-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -902,6 +1010,9 @@
     <t>The rate was reasonable. I booked online and it was only $60 per night. Frontdesk was very friendly, lobby was very nice, room is clean and nice and they have a large swimming pool with jacuzzi. I was excited to find out that they filmed the vacation movie here.</t>
   </si>
   <si>
+    <t>esmith3432</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r132573475-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -929,6 +1040,9 @@
     <t>I have had the unpleasant chance to stay at this hotel 3 years in a row for business. While it has been refurbished recently they have done little to take care of the hotel. It has a fresh coat of paint, but the walls are dirty and the rooms smell. On occasion my linens appear to be unchanged as well. They need a new maid staff and new management! This property has come a long way since I first stayed here, but at this rate it will be right back very soon.More</t>
   </si>
   <si>
+    <t>Gary H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r130612908-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -950,6 +1064,9 @@
     <t>I had stayed here before several years back and I remember being a little skeptical at first.  The city itself seems a bit sketchy but the price was decent enough for me to try.  The location was right next to the 5 freeway and my girlfriend and I decided to spend the night since we had been driving all day.  All I can remember is that I had a good nights sleep and was more then ready for the long journey back home.  There wasn't anything particularly special, but at the same time, nothing particularly bad.  However, this past week I decided to stay here for about three nights since I needed to be in the area for business.  I chose this place again because I had been here before without any problems, and the prices were the best compared to most others (the cheaper ones seemed way too inadequate for my taste).  I walked in the lobby and found the entire place had been changed.  It wasn't how I had remembered it years ago.  The lobby was different and seemed a lot more modern than my previous visit.  It seems as if they had done some work over the years.  The room itself didn't seem that much different then I had remembered, but I did see some minor improvements here and there.  Again, I had an excellent nights sleep and was fully refreshed in the morning.  Service was good...I had stayed here before several years back and I remember being a little skeptical at first.  The city itself seems a bit sketchy but the price was decent enough for me to try.  The location was right next to the 5 freeway and my girlfriend and I decided to spend the night since we had been driving all day.  All I can remember is that I had a good nights sleep and was more then ready for the long journey back home.  There wasn't anything particularly special, but at the same time, nothing particularly bad.  However, this past week I decided to stay here for about three nights since I needed to be in the area for business.  I chose this place again because I had been here before without any problems, and the prices were the best compared to most others (the cheaper ones seemed way too inadequate for my taste).  I walked in the lobby and found the entire place had been changed.  It wasn't how I had remembered it years ago.  The lobby was different and seemed a lot more modern than my previous visit.  It seems as if they had done some work over the years.  The room itself didn't seem that much different then I had remembered, but I did see some minor improvements here and there.  Again, I had an excellent nights sleep and was fully refreshed in the morning.  Service was good and the room provided me with everything I needed.  The next two nights were much of the same.  I have been to plenty of hotels in my lifetime and this place might not be a five star hotel, but its a great bargain.  I always do ratings according to what I get for the price.  My recommendation: If you're looking for a five-star hotel, go pay for one.  But, if you're looking for the best deal, I'd highly recommend this place.  From my own experience, this place exceeded expectations for its reasonable price.More</t>
   </si>
   <si>
+    <t>Steven V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r130103816-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -969,6 +1086,9 @@
   </si>
   <si>
     <t>The worst hotel ever. Don't stay here. (F) Rating. Someone try to enter me and my wife's room with another key card without authorization.  Lucky i lock my door with the chain lock, so they couldn't get in.  Me and my wife were scared for our lives, we could've been robbed or killed.  Rape or anything if i didn't lock the door with that chain lock.  Me and my wife lefted this hotel right after the incident. The front desk didn't know what to say.  This is unacceptable for service.  This was my first time staying in this hotel.  This was the second room the hotel gave me because the first room was damaged. Latern frame was damaged, paint in the restroom was peeled off, damaged light panels and damaged pull out damaged.  The room had a new paint smell that made me and my wife feel sick too. I highly recommend no one stay here.  For your family safety, pay a little more extra to have your family safe and a clean room.  Across from our first room, a man and women were interacting have sex with the window open...  It seems like prositution hooker, the lady was dress up and dancing on him and kissing him...  It was just sick.  I wouldn't want a family with kids to see that... This was the view across from our first room and later we switch room and the second room...The worst hotel ever. Don't stay here. (F) Rating. Someone try to enter me and my wife's room with another key card without authorization.  Lucky i lock my door with the chain lock, so they couldn't get in.  Me and my wife were scared for our lives, we could've been robbed or killed.  Rape or anything if i didn't lock the door with that chain lock.  Me and my wife lefted this hotel right after the incident. The front desk didn't know what to say.  This is unacceptable for service.  This was my first time staying in this hotel.  This was the second room the hotel gave me because the first room was damaged. Latern frame was damaged, paint in the restroom was peeled off, damaged light panels and damaged pull out damaged.  The room had a new paint smell that made me and my wife feel sick too. I highly recommend no one stay here.  For your family safety, pay a little more extra to have your family safe and a clean room.  Across from our first room, a man and women were interacting have sex with the window open...  It seems like prositution hooker, the lady was dress up and dancing on him and kissing him...  It was just sick.  I wouldn't want a family with kids to see that... This was the view across from our first room and later we switch room and the second room some try to enter our room late that night.  It was worst experience staying in a hotel room in my life.  Motel 6 is better than this place.  Loud noise at night, people walking and talking... A drug dealing place and prosituition place.  Please don't stay here.  Respectfully Customer Steven.More</t>
+  </si>
+  <si>
+    <t>Eddy L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r126205791-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
@@ -1016,6 +1136,9 @@
 Carpet is years...We spent the past weekend here for a business trip. We had 6 rooms total shared with my colleagues. First thing, this is NOT a 3 star establishment.Lobby was locked WITHOUT any signs when we tried to check in late past 1am.Front desk will NOT help you with cleanliness, room switching, OR service.There is a night club/bar on the establishment so there will be LOUD music and inebriated people walking about at night. NOT a family friendly hotel.Housekeeping is ONLY available during the mornings and calling to the front desk to help past certain hours means them responding with Housekeeping isn't available or is closed try again tomorrow.Good luck asking for any towels, toiletries, or any type of service needed beyond the mornings. We asked for extra towels night of check in, DENIED; asked for towels the next morning, denied; asked for toiletries the following night, denied in ALL 6 rooms.We stayed in buildings 2, 4, and 6. Building 4 is supposedly newly remodeled and where I stayed for two nights. The only thing that looked remotely new was the tub but if you check the caulking it doesn’t look new at all. Drains are SLOW if not backed up and water will run cold after the second person. TVs are small and outdated.Dressers are NOT clean. You will want to keep your belongings in your luggage off the floors.Carpet is years old OR hasn’t been cleaned in months. You do not want to take your shoes off at all. Bed spread looks like something from the 80’s and is far from comfortable.Housekeeping will knock on your door EVERY hour, on the hour from 7am TILL check out. They won't give you extra towels.More</t>
   </si>
   <si>
+    <t>Icetara</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r125994725-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -1034,6 +1157,9 @@
     <t>I stayed here with my girlfriend for 2 nights and we were terrified. The first clue should have been the bail bond stores next door. We went for a walk and a City of Norwalk Police car pulled beside us and suggested it was not a great neighbourhood for 2 women to walk alone in! The lobby is new but the rooms are ancient and it appears some of the back buildings are used as dormitories. Please stay away! More</t>
   </si>
   <si>
+    <t>Annie U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r120600783-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -1055,6 +1181,9 @@
     <t>We found the Guesthouse Hotel online and they had a great price and the pictures looked very pretty.  We booked a suite for one week at this location and we were very pleased with our stay.  They have two outdoor heated pools that was great as it was never over crowded.  The staff was very friendly and offered suggestions for places we can eat at even the nearby movie theatre and park.  We were always called by our names which made us feel welcome and safe a home away from home.More</t>
   </si>
   <si>
+    <t>CATHY J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r120255185-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -1082,6 +1211,9 @@
     <t>When we first read all the complains, we were not that sure to stay. But at checking time the girl at the front desk Melissa, let us check in earlier than regular time. She was very helpful and gave us perfect directions to shopping centers close to the hotel. The rooms were very cleaned and big. Ah also a great breakfast for the kids in the morning is buffet style only for $7.00.. We had freshly warm french toast and fresh coffee. I will definitely recommend Guesthouse Hotel to my family and friends. We'll go back on our next vacations.More</t>
   </si>
   <si>
+    <t>Rama Joyce T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r119899719-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -1100,6 +1232,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>Caliqqqq</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r117716763-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -1118,6 +1253,9 @@
     <t>I was worried when I first read the reviews, most of them being negative.  Honestly after we checked in, we were actually quite surprised.  I must say, having lived in So. California all my life &amp; frequenting most of the cheaper motels/hotels, and also the higher quality 5 start hotels, I cant really say this was entirely bad. It wasn't.  If you have higher expectations of lodging, than its going to have to be the higher priced chains, because quite honestly reasonably priced in this area and allover LA county, you get what you pay for, in some cases worse.  With that said, this was not bad, but we weren't expecting it to be more than what we wanted for a one night stay.    The motel itself was huge...It was clean, it was alot bigger in size for that price compared to motel 6 amongst the others.  Yes I agree w/some the outside cosmetic features, as well as on the inside could use more updating/more of a facelift, but I did like the old hotel antique look about it, big burgundy &amp; mustard colar thick curtains and the cherry wood (looking) furniture made me feel the I was back in the 1970s, I love that cheezyness, it was classy.  Ok some flaws were shown, on the bathroom vanity &amp; bathroom were some scratches &amp; markings that couldn't be hidden, its normal when you have a lot of people staying there...I was worried when I first read the reviews, most of them being negative.  Honestly after we checked in, we were actually quite surprised.  I must say, having lived in So. California all my life &amp; frequenting most of the cheaper motels/hotels, and also the higher quality 5 start hotels, I cant really say this was entirely bad. It wasn't.  If you have higher expectations of lodging, than its going to have to be the higher priced chains, because quite honestly reasonably priced in this area and allover LA county, you get what you pay for, in some cases worse.  With that said, this was not bad, but we weren't expecting it to be more than what we wanted for a one night stay.    The motel itself was huge...It was clean, it was alot bigger in size for that price compared to motel 6 amongst the others.  Yes I agree w/some the outside cosmetic features, as well as on the inside could use more updating/more of a facelift, but I did like the old hotel antique look about it, big burgundy &amp; mustard colar thick curtains and the cherry wood (looking) furniture made me feel the I was back in the 1970s, I love that cheezyness, it was classy.  Ok some flaws were shown, on the bathroom vanity &amp; bathroom were some scratches &amp; markings that couldn't be hidden, its normal when you have a lot of people staying there throughout the years. Aside from that we were really ok w/it.  And we were placed by the pool area, not my first choice, but when we saw that it was mostly diverse families &amp; not the typical young party crowd/rebel rousers, we were really pleased, &amp; it wasn't that noisey, the families outside got quiet after a certain time.  They even have a resturant and a bar/lounge area that was actually another pleasant surprise and it was a dj/band catered to people our age 40's +, playing old school 80s stuff as well as oldies &amp; contemporary/rock music, I loved it. Prices weren't bad either.  The restaurant had alot people in it, so it couldn't have been that bad, we just didn't get a chance to try it.  Overall our experience was good, better than what we expected, for the price we paid.  Like I said anyone w/higher expectations (&amp; rightfully so) need not go there, but you will have to go to a higher priced motel/hotel and pay for what you expect, its the area and the masses of people it caters to.My only complaints would be the toilets were clogged, thank god for my husband being a jack of all trades &amp; resolving it (this w/out a plunger) and more towels.  Yes the bed was stiff as a board, and the pillows were quite tiny, but they did the job, they felt comfortalble, just half the size of standard twin size &amp; we slept like babies on the bed, even though it was hard.  The coffee pots are only one cup coffee (two per room) but I would think if they had the bigger ones, people in the past stay have ruined it by stealing them or breaking them.  Cable &amp; Internet was fine, had no problems.  It comes also w/the blow dryer, the mini fridge, iron/ironing board &amp; the usual stuff. so all in all I would say we were statisfied for what we paid for, had a peaceful night (being outside the pool area?? thats a plus) and would reccommend it to people that just want a decent place to sleep in for a night, maybe two, I wouldn't go past two though.  Staff was friendly &amp; helpful too.   And if your expecting more (more than Motel 6) than you really should consider the higher priced lodging accomodations.More</t>
   </si>
   <si>
+    <t>Bigasabear</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r115827649-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -1139,6 +1277,9 @@
     <t>3 Stars is a joke! Centrally located if you need a bail bond or a pawn shop. We checked in and immediatly called Expedia to question the rating and were told that it was not a merit rating but was a self-assigned rating. The rooms are out of date and the beds are horrible. Expedia did try 4 times to get us released from the last 3 days of our stay but to no avail, they even HUNG UP on Expedia. The Expedia rep told us that it was his worst experience in dealing with a hotel and he even went to bat and got us a 200.00 credit from EXPEDIA not the hotel and found us a new hotel (2 stars but night and day nicer!) Please be forewarned about this facility. On the positive the grounds are quite nice.More</t>
   </si>
   <si>
+    <t>lockerua</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r114696211-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -1163,6 +1304,9 @@
     <t>Worst experience in all. The front desk could not find the reservation. Got non-cleaned room at 6PM. Wedding party was going until 12AM. They tried to charge us twice: Charged for the stay at the checkin and then tried to do again upon checkout. I had to search through the packed bags to find a copy of the receipt. Room cleaning always forgot to restock something.. eg. creamers or cups.More</t>
   </si>
   <si>
+    <t>yumabrad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r110623748-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -1181,6 +1325,9 @@
     <t>Ok i read all the complants before going to this motel , and was quite scared, but the rooms were clean and very large, asked for a refer and got one, bathroom clean, motel was not like the reviews said,,staff was fine , went with a lot of kids , scoccer group and they had a blast.. NO BED  BUGS,,STAFF WAS NICE... for 65 dollars it was better than motel 6 , or days inn etc, you get the idea,,, oh yea i never make a comment but had too on this one,,, have a nice day...More</t>
   </si>
   <si>
+    <t>Materio</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r83495987-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -1205,6 +1352,9 @@
     <t>The hotel is located near the highway on the way to LA. The room was OK with a good bed. We went to the buffet that was very limited and of poor quality for 16$ per person. The personal was not very friendly, maybe because there was a wedding in the room next to the restaurant where a fight started. In conclusion it was ok for one night but I wouldn't stay there several days.More</t>
   </si>
   <si>
+    <t>DeweyA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r77193971-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -1226,6 +1376,9 @@
     <t>I wouldnt tell anyone to stay away, but there are better places for the same price within reasonable distance, not unclean at all, I have seen no roaches, friendly staff, just not a super nice or new facility, and the price doesn't reflect that.More</t>
   </si>
   <si>
+    <t>DossFamBam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r72671719-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -1247,6 +1400,9 @@
     <t>We stayed at Disneyland later then expected and my husband and i were just too tired to drive home especially with two little ones so last minute we decided to stay at the Guess house and just leave early morning. The fact that the room was old and not up to date didn't really bother us. Our shower was covered in hair and our comforter had holes and a funny odor. From having personal experience working in hotels i have learn that most hotels DO NOT wash their comforters to keep from looking old so the first thing i did was remove the comforters off the beds. It was a late night so my family and i decided to call it a night and go to bed early. my husband and I woke up and could not stop itching (from the BEDBUGS) so we decided to go ahead and force ourselves to take a shower in the hairy tub besides we didn't want to ride all the way home itchy. when we walked in the bathroom there was a bigger problem there were three roaches, my daughter screamed. Two ran in the crack of the wall and one HUGE one just sat there and stared at me as if i was an intruder. We immediately took all our things outside to shake them off my son had one in his shoe and that was the final straw i called the...We stayed at Disneyland later then expected and my husband and i were just too tired to drive home especially with two little ones so last minute we decided to stay at the Guess house and just leave early morning. The fact that the room was old and not up to date didn't really bother us. Our shower was covered in hair and our comforter had holes and a funny odor. From having personal experience working in hotels i have learn that most hotels DO NOT wash their comforters to keep from looking old so the first thing i did was remove the comforters off the beds. It was a late night so my family and i decided to call it a night and go to bed early. my husband and I woke up and could not stop itching (from the BEDBUGS) so we decided to go ahead and force ourselves to take a shower in the hairy tub besides we didn't want to ride all the way home itchy. when we walked in the bathroom there was a bigger problem there were three roaches, my daughter screamed. Two ran in the crack of the wall and one HUGE one just sat there and stared at me as if i was an intruder. We immediately took all our things outside to shake them off my son had one in his shoe and that was the final straw i called the front desk and the lady said she would send someone right away. A lady came from house keeping and we showed her the HUGE one that was still roaming around as if he owned the room and the lady looked at the roach as if it was normal and she just stepped on it CRUNCH!!!! (it was disgusting).. the roach still popped backed up and took off running so she got some tissue and just picked it up the freakin 3 1/2 inch roach (NO JOKE) like nothing and flushed it down the toilet then she smiled at us and said sorry.We get up the front desk to get reimbursed and the lady said all she can do is give us $20 dollars off of our $79+tax room and i was not going to settle for that so she calls the manager to talk to me and HE was totally RUDE and didn't want to accommodate us at all. I explained to him how i had small children in the room and there was a roach in my sons shoe and his response was well that's all i can do if you have a problem call the Better Business Bureau then he demanded to talk back to the front desk how rude is that. I don't understand how he is a manger of a hotel when he doesn't know a thing about customer service. you couldn't pay me to stay another night in that roach infested hotel.More</t>
   </si>
   <si>
+    <t>patty47</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r60834395-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -1268,6 +1424,9 @@
     <t>The motel rooms are poorly lit, and sparser than any Motel 6.  I was told when I called to check that the motel had a fitness center. Too bad they didn't tell me it was closed for construction.I woke up covered in bug bites. I went to go take a shower and two large cockroaches jumped out at me.  I immediately removed everything from the room. I went to check out and was told by a clerk who could barely get off her personal phone call that the manager wasn't there yet. I asked if I could get a refund and she said she couldn't do that. I left my phone number but heard nothing back from the motel. Disgusting facility, right next to the railroad tracks and freeway so it was very noisy, and disgusting rooms.More</t>
   </si>
   <si>
+    <t>passio71</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r35058397-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -1289,6 +1448,9 @@
     <t>If you think you get a good deal for a 3 star hotel at such price (I got $53/night), be aware of the gap between your expectation and the reality. The lobby looked good, but the room was even worse than some of the motel 6/super 8 I've ever stayed in.  The room looked clean over all, but ever since I touched the blanket, I felt itchy. The bathroom was one of the worst I've ever used. The shower was dirty, and the shower nozzle is super low. I am 5'11 and I had to bend my legs and squat so I could rinse my hair. In-room wireless Internet never worked. There were tons of AP on the network list but none worked. Soon I found that I don't care all of above, because I just want to fall asleep ASAP so I could wake up and check out the next morning ASAP.If you're a tight budget traveler, this hotel might be one of your option. But I believe you could find a better, at least cleaner, one at the same price.More</t>
   </si>
   <si>
+    <t>charles7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r24334464-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -1316,6 +1478,9 @@
     <t>3 Stars??? Give me a break. Based on a few reviews, I made a reservation for this hotel. I got a good deal: 50 USD. Norwalk is an ugly and scary town in the middle of L.A. If you don´t HAVE to come here, please don´t do so. This not a hotel, it´s a MOTEL. If you have ever stayed in a Motel 6, well is almost the same thing. The room was fairly clean, but totally basic and dated. I just recommend this hotel for one night (if you want a cheap room, in an ugly town, in a cheap motel).More</t>
   </si>
   <si>
+    <t>monson11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r20682297-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -1334,6 +1499,9 @@
     <t>September 2008</t>
   </si>
   <si>
+    <t>AsianKay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r20121729-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -1356,6 +1524,9 @@
   </si>
   <si>
     <t>It looked like a clean hotel, but I woke up with bed bugs. I tried to call the front desk, but my phone wouldn't work. I immediately left and asked the manager to call me. I haven't heard from them, and their staff seemed unresponsive. I am horrified and I still get chills thinking about it. I took pictures of my bed to show the manager, but it didn't seem like they cared.More</t>
+  </si>
+  <si>
+    <t>Funinthesun411</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r17938494-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
@@ -1878,43 +2049,47 @@
       <c r="A2" t="n">
         <v>7584</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>181597</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -1934,50 +2109,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>7584</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>181598</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1997,50 +2176,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>7584</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>181599</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2054,50 +2237,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>7584</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>181600</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2111,50 +2298,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>7584</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>6793</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2168,50 +2359,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>7584</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>18703</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2229,50 +2424,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7584</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>181601</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2286,50 +2485,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>7584</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>181602</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2343,50 +2546,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>7584</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>15771</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2400,50 +2607,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>7584</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>181603</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2457,50 +2668,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>7584</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2514,50 +2729,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>7584</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>181604</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2571,50 +2790,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>7584</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>181605</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="J14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="K14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="L14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2628,50 +2851,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>7584</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>66075</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -2691,50 +2918,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>7584</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>181606</v>
+      </c>
+      <c r="C16" t="s">
+        <v>152</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -2754,50 +2985,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>7584</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>80127</v>
+      </c>
+      <c r="C17" t="s">
+        <v>159</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="K17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="O17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2813,56 +3048,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="X17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="Y17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>7584</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>181607</v>
+      </c>
+      <c r="C18" t="s">
+        <v>169</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="J18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2878,56 +3117,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="X18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="Y18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>7584</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>181608</v>
+      </c>
+      <c r="C19" t="s">
+        <v>179</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="J19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="K19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="O19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2941,50 +3184,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>7584</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>181609</v>
+      </c>
+      <c r="C20" t="s">
+        <v>186</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="J20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="K20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="O20" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2998,50 +3245,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>7584</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>55691</v>
+      </c>
+      <c r="C21" t="s">
+        <v>194</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="J21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="K21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="O21" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3055,50 +3306,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>7584</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>181610</v>
+      </c>
+      <c r="C22" t="s">
+        <v>202</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="J22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="K22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="L22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3112,50 +3367,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>7584</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>181611</v>
+      </c>
+      <c r="C23" t="s">
+        <v>209</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="J23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="K23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3169,50 +3428,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>7584</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>181612</v>
+      </c>
+      <c r="C24" t="s">
+        <v>216</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="J24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="K24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="L24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -3230,50 +3493,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>7584</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>181613</v>
+      </c>
+      <c r="C25" t="s">
+        <v>224</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="K25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="L25" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="O25" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -3293,50 +3560,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>7584</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>181614</v>
+      </c>
+      <c r="C26" t="s">
+        <v>232</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="J26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K26" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="L26" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="O26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3350,50 +3621,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>7584</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>3202</v>
+      </c>
+      <c r="C27" t="s">
+        <v>240</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="J27" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="K27" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="L27" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="O27" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -3413,41 +3688,45 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>7584</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>181615</v>
+      </c>
+      <c r="C28" t="s">
+        <v>247</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="J28" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="K28" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
@@ -3476,50 +3755,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>7584</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>91149</v>
+      </c>
+      <c r="C29" t="s">
+        <v>254</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="J29" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="K29" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="L29" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="O29" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3533,50 +3816,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>7584</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>181616</v>
+      </c>
+      <c r="C30" t="s">
+        <v>261</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="J30" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="K30" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="L30" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="O30" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -3598,56 +3885,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="X30" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="Y30" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>7584</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>181617</v>
+      </c>
+      <c r="C31" t="s">
+        <v>271</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="J31" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="K31" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="L31" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="O31" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -3671,50 +3962,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>7584</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>181618</v>
+      </c>
+      <c r="C32" t="s">
+        <v>278</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="J32" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="K32" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="L32" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="O32" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P32" t="n">
         <v>2</v>
@@ -3736,56 +4031,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="X32" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="Y32" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>7584</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>181619</v>
+      </c>
+      <c r="C33" t="s">
+        <v>288</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="J33" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="K33" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="L33" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="O33" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="P33" t="n">
         <v>2</v>
@@ -3809,41 +4108,45 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>7584</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>181620</v>
+      </c>
+      <c r="C34" t="s">
+        <v>296</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="J34" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="K34" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="L34" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
@@ -3870,47 +4173,51 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="X34" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="Y34" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>7584</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>181621</v>
+      </c>
+      <c r="C35" t="s">
+        <v>305</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="J35" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="K35" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="L35" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
@@ -3939,50 +4246,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>7584</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>181622</v>
+      </c>
+      <c r="C36" t="s">
+        <v>311</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="J36" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="K36" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="L36" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -3996,41 +4307,45 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>7584</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>109631</v>
+      </c>
+      <c r="C37" t="s">
+        <v>318</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="J37" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="K37" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="L37" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
@@ -4059,50 +4374,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>7584</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>181623</v>
+      </c>
+      <c r="C38" t="s">
+        <v>324</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="J38" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="K38" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="L38" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="O38" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P38" t="n">
         <v>1</v>
@@ -4124,56 +4443,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="X38" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="Y38" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>7584</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>2993</v>
+      </c>
+      <c r="C39" t="s">
+        <v>334</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="J39" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="K39" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="L39" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="O39" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4195,56 +4518,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="X39" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="Y39" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>7584</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>29695</v>
+      </c>
+      <c r="C40" t="s">
+        <v>342</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="J40" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="K40" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="L40" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
@@ -4266,56 +4593,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="X40" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="Y40" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>7584</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>181624</v>
+      </c>
+      <c r="C41" t="s">
+        <v>350</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="J41" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="K41" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="L41" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="O41" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P41" t="n">
         <v>2</v>
@@ -4337,47 +4668,51 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="X41" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="Y41" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>7584</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>181625</v>
+      </c>
+      <c r="C42" t="s">
+        <v>360</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="J42" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="K42" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="L42" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
@@ -4404,56 +4739,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="X42" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="Y42" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>7584</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>181626</v>
+      </c>
+      <c r="C43" t="s">
+        <v>367</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="J43" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="K43" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="L43" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="O43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4475,56 +4814,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="X43" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="Y43" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>7584</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>181627</v>
+      </c>
+      <c r="C44" t="s">
+        <v>375</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="J44" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="K44" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="L44" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="O44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -4546,56 +4889,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="X44" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="Y44" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>7584</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>181628</v>
+      </c>
+      <c r="C45" t="s">
+        <v>385</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="J45" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="K45" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="L45" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="O45" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -4619,50 +4966,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>7584</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>181629</v>
+      </c>
+      <c r="C46" t="s">
+        <v>392</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="J46" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="K46" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="L46" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4682,50 +5033,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>353</v>
+        <v>398</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>7584</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>181630</v>
+      </c>
+      <c r="C47" t="s">
+        <v>399</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
       <c r="J47" t="s">
-        <v>356</v>
+        <v>402</v>
       </c>
       <c r="K47" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="L47" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
@@ -4745,50 +5100,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>360</v>
+        <v>406</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>7584</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>181631</v>
+      </c>
+      <c r="C48" t="s">
+        <v>407</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>362</v>
+        <v>409</v>
       </c>
       <c r="J48" t="s">
-        <v>363</v>
+        <v>410</v>
       </c>
       <c r="K48" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="L48" t="s">
-        <v>365</v>
+        <v>412</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="O48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -4806,47 +5165,51 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>366</v>
+        <v>413</v>
       </c>
       <c r="X48" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
       <c r="Y48" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>7584</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>181632</v>
+      </c>
+      <c r="C49" t="s">
+        <v>416</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>369</v>
+        <v>417</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>370</v>
+        <v>418</v>
       </c>
       <c r="J49" t="s">
-        <v>371</v>
+        <v>419</v>
       </c>
       <c r="K49" t="s">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="L49" t="s">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
@@ -4873,47 +5236,51 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>366</v>
+        <v>413</v>
       </c>
       <c r="X49" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
       <c r="Y49" t="s">
-        <v>374</v>
+        <v>422</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>7584</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>181633</v>
+      </c>
+      <c r="C50" t="s">
+        <v>423</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>376</v>
+        <v>425</v>
       </c>
       <c r="J50" t="s">
-        <v>377</v>
+        <v>426</v>
       </c>
       <c r="K50" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="L50" t="s">
-        <v>379</v>
+        <v>428</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
@@ -4940,56 +5307,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="X50" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
       <c r="Y50" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>7584</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>181634</v>
+      </c>
+      <c r="C51" t="s">
+        <v>432</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="J51" t="s">
-        <v>385</v>
+        <v>435</v>
       </c>
       <c r="K51" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="L51" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="O51" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -5011,56 +5382,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="X51" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
       <c r="Y51" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>7584</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>181635</v>
+      </c>
+      <c r="C52" t="s">
+        <v>440</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>390</v>
+        <v>441</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>391</v>
+        <v>442</v>
       </c>
       <c r="J52" t="s">
-        <v>392</v>
+        <v>443</v>
       </c>
       <c r="K52" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="L52" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="O52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P52" t="n">
         <v>2</v>
@@ -5084,50 +5459,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>7584</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>181636</v>
+      </c>
+      <c r="C53" t="s">
+        <v>448</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>397</v>
+        <v>449</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>398</v>
+        <v>450</v>
       </c>
       <c r="J53" t="s">
-        <v>399</v>
+        <v>451</v>
       </c>
       <c r="K53" t="s">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="L53" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="O53" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P53" t="n">
         <v>2</v>
@@ -5149,56 +5528,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="X53" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
       <c r="Y53" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>7584</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>181637</v>
+      </c>
+      <c r="C54" t="s">
+        <v>456</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>404</v>
+        <v>457</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>405</v>
+        <v>458</v>
       </c>
       <c r="J54" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="K54" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="L54" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="M54" t="n">
         <v>2</v>
       </c>
       <c r="N54" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>2</v>
@@ -5222,50 +5605,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>7584</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>181638</v>
+      </c>
+      <c r="C55" t="s">
+        <v>464</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>412</v>
+        <v>466</v>
       </c>
       <c r="J55" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
       <c r="K55" t="s">
-        <v>414</v>
+        <v>468</v>
       </c>
       <c r="L55" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="M55" t="n">
         <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -5287,56 +5674,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="X55" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="Y55" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>7584</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>181639</v>
+      </c>
+      <c r="C56" t="s">
+        <v>474</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="J56" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="K56" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="L56" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="O56" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5360,50 +5751,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>7584</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>181640</v>
+      </c>
+      <c r="C57" t="s">
+        <v>481</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>427</v>
+        <v>483</v>
       </c>
       <c r="J57" t="s">
-        <v>428</v>
+        <v>484</v>
       </c>
       <c r="K57" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="L57" t="s">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="O57" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P57" t="n">
         <v>1</v>
@@ -5425,56 +5820,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="X57" t="s">
-        <v>432</v>
+        <v>488</v>
       </c>
       <c r="Y57" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>7584</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>181641</v>
+      </c>
+      <c r="C58" t="s">
+        <v>490</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>434</v>
+        <v>491</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>435</v>
+        <v>492</v>
       </c>
       <c r="J58" t="s">
-        <v>436</v>
+        <v>493</v>
       </c>
       <c r="K58" t="s">
-        <v>437</v>
+        <v>494</v>
       </c>
       <c r="L58" t="s">
-        <v>438</v>
+        <v>495</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>439</v>
+        <v>496</v>
       </c>
       <c r="O58" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5498,7 +5897,7 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>438</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_306.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_306.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="680">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,81 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Gabriel A</t>
-  </si>
-  <si>
-    <t>07/02/2018</t>
+    <t>09/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r598916043-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>32796</t>
+  </si>
+  <si>
+    <t>281283</t>
+  </si>
+  <si>
+    <t>598916043</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>Run down, outdated and dirty</t>
+  </si>
+  <si>
+    <t>Experience upon check-in: Got to room which was boiling hot because AC was off and curtain was open, sun streaming in. Discovered trash in wastebasket, wrinkled beds, burnt out lightbulb and phone didn't work. In lobby asked for a new room and didn't get one apology. In fact, they made it seem like an inconvenience, saying they were "totally booked". I totally doubt that. The walkways outside were dirty and sticky and we saw a huge cockroach. The signs everywhere to "watch your belongings" and "no alcohol" are not inviting. We were supposed to stay 2 nights, we only stayed one. Even that was too long. Not recommended.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r591798339-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>591798339</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>Photos misrepresented what we got</t>
+  </si>
+  <si>
+    <t>This is not what I expected. The parking is painfully limited.  Because of the way the hotel is designed if your room is upstairs and you can’t find a close spot then you could end up with a long trek. We had 5 bags and a sleepy child to walk with. The room smelled like smoke, the smoke detector has a plastic bag covering it, there was a dirty rag in the corner of the bathroom, and the bathroom fan doesn’t work. The room in general is jenky, dirty and old. The area is creepy and the parking lot is difficult to enter.If the photos represented the rooms more accurately I would have never stayed here. This should be a 2 star hotel max!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>This is not what I expected. The parking is painfully limited.  Because of the way the hotel is designed if your room is upstairs and you can’t find a close spot then you could end up with a long trek. We had 5 bags and a sleepy child to walk with. The room smelled like smoke, the smoke detector has a plastic bag covering it, there was a dirty rag in the corner of the bathroom, and the bathroom fan doesn’t work. The room in general is jenky, dirty and old. The area is creepy and the parking lot is difficult to enter.If the photos represented the rooms more accurately I would have never stayed here. This should be a 2 star hotel max!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r586127248-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>586127248</t>
+  </si>
+  <si>
+    <t>06/09/2018</t>
+  </si>
+  <si>
+    <t>Hotel correct but localisation is not fantastic</t>
+  </si>
+  <si>
+    <t>The quality of the hotel is correct, if you're Lucky enough not to get an older room.Services are good.However I was disappointed by the localisation, far from any interest point.To be considered when looking for a one-night-stop in LA</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r578353402-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
-    <t>32796</t>
-  </si>
-  <si>
-    <t>281283</t>
-  </si>
-  <si>
     <t>578353402</t>
   </si>
   <si>
@@ -183,9 +243,6 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>Luis F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r565662799-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -204,13 +261,7 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Where to start?Christine, the Director of Sales is AMAZING. She is the most, friendly, nice, professional, and helpful person ever. We recently celebrated my daughter's 15 (Quinceañera) and thank god for her. Everything went perfectly. The place was immaculate, and elegant. Her staffs, from the Servers, to the Front Desk Agents, Security Guards, were extremely courteous and helpful. My daughter smothered cake on my face, and off to the rescue was one of the servers (sorry to say I did not get her name), and handed me some napkins.The rooms are clean, very well appointed, and an exceptional value.There is a Club in this hotel as well. If you like 80's Disco music, this is definitely the place. Again THANKS Christine! We had a BLAST!!!!Luis F.Assistant GM Comfort Inn Santa MonicaMore</t>
-  </si>
-  <si>
-    <t>BlackBart1955</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r546532887-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
@@ -235,9 +286,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>I love this hotel. I have been staying on an extended stay as the house is sold, after staying for just a few days at other motels. I have found that this one is less expensive than the others I've stayed at, but is by far, the best one yet. It's quiet and peaceful, and has everything I need. 
 I don't mind that it costs $7.00 for breakfast. You don't get just a sweet roll or cereal here to pass it off as breakfast. Rather, you get sausage, eggs, and potatoes with toast, and with water, coffee, and orange juice to drink. Where can you get a good breakfast like that for only $7.00? Maybe it's not like going to a restaurant where you have a menu to choose from, but for what they sell every day, being the same, it's very tasty and inexpensive. 
 The hotel staff is very courteous and polite, and whenever I have needed something, like a window screen, they jump on it. I'm very happy with the service here!
@@ -245,7 +293,43 @@
 Overall, for the price, I couldn't find a better place, and I'm very happy with this place, so I'm staying until I get the...I love this hotel. I have been staying on an extended stay as the house is sold, after staying for just a few days at other motels. I have found that this one is less expensive than the others I've stayed at, but is by far, the best one yet. It's quiet and peaceful, and has everything I need. I don't mind that it costs $7.00 for breakfast. You don't get just a sweet roll or cereal here to pass it off as breakfast. Rather, you get sausage, eggs, and potatoes with toast, and with water, coffee, and orange juice to drink. Where can you get a good breakfast like that for only $7.00? Maybe it's not like going to a restaurant where you have a menu to choose from, but for what they sell every day, being the same, it's very tasty and inexpensive. The hotel staff is very courteous and polite, and whenever I have needed something, like a window screen, they jump on it. I'm very happy with the service here!The location is a bit remote, but it's still close to several shopping areas and not far from Knott's Berry Farm and Disneyland. And it's freeway close, next to the I-5, and not far from the 605, 105, and the 91 freeways.Overall, for the price, I couldn't find a better place, and I'm very happy with this place, so I'm staying until I get the money from my share of the sale of the house.More</t>
   </si>
   <si>
-    <t>idinagipson</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r521255177-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>521255177</t>
+  </si>
+  <si>
+    <t>09/04/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top Quality </t>
+  </si>
+  <si>
+    <t>This motel is a very fine motel! It is older but kept up extremely well rooms are kept in good shape. Very comfortable very relaxing. And I had no problem with feeling secure in this motel. The staff was extremely helpful, and very friendly.  I would highly recommend this motel to anyone.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r488006617-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>488006617</t>
+  </si>
+  <si>
+    <t>05/26/2017</t>
+  </si>
+  <si>
+    <t>stop by - good enough -  after landing</t>
+  </si>
+  <si>
+    <t>good points :- a balance to weigh luggages- a pool (small though - more suitable for kids)- free wifibad points :- poor organization when many tourists groups arrive at the same time at the restaurant (40min standing in line to have breakfast)</t>
+  </si>
+  <si>
+    <t>May 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r456985965-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
@@ -266,9 +350,6 @@
     <t>February 2017</t>
   </si>
   <si>
-    <t>Antonio P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r449629700-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -290,9 +371,6 @@
     <t>My wife and I  got a package  offered by the hotel. We arrived 30 min. Early went to the counter to check in, all was well until we went to our room to find it not even clean and ready. So had put everything back in the car in the rain. Went back to the front desk. And was told it would be another 30 min. So  again back in the rain grab our luggage  go up to the room  and the maid was just finishing up. She apologized. So now we're in the room I went to sit on one of the beds and I felt like I fell into a big hole. The other bed felt a whole lot better, but still not what I thought it would be. Unfortunately I won't give this hotel a very good rating. The rest of our event went well. I do have to say the hotel manager is one very hard working lady her name is Christine. Other than that the food was good. music was great. Again the guest rooms. need alot of attention. More</t>
   </si>
   <si>
-    <t>Jim B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r444497007-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -308,7 +386,40 @@
     <t>Bed felt like cardboard. Pillow and sheets were rough. No heavy comforter. Walls were paper thin and heard other talking all night, in the near rooms and walking around. Busy place. Otherwise clean and tidy looking. I didn't handle check in, nor see the food areas. so no comment on that.</t>
   </si>
   <si>
-    <t>pick55</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r442870191-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>442870191</t>
+  </si>
+  <si>
+    <t>12/08/2016</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>I am from Canada and I visited my boyfriend in Norwalk. Westayed here with last dec. 3-4. It was a perfect location for us because it was away from the crowded area. very clean, very tidy. will go back again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r441758662-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>441758662</t>
+  </si>
+  <si>
+    <t>12/03/2016</t>
+  </si>
+  <si>
+    <t>Decent Hotel, bad neighborhood</t>
+  </si>
+  <si>
+    <t>The room was decent for the price we paid,  we were on a last minute trip to LA during Thxgiving. But the neighborhood was a bit erie, it did not make us feel safe. The breakfast was horrible for an additional price, totally not worth it.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r439263611-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
@@ -326,15 +437,6 @@
     <t>I was sleeping here for my jobs orientation. Breakfast buffet was free with room.the place was extremely busy with tourist also people from my class. If you are in this part of town it will not be a disappointment to stay here. The beds are comfortable and rooms are equipped with kitchen appliances. .</t>
   </si>
   <si>
-    <t>November 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>dannykim3</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r430485699-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -353,9 +455,6 @@
     <t>August 2016</t>
   </si>
   <si>
-    <t>Stan S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r406832935-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -374,7 +473,40 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t>Theo_Kis</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r403309777-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>403309777</t>
+  </si>
+  <si>
+    <t>08/09/2016</t>
+  </si>
+  <si>
+    <t>Not the worst but definitely not the best.</t>
+  </si>
+  <si>
+    <t>A little more effort would go a long way.  This is a huge property and obviously an old structure.  While we were there, it was evident they were in the process of renovating rooms as the parking lot was full of furniture.  Our reservation was for 4 people (family) for 3 nights.  We never had more than 3 towels for our room.  We requested additional towels on our first night there, especially since we used the pool and they never arrived.  The tile under the toilet had a large rust stain.  Eventually I figured out it was because the toilet leaked constantly when I stepped in a gross puddle of water.  We had to keep a hand towel under the toilet to stop the spread of water.  Again, as there was a large stain, this should have been a known problem.  The kids tried to use the channel listing in the room to find the Disney Channel, but that particular channel never worked.  On our 3rd night there, the key card entry stopped working and a maintenance person (non-uniformed) had to let us in.  He was very quick to arrive, even beating us to the room, which I did appreciate.  The internet (wifi) was non-functioning throughout our entire stay.  The room was clean and "adequate" although there does seem to be a lack of effort or attention.  Our pillowcases were inside-out, the sheets were thin and we had to turn...A little more effort would go a long way.  This is a huge property and obviously an old structure.  While we were there, it was evident they were in the process of renovating rooms as the parking lot was full of furniture.  Our reservation was for 4 people (family) for 3 nights.  We never had more than 3 towels for our room.  We requested additional towels on our first night there, especially since we used the pool and they never arrived.  The tile under the toilet had a large rust stain.  Eventually I figured out it was because the toilet leaked constantly when I stepped in a gross puddle of water.  We had to keep a hand towel under the toilet to stop the spread of water.  Again, as there was a large stain, this should have been a known problem.  The kids tried to use the channel listing in the room to find the Disney Channel, but that particular channel never worked.  On our 3rd night there, the key card entry stopped working and a maintenance person (non-uniformed) had to let us in.  He was very quick to arrive, even beating us to the room, which I did appreciate.  The internet (wifi) was non-functioning throughout our entire stay.  The room was clean and "adequate" although there does seem to be a lack of effort or attention.  Our pillowcases were inside-out, the sheets were thin and we had to turn off the a/c each night and the beds were hard but the pillows were soft.  All in all, we booked utilizing a "deal" and we weren't expecting anything amazing.  We were in town to visit Universal Studios and the beaches.  This hotel is about 20 miles away from Hollywood, Santa Monica, Venice, etc but in traffic (which is constant), it's about an hour's drive.  There is nothing of note in the immediate vicinity of the hotel, in fact the property borders train tracks.  If you're looking for a quick, cheap facility, this is probably adequate.  If you're looking to relax for even a modicum of luxury, I'd suggest to keep looking.  It didn't warrant us wanting to cancel our booking, but I probably wouldn't stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>A little more effort would go a long way.  This is a huge property and obviously an old structure.  While we were there, it was evident they were in the process of renovating rooms as the parking lot was full of furniture.  Our reservation was for 4 people (family) for 3 nights.  We never had more than 3 towels for our room.  We requested additional towels on our first night there, especially since we used the pool and they never arrived.  The tile under the toilet had a large rust stain.  Eventually I figured out it was because the toilet leaked constantly when I stepped in a gross puddle of water.  We had to keep a hand towel under the toilet to stop the spread of water.  Again, as there was a large stain, this should have been a known problem.  The kids tried to use the channel listing in the room to find the Disney Channel, but that particular channel never worked.  On our 3rd night there, the key card entry stopped working and a maintenance person (non-uniformed) had to let us in.  He was very quick to arrive, even beating us to the room, which I did appreciate.  The internet (wifi) was non-functioning throughout our entire stay.  The room was clean and "adequate" although there does seem to be a lack of effort or attention.  Our pillowcases were inside-out, the sheets were thin and we had to turn...A little more effort would go a long way.  This is a huge property and obviously an old structure.  While we were there, it was evident they were in the process of renovating rooms as the parking lot was full of furniture.  Our reservation was for 4 people (family) for 3 nights.  We never had more than 3 towels for our room.  We requested additional towels on our first night there, especially since we used the pool and they never arrived.  The tile under the toilet had a large rust stain.  Eventually I figured out it was because the toilet leaked constantly when I stepped in a gross puddle of water.  We had to keep a hand towel under the toilet to stop the spread of water.  Again, as there was a large stain, this should have been a known problem.  The kids tried to use the channel listing in the room to find the Disney Channel, but that particular channel never worked.  On our 3rd night there, the key card entry stopped working and a maintenance person (non-uniformed) had to let us in.  He was very quick to arrive, even beating us to the room, which I did appreciate.  The internet (wifi) was non-functioning throughout our entire stay.  The room was clean and "adequate" although there does seem to be a lack of effort or attention.  Our pillowcases were inside-out, the sheets were thin and we had to turn off the a/c each night and the beds were hard but the pillows were soft.  All in all, we booked utilizing a "deal" and we weren't expecting anything amazing.  We were in town to visit Universal Studios and the beaches.  This hotel is about 20 miles away from Hollywood, Santa Monica, Venice, etc but in traffic (which is constant), it's about an hour's drive.  There is nothing of note in the immediate vicinity of the hotel, in fact the property borders train tracks.  If you're looking for a quick, cheap facility, this is probably adequate.  If you're looking to relax for even a modicum of luxury, I'd suggest to keep looking.  It didn't warrant us wanting to cancel our booking, but I probably wouldn't stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r401867067-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>401867067</t>
+  </si>
+  <si>
+    <t>08/05/2016</t>
+  </si>
+  <si>
+    <t>Not really impressed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well, it's nice and clean. But my room wasn't Ready so I had to wait for 2 hours... and at the time I was exhausted from a long trip and couldn't be anywhere to relax. The room was OK, just not happy with the service. </t>
+  </si>
+  <si>
+    <t>April 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r393898906-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
@@ -392,9 +524,6 @@
     <t>Hotell or motell that's the question? This  place has seen better days and better surroundings too. It's OK for stop and rest but not a place to enjoy your vacation. Best part of this place is the pool area located in the middle of the facilities. Friendly and helpful staff.</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r391055695-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -413,9 +542,6 @@
     <t>I defintely do not think this is a 3 star hotel. I was looking for price and it wasnt as pricey as some of the other hotels. Check in was nice and when you see the hotel it looks good as far as appearance. At first glance the room looked okay. However my sons truck went under the bed and it was so trashy and I found a pudding cup opened under there..ugh. The beds are bad. They make a lot of noise and the pillows are really hard. Walls are super thin so you can hear everything. The pool was nice along with the outside lounge area as well. There is a bar and restaurant which we did not go to....the price of breakfast was way too much. The hotel is within 30 to 40 min of everything. If they would upgrade this could b a really nice place.... So i guess its true what they say... you get what you pay for. Better off spending another 20 bucks and getting a better bed with breakfast included.More</t>
   </si>
   <si>
-    <t>KC A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r357960138-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -434,7 +560,37 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t>Juliecuad</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r357666904-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>357666904</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>One of the worst.... bed a nightmre</t>
+  </si>
+  <si>
+    <t>We picked this hotel for being closer to where we needed to go... Not a holiday or summer weekend.  The bed was horrible... I did not sleep at all and woke up with a bad back pain and was not ready for another 8 hour drive.  Please make sure you read the reviews first.  We did not do this, because of time and we greatly paid for it.  Restaurant was closed at dinner time.Best of luck to you</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r354065790-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>354065790</t>
+  </si>
+  <si>
+    <t>03/09/2016</t>
+  </si>
+  <si>
+    <t>Rock hard beds</t>
+  </si>
+  <si>
+    <t>The check in process was horrible. They were not accommodating at all. When I finally got a room, the bed was unbelievably hard. I think sleeping on e floor would have been better. The toilets look like toddler sized toilets and are very low to the ground. They boast about a bar and restaurant but could never get any service at either one. Stayed 2 nights and after the first night, the maid was knocking on the door to service the room at 745am!!!! On a Saturday morning!!! There is construction by the hotel and very confusing to get into the parking lot. You have to drive down the road and make a uturn to get into the lot. Not a good place to stay. Would not recommend at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>The check in process was horrible. They were not accommodating at all. When I finally got a room, the bed was unbelievably hard. I think sleeping on e floor would have been better. The toilets look like toddler sized toilets and are very low to the ground. They boast about a bar and restaurant but could never get any service at either one. Stayed 2 nights and after the first night, the maid was knocking on the door to service the room at 745am!!!! On a Saturday morning!!! There is construction by the hotel and very confusing to get into the parking lot. You have to drive down the road and make a uturn to get into the lot. Not a good place to stay. Would not recommend at all.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r351276602-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
@@ -456,9 +612,6 @@
   </si>
   <si>
     <t>When we first arrived, I was pleased with the lobby and the employees at the front desk. As we walked to our room we saw a nice pool that looked clean. After entering our room it was outdated but still looked clean. I wasn't disappointed because it's worth the money we paid for it. However, once I entered the bathroom I was appalled by the shower. The shower has dark black grudge and slime. When I first stepped inside I thought the shower was going to break because it made this creepy cracking noise. It worked out for my husband and I as we wanted to save money on our hotel to enjoy doing as many things in Los Angeles. Also be advised you need to have a car in order to stay here as anything important in LA is about 45 minutes away. The neighborhood itself of Norwalk is very nice, however there are some sketchy people who stay there. The walls are paper thin, we could hear our lousy neighbors fist fighting. It was crazy. This hotel would be so nice if they renovated and got rid of the sketchy people. More</t>
-  </si>
-  <si>
-    <t>K W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r342637396-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
@@ -484,9 +637,6 @@
 My girlfriend and I were heading over to the hotel after a long day when we encountered a LOT of construction in the main road by the hotel.  We figured, no problem, it will just take a little longer.  Our GPS was giving us directions and we finally saw the hotel, which is located on an island-like stretch of landspace by the freeway.  It's triangular with 3 large arterials on each side of the property.  Our GPS prompted us to turn onto the street of the main entrance but it was closed due to construction, which started possibly within the hour.  Thus we figured that there would be a side entrance.  I spotted it but guess what...the gate was CLOSED.  I attempted to find yet another entrance but couldn't access the street on that side; the road that we traveled on goes around the street that we were trying to get on.  Meanwhile the GPS was useless in getting us into the...I had one of the worst days settling in to a move down to Southern California after booking this hotel.  I think that a hotel stay is the MOST important influence on any trip because if the day didn't go so well, it can be made up for in great accommodations.  The day that I was supposed to stay at this hotel had neither, resulting in problems that compounded into the booking of another hotel for the night.My girlfriend and I were heading over to the hotel after a long day when we encountered a LOT of construction in the main road by the hotel.  We figured, no problem, it will just take a little longer.  Our GPS was giving us directions and we finally saw the hotel, which is located on an island-like stretch of landspace by the freeway.  It's triangular with 3 large arterials on each side of the property.  Our GPS prompted us to turn onto the street of the main entrance but it was closed due to construction, which started possibly within the hour.  Thus we figured that there would be a side entrance.  I spotted it but guess what...the gate was CLOSED.  I attempted to find yet another entrance but couldn't access the street on that side; the road that we traveled on goes around the street that we were trying to get on.  Meanwhile the GPS was useless in getting us into the property because it kept recalculating the route.  It occurred to me that the 3rd side of the hotel that we were trying to access could only happen coming off the 5 Freeway.  So I had to find the entrance to the freeway, drive in the opposite direction, and double back to even have a chance to get to the hotel.  After I driving on the freeway and exiting, I find that there was construction blocking access!We called the hotel and the front desk staff didn't even know that construction was making it difficult if not possible to access the hotel by car.  They couldn't give us directions matching the streets that I was on and we proceeded to attempt a cancellation with Hotwire.  Now Hotwire rarely allows for cancellations of their Special Deals reservations (ones where you don't know which hotel you will get until after the purchase) and they got the hotel staff on the phone on three-way.  In order to justify not refunding what we had paid, the hotel staff tells Hotwire that there isn't any construction around the hotel and that other guests had no problems getting to the hotel.  I refuted that the construction may have recently started and asked when the last guest arrived.  Their response? "Recently."The oblivious lying staff is a deal-killer with this hotel and is indicative of potentially poor guest service.  Access to the hotel would have been challenging even without the construction since the streets around the hotel have fast travelling cars making it hard to slow down.  For these reasons, I suggest staying away from this hotel if one could help it.More</t>
   </si>
   <si>
-    <t>sunny-sand</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r342446971-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -505,7 +655,46 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t>tkwitt</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r335538628-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>335538628</t>
+  </si>
+  <si>
+    <t>12/28/2015</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised!</t>
+  </si>
+  <si>
+    <t>After reading reviews on this hotel I was skeptical about staying here but was pleasantly surprised. We arrived late but the lobby was still open and the attendant there was very helpful. We had a room with two queen beds. The room had a faint odor like the door had been shut for awhile but did not last long with the door open for a few minutes. The beds were of average comfort but not dirty in any way. We thought the room was very clean and had no issues with the room. Two downsides would be no refrigerator in the room (which we didn't need anyways) and I could not get a wifi connection even though we were staying close to the office. For the price and convenience of being right of the 5 freeway I would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>After reading reviews on this hotel I was skeptical about staying here but was pleasantly surprised. We arrived late but the lobby was still open and the attendant there was very helpful. We had a room with two queen beds. The room had a faint odor like the door had been shut for awhile but did not last long with the door open for a few minutes. The beds were of average comfort but not dirty in any way. We thought the room was very clean and had no issues with the room. Two downsides would be no refrigerator in the room (which we didn't need anyways) and I could not get a wifi connection even though we were staying close to the office. For the price and convenience of being right of the 5 freeway I would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r325589379-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>325589379</t>
+  </si>
+  <si>
+    <t>11/09/2015</t>
+  </si>
+  <si>
+    <t>Dont expect much</t>
+  </si>
+  <si>
+    <t>The wi-fi was horrible, I never got a connection. I got a suite that was musky, paint peeling and outdated. The refrigerator did not work and was told to call the Manager the next day to resolve the issue. I called the manager Don, he was argumentative and irate. He said he needed to investigate the situation, as if I was lying about it all. I do not recommend this motel. Very low budget. To top it off it was next to route, the train was loud and annoying.MoreShow less</t>
+  </si>
+  <si>
+    <t>Guesthousenorwalk, Manager at GuestHouse Inn &amp; Suites Norwalk, responded to this reviewResponded December 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2015</t>
+  </si>
+  <si>
+    <t>The wi-fi was horrible, I never got a connection. I got a suite that was musky, paint peeling and outdated. The refrigerator did not work and was told to call the Manager the next day to resolve the issue. I called the manager Don, he was argumentative and irate. He said he needed to investigate the situation, as if I was lying about it all. I do not recommend this motel. Very low budget. To top it off it was next to route, the train was loud and annoying.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r323725867-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
@@ -526,18 +715,9 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t>Guesthousenorwalk, Manager at GuestHouse Inn &amp; Suites Norwalk, responded to this reviewResponded December 11, 2015</t>
-  </si>
-  <si>
-    <t>Responded December 11, 2015</t>
-  </si>
-  <si>
     <t>GuestHouse International in Norwalk, California is rougly equivalent to a Motel 6.  The rooms are clean, but old.  All rooms are exterior access, with a deadbolt and chain on the inside. No wifi in rooms.  There is a pool surrounded by a secure fence in the interior courtyard area, however you can easily walk from the street through the parking lot to the pool area without having to pass by hotel personnel.  As with many budget hotels you are required to sign or initial many things that imply that you are not a trusted guest, which also implies that the property has problems with guests who are not trustworthy, and therefore raised questions in my mind related to security, noise levels, etc.More</t>
   </si>
   <si>
-    <t>Jason559</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r312401214-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -565,9 +745,6 @@
     <t>Unfortunately, the last time they cleaned the rooms may have been 1983.  There are some updates, like a flat TV, but the room was very musky and gross smelling. The neighborhood is pretty run down, right along the railroad tracks. The paint was coming off the walls and it was in dire need of some TLC. When I arrived to check in the desk clerks were standing around and one was eating a sandwich. It took them awhile to help me. You know you aren't in a great hotel when they ask if you'll be paying cash for the $50 room deposit.  All in all, the rate was low and it was a roof over our head. So I'd say this is definitely a two start, not a three start hotel.More</t>
   </si>
   <si>
-    <t>Lindy Z</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r301875664-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -586,7 +763,43 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t>Blaise H</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r298051480-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>298051480</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>Took a group of 60 people - 28 rooms to this hotel. Some of the rooms were still dirty, old and tired.Front desk gave us keys to rooms that still had guests in the room...unprofessional. Breakfast was horrible...only scrambled eggs, sausages, toast, tang powder orange drink.  There was no cereal or milk or even fruit...the only thing was the coffee was good. Location of this hotel is sketchy...because we were a large group we made the best of it....but will never recommend this hotel to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Took a group of 60 people - 28 rooms to this hotel. Some of the rooms were still dirty, old and tired.Front desk gave us keys to rooms that still had guests in the room...unprofessional. Breakfast was horrible...only scrambled eggs, sausages, toast, tang powder orange drink.  There was no cereal or milk or even fruit...the only thing was the coffee was good. Location of this hotel is sketchy...because we were a large group we made the best of it....but will never recommend this hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r283229819-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>283229819</t>
+  </si>
+  <si>
+    <t>06/26/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smelly </t>
+  </si>
+  <si>
+    <t>Hotel not situated in a nice area. The first room we were put in was not ready. The 2nd room was a suite. Just ok. Although clean, furniture old, picture on TV was grainy. Room smelled musty. The front desk was friendly and accommodating and upgraded us to a suite</t>
+  </si>
+  <si>
+    <t>June 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r282179685-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
@@ -604,15 +817,9 @@
     <t>Front desk rented our room out, at midnight...while we were in there sleeping. Woke up to people opening our door but couldn't get past the chain...REALLY???? Called down to complain and woman at desk asked if we could kindly send them back to the front desk....Ummm...how about I'm So Sorry? So besides being rudely awoken by an incompetent employees mistake...the room was great! Bldg.5 was quiet, never heard anybody below or next to us. Beds were comfortable, tv is outdated..but it worked. Truck Parking is on an adjacent street, we had our tractor only &amp; parked in the hotel lot. Rate was decent, pools (2) and the entire huge property were very clean. Laundry facility is big...and the cheapest I've ever seen. We'd stay again...and make sure our room is ours only.MoreShow less</t>
   </si>
   <si>
-    <t>June 2015</t>
-  </si>
-  <si>
     <t>Front desk rented our room out, at midnight...while we were in there sleeping. Woke up to people opening our door but couldn't get past the chain...REALLY???? Called down to complain and woman at desk asked if we could kindly send them back to the front desk....Ummm...how about I'm So Sorry? So besides being rudely awoken by an incompetent employees mistake...the room was great! Bldg.5 was quiet, never heard anybody below or next to us. Beds were comfortable, tv is outdated..but it worked. Truck Parking is on an adjacent street, we had our tractor only &amp; parked in the hotel lot. Rate was decent, pools (2) and the entire huge property were very clean. Laundry facility is big...and the cheapest I've ever seen. We'd stay again...and make sure our room is ours only.More</t>
   </si>
   <si>
-    <t>Jeffery H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r268958800-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -634,9 +841,6 @@
     <t>Dated location just off the I5 in Norwalk. Those are the plusses. Oh yeah, Chevy Chase had his famous swim scene in Vacation at this hotel. It hasnt seen any improvements since then. The cons: 1) bumpy old bed. 2) Carpets worn out. 3) Remote control for TV missing buttons. 4) Bathtub desperately needs resurfacing. 5) Restaurant is crap! Even the cook told me I would fare better if I ordered delivery pizza. 6) Did I mention the jurrasic cockroaches both indoors and outdoors. It damages your sleep when you wake up thinking there is a motorcycle on your leg, but it is just a giant cockroach! Lots of tourgroups stay here. They are okay, usually really friendly, albeit loud folks. There is a Muslim prayer room in the Daisy room. The problem with that is the fact that they let their kids run around the property so loud that nobody can sleep. There are no good walking distance restaurants or anything else nearby. There is an AM/PM close by though. The staff are very friendly. But it is obvious that the ownership is stingy with maintenance and updates. Probably because the tourbus groups dont have a choice! Oh yeah, I didnt see any hookers!More</t>
   </si>
   <si>
-    <t>almaserenalohmann</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r256361710-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -655,7 +859,37 @@
     <t>February 2015</t>
   </si>
   <si>
-    <t>JoaunneP</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r255448732-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>255448732</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>Excellent Overnight stay</t>
+  </si>
+  <si>
+    <t>We stayed here one night on our way to Hawaii. Desk staff was friendly and accommodating. I wanted a room close to the pool where Chevy Chase filmed movie with Christie Brinkley. I want able to get it but we were close. The phone and the toilet in the room did not work, but we waited until the next morning since we were leaving and it was not a big deal. They comped our breakfast in the morning so it all worked out.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r253697491-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>253697491</t>
+  </si>
+  <si>
+    <t>02/11/2015</t>
+  </si>
+  <si>
+    <t>Affordable, decent</t>
+  </si>
+  <si>
+    <t>Stayed for one night while visiting Anaheim for a convention event. Close to freeway, a bit of a rough guests, but security was able to handle the noise levels. Staff was friendly and courteous. Good for the price.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r251235688-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
@@ -673,12 +907,6 @@
     <t xml:space="preserve">The room was horrible! It smelled, the carpet was nasty, and there was hair in the bathroom sink! So disappointed that American Express would even advertise such an hotel! Once you pay for the rooms there is no refund, so either leave or lose your money! I called to speak with an American Express representative and that was a waste of time. The photos online are very misleading! I was visiting LA for two weeks and I'm so glad I only booked the hotel for one week. </t>
   </si>
   <si>
-    <t>January 2015</t>
-  </si>
-  <si>
-    <t>Gennesis V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r244991068-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -700,9 +928,6 @@
     <t>The pics do not really look like exactly what this place is, but none the less if you just need a place to crash for a day or two, then this is a OK place.  This place was not bad NOR was it good. There is an on site bar so at last call hour, around 2:30 A.M. it got extremely noisy outside of my room. I could hear people walking up &amp; down the hallways and their drunken convos. Every time I went into the office the security guard would just be in there either standing or eating. There are no microwaves or fridges available, you need to pay extra, which is so dumb!! This place is located right off the freeway so if you do not mind the traffic then by all means this is a place for you. What I can say is, the rooms were spacious, I had a two queen bedroom on the second floor.More</t>
   </si>
   <si>
-    <t>Driver_316</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r242878992-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -724,7 +949,50 @@
     <t>i have stayed at this hotel twice, with a tour group.   On both times, i was unhappy with this hotel.  I am surprised that people actually want to stay here.  I don't USUALLY stay at a hotel like this, but my groups often pick this one, so i have to join them.  I felt my group could do better at Motel 6.  At least this place is MUCH more modern.  The services offered are TOTALLY outdated.  I feel I am staying at a "Motel" not an Inn or Suites.  I have "paid" for an "Inn" cheaper and better than this place, and more amenities offered.  The TV, room, colors of the room, just seem to be ANCIENT.  The Exterior needs attention also.  The location sucks also.  The closest thing within walking distance is an AM/PM.  If I am starving they do have a restaurant, but sorry the food is terrible.  I admit I didn't do breakfast.  Also dinner is WAY to expensive for what you get.  However the office is a palace!????  $10 charge for a refrigerator or microwave.  Repeat the sign says Suites, huh?  I was VERY unimpressed.  I suggest if you are desperate stay there; otherwise I would DEFINITELY go somewhere else.  By the way my Egg Nog spoiled.  I was too cheap to spend $10 for a refrigerator.More</t>
   </si>
   <si>
-    <t>Titanium123</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r237920722-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>237920722</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>The hotel from the Vacation movie</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for one reason only ... because I was writing an article on filming locations from 1980s movies. Norwalk, CA is a town in between Anaheim and Los Angeles and has the distinct honor of being in many well known movies from the 1980s. The nearby arcade/go cart attraction was featured in the movie, The Karate Kid and looks similar to how it did in the film. The Guest House Hotel (which somewhat modified) was the hotel where Chevy Chase famously jumps into the pool naked with Christie Brinkley waking up the entire hotel. One of the classic scenes from any comedy.
+This hotel is very much stuck in the 1980s from a customer service standpoint. I believe you have to call in order to book a room. I spoke with a 'manager' about the article I was writing and my request for a poolside room. Of course when I got there, nobody had heard anything about it ... but the front desk clerk was an absolute sweetheart and changed some rooms around so I could have a second floor room overlooking the pool.
+The hotel itself is not somewhere you'd probably want to stay if you were looking for a first class accomodation. It was dated and 'motel' feeling ... I would definately not call this a hotel. (exterior corridors, cheesy rooms, worn carpet). For the price, it is clean and comfortable and reminiscent of...I stayed at this hotel for one reason only ... because I was writing an article on filming locations from 1980s movies. Norwalk, CA is a town in between Anaheim and Los Angeles and has the distinct honor of being in many well known movies from the 1980s. The nearby arcade/go cart attraction was featured in the movie, The Karate Kid and looks similar to how it did in the film. The Guest House Hotel (which somewhat modified) was the hotel where Chevy Chase famously jumps into the pool naked with Christie Brinkley waking up the entire hotel. One of the classic scenes from any comedy.This hotel is very much stuck in the 1980s from a customer service standpoint. I believe you have to call in order to book a room. I spoke with a 'manager' about the article I was writing and my request for a poolside room. Of course when I got there, nobody had heard anything about it ... but the front desk clerk was an absolute sweetheart and changed some rooms around so I could have a second floor room overlooking the pool.The hotel itself is not somewhere you'd probably want to stay if you were looking for a first class accomodation. It was dated and 'motel' feeling ... I would definately not call this a hotel. (exterior corridors, cheesy rooms, worn carpet). For the price, it is clean and comfortable and reminiscent of the motels you may have stayed in as a kid on vacation. (The perfect choice for the movie hotel, actually).It seemed that there were a few tour buses of Japanese tourists staying there along with a large wedding party. The first thing I did, was go for a swim in the famous pool. The color changing lights and tacky furniture make it pretty different from the 'resort' feel that it had in the movie. While it is a little more tacky now ... you can see the spots where Chevy Chase did the famous scene and it is 'exhilarating' to be in that location almost 30 years later. (there are a few framed pictures outside the lobby of the movie being filmed there.The grates on the walkway outside hotel rooms on the second floor are still the same as they were back then. The color was for some reason changed to a bright yellow making the hotel look a lot tackier than it would if it was painted a classier color. The area the hotel is in feels a bit industrial. However it is easy to hop on the highway and in 20 minutes you could be at Disneyland ... and in under a half hour (with no traffic) you can be in LA.Tip ... There is a restaurant about 10 minutes away called Clearman's North Woods Lodge (in La Mirada) ... you've seen it off the highway. Fake snow on the roof of a log cabin. If you love steak and don't mind spending some money, try this place. From both a cheesy/kitchy level and a food level ... it will blow you away!Overall, I probably wouldn't stay here at the Guest House as a hotel unless I was on a strict budget. However, it is clean and good for families or groups. (warning ... as such, it is not the quietest hotel you'll see) The best part is the pool ... clap your hands and few times, shout, 'This is crazy! This is crazy! This is crazy!' and channel your inner- Clark Griswold and you can recreate one of the most famous scenes in 80s movie history in their awesome pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Guesthousenorwalk, Manager at GuestHouse Inn &amp; Suites Norwalk, responded to this reviewResponded November 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2014</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for one reason only ... because I was writing an article on filming locations from 1980s movies. Norwalk, CA is a town in between Anaheim and Los Angeles and has the distinct honor of being in many well known movies from the 1980s. The nearby arcade/go cart attraction was featured in the movie, The Karate Kid and looks similar to how it did in the film. The Guest House Hotel (which somewhat modified) was the hotel where Chevy Chase famously jumps into the pool naked with Christie Brinkley waking up the entire hotel. One of the classic scenes from any comedy.
+This hotel is very much stuck in the 1980s from a customer service standpoint. I believe you have to call in order to book a room. I spoke with a 'manager' about the article I was writing and my request for a poolside room. Of course when I got there, nobody had heard anything about it ... but the front desk clerk was an absolute sweetheart and changed some rooms around so I could have a second floor room overlooking the pool.
+The hotel itself is not somewhere you'd probably want to stay if you were looking for a first class accomodation. It was dated and 'motel' feeling ... I would definately not call this a hotel. (exterior corridors, cheesy rooms, worn carpet). For the price, it is clean and comfortable and reminiscent of...I stayed at this hotel for one reason only ... because I was writing an article on filming locations from 1980s movies. Norwalk, CA is a town in between Anaheim and Los Angeles and has the distinct honor of being in many well known movies from the 1980s. The nearby arcade/go cart attraction was featured in the movie, The Karate Kid and looks similar to how it did in the film. The Guest House Hotel (which somewhat modified) was the hotel where Chevy Chase famously jumps into the pool naked with Christie Brinkley waking up the entire hotel. One of the classic scenes from any comedy.This hotel is very much stuck in the 1980s from a customer service standpoint. I believe you have to call in order to book a room. I spoke with a 'manager' about the article I was writing and my request for a poolside room. Of course when I got there, nobody had heard anything about it ... but the front desk clerk was an absolute sweetheart and changed some rooms around so I could have a second floor room overlooking the pool.The hotel itself is not somewhere you'd probably want to stay if you were looking for a first class accomodation. It was dated and 'motel' feeling ... I would definately not call this a hotel. (exterior corridors, cheesy rooms, worn carpet). For the price, it is clean and comfortable and reminiscent of the motels you may have stayed in as a kid on vacation. (The perfect choice for the movie hotel, actually).It seemed that there were a few tour buses of Japanese tourists staying there along with a large wedding party. The first thing I did, was go for a swim in the famous pool. The color changing lights and tacky furniture make it pretty different from the 'resort' feel that it had in the movie. While it is a little more tacky now ... you can see the spots where Chevy Chase did the famous scene and it is 'exhilarating' to be in that location almost 30 years later. (there are a few framed pictures outside the lobby of the movie being filmed there.The grates on the walkway outside hotel rooms on the second floor are still the same as they were back then. The color was for some reason changed to a bright yellow making the hotel look a lot tackier than it would if it was painted a classier color. The area the hotel is in feels a bit industrial. However it is easy to hop on the highway and in 20 minutes you could be at Disneyland ... and in under a half hour (with no traffic) you can be in LA.Tip ... There is a restaurant about 10 minutes away called Clearman's North Woods Lodge (in La Mirada) ... you've seen it off the highway. Fake snow on the roof of a log cabin. If you love steak and don't mind spending some money, try this place. From both a cheesy/kitchy level and a food level ... it will blow you away!Overall, I probably wouldn't stay here at the Guest House as a hotel unless I was on a strict budget. However, it is clean and good for families or groups. (warning ... as such, it is not the quietest hotel you'll see) The best part is the pool ... clap your hands and few times, shout, 'This is crazy! This is crazy! This is crazy!' and channel your inner- Clark Griswold and you can recreate one of the most famous scenes in 80s movie history in their awesome pool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r222319323-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>222319323</t>
+  </si>
+  <si>
+    <t>08/17/2014</t>
+  </si>
+  <si>
+    <t>Do not Stay- bad customer service-noisy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I checked in to find out the man next to me was managing groups of workers living on the premises.  People were in and out of his room having conversations right outside my window and one was smoking.  I requested a quieter room but there was none so I asked for a refund so I could leave.  The manager refused and I left anyway.  Do not book here, it seems sketchy and with workers in and out who knows the type of person you are next to.  Bad customer service! </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r220899782-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
@@ -745,12 +1013,6 @@
     <t>June 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>Adeline T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r220184594-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -769,9 +1031,6 @@
     <t>August 2014</t>
   </si>
   <si>
-    <t>Eli89312014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r216335785-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -790,7 +1049,40 @@
     <t>First look from outside looked like a motel or dirty apartment complex color is ugly went to check in the two ladies one heavy set and other rude looking were slow and very impatient and rude and only way to kill all that was being nice and smiling. The lobby was the only nice thing about the appearance of this motel. Got to our room smelled weird, cramped, old tv, &amp; dirty blinds. Swimming pool was alright. Security guard is such a prude! For Christ sakes people are on vacation! He follows people and just a nuisance! Night manager a heavy set lady is a very rude and doesn't do anything at all! Never will come again and don't suggest your family to come here if you don't want to have fun on vacation don't come here! Not worth your money save it for a real hotel! More</t>
   </si>
   <si>
-    <t>RQ-Traveler12</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r213624498-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>213624498</t>
+  </si>
+  <si>
+    <t>07/04/2014</t>
+  </si>
+  <si>
+    <t>One of the Best Motels!</t>
+  </si>
+  <si>
+    <t>Clean and pleasant place. Nice, comfortable rooms. Very good beds and pillows.I wish all my motel stays were this positive!I'd stay here again!(Pool scene from National Lampoon's Vacation was filmed here)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r209901226-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>209901226</t>
+  </si>
+  <si>
+    <t>06/11/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel for group booking</t>
+  </si>
+  <si>
+    <t>I reserve several rooms for my daughter’s wedding guests.  It was very pleasant experience starting with negotiating the contract.  The manager was very friendly and helpful.  The price was right.   As for the rooms and the hotel itself, I found them clean and comfortable enough. The bed was clean. I must also mention the courtyard, which was beautifully set up and the pool area where my guest were able to relax and truly make the most of their visit.  Also, despite some other people's experiences, I found the staff to be incredibly friendly and helpful. My guests were happy with the accommodation and made good remarks. I will definitely recommend people to stay at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>I reserve several rooms for my daughter’s wedding guests.  It was very pleasant experience starting with negotiating the contract.  The manager was very friendly and helpful.  The price was right.   As for the rooms and the hotel itself, I found them clean and comfortable enough. The bed was clean. I must also mention the courtyard, which was beautifully set up and the pool area where my guest were able to relax and truly make the most of their visit.  Also, despite some other people's experiences, I found the staff to be incredibly friendly and helpful. My guests were happy with the accommodation and made good remarks. I will definitely recommend people to stay at this hotel.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r205774845-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
@@ -808,12 +1100,6 @@
     <t>Hard mattress, outside entry, a quarter of a mile walk to the room and a CRAPPY big 1980s TV. The room was SUPER HOT when I got there and took an hour to cool down. The desk clerk was irritating and slow. I would NEVER stay there again!!!</t>
   </si>
   <si>
-    <t>May 2014</t>
-  </si>
-  <si>
-    <t>Calista M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r199089602-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -839,9 +1125,6 @@
   </si>
   <si>
     <t>Beds were comfortable.  The shower fixtures were outdated and I had to stand RIGHT under shower head to reach the water.  Too cold to enjoy the pool, but the courtyard near it was nice.  Breakfast was good.   The microwave we "rented" was old and dirty, and the laundry facilities were hideous and in a part of the hotel that did not feel safe at all!More</t>
-  </si>
-  <si>
-    <t>emilyambro</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r197303763-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
@@ -872,7 +1155,44 @@
 Overall I would say it might be worth it to stay here if you are hard up for a cheap place- but it was not worth...I picked this hotel to stay in for a Disneyland vacation. I chose this hotel even though it was a bit further away because the price was better than most and they offered free wi-fi. The wi-fi was very important for our stay, but it did not work. I called the front desk 3 times during my stay and told them it was not working. They did not offer much help other than "try again". The room itself was ok, nothing special, but not awful. There was a door chain on the floor inside the room next to the door, even though there was a new chain put on the door. That just leads me to believe that it was broken at some point- not sure how to feel about that.There was trash and empty glasses left by the elevator that was there when we got there and then still there 24 hours later.When i checked out, the front desk girl did not ask how my stay was or any questions at all- just asked my room number and then said "Ok thanks".The constuction outside made it a little ugly and difficult to get to- we even missed it and had to do a u-turn even though u-turns were not allowed. Overall I would say it might be worth it to stay here if you are hard up for a cheap place- but it was not worth it to me. Espcecially, as I said, I pretty much booked the room because wi-fi was included and then it ended up not working and no one even cared to ask how the experience was.More</t>
   </si>
   <si>
-    <t>Hootie9337</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r193203654-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>193203654</t>
+  </si>
+  <si>
+    <t>02/05/2014</t>
+  </si>
+  <si>
+    <t>Clean and Restful Stay</t>
+  </si>
+  <si>
+    <t>This modern, up to date hotel is within eye view of the southbound Santa Ana Freeway/Interstate 5 in Norwalk at the Rosecrans exit, which is how it was found.  At the time of this review (February, 2014) the freeway is undergoing widening and reconstruction, including the on and off ramps.  The construction will last into 2016 according to Caltrans.  Patience is needed to get off the long southbound offramp, but you get to the hotel just fine.  
+The green background and white lettered sign makes you think of that big decades old hotel chain, but as far as I know, this place has no connection to it.  Check in was courteous and efficient, and the desk clerks knew the answers to guest's questions, and effortlessly gave them.  There's six buildings, some with two stories, some with three and some with elevators, and some not.  All rooms are easy to find with the first digit of the four digits of the room number indicating the building you will be staying at.  Easy geographical layout of the property to find the rooms.  
+The rooms have electronic keys.  The room was extremely clean, spacious, and with a king size bed which was with a new and firm mattress, with four square pillows to rest your head on.  Everything worked, including the television, heater, air conditioner, fan, plumbing fixtures hot and cold, and there's an ironing board with iron in the room too.  What's...This modern, up to date hotel is within eye view of the southbound Santa Ana Freeway/Interstate 5 in Norwalk at the Rosecrans exit, which is how it was found.  At the time of this review (February, 2014) the freeway is undergoing widening and reconstruction, including the on and off ramps.  The construction will last into 2016 according to Caltrans.  Patience is needed to get off the long southbound offramp, but you get to the hotel just fine.  The green background and white lettered sign makes you think of that big decades old hotel chain, but as far as I know, this place has no connection to it.  Check in was courteous and efficient, and the desk clerks knew the answers to guest's questions, and effortlessly gave them.  There's six buildings, some with two stories, some with three and some with elevators, and some not.  All rooms are easy to find with the first digit of the four digits of the room number indicating the building you will be staying at.  Easy geographical layout of the property to find the rooms.  The rooms have electronic keys.  The room was extremely clean, spacious, and with a king size bed which was with a new and firm mattress, with four square pillows to rest your head on.  Everything worked, including the television, heater, air conditioner, fan, plumbing fixtures hot and cold, and there's an ironing board with iron in the room too.  What's missing that you might want is a microwave ($10 extra per night) and a motel size refrigerator ($10 extra per night).  The rate paid of $75 would be $95 with these commonly expected appliances, so be aware and ask for them if desired.  Despite the Caltrans jackhammers jackhammering away - which is audible from anywhere on the property on the date visited - once inside the room, it's quiet.  You can't hear the jackhammers.  That's good news for travelers considering this hotel.  A pool and Jacuzzi round out the amenities offered in the outdoor patio area, but I didn't have time to use any of them.  If you're looking for restaurants, there's several all through Norwalk and adjacent, but not any within walking distance.  If you know the area, not a problem, but if you are new to Southern California, this might be a concern if this is important to you.  Again, several restaurants are a mile or two miles away give or take in a number of directions, so you aren't without restaurants, just not within walking distance of them.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>This modern, up to date hotel is within eye view of the southbound Santa Ana Freeway/Interstate 5 in Norwalk at the Rosecrans exit, which is how it was found.  At the time of this review (February, 2014) the freeway is undergoing widening and reconstruction, including the on and off ramps.  The construction will last into 2016 according to Caltrans.  Patience is needed to get off the long southbound offramp, but you get to the hotel just fine.  
+The green background and white lettered sign makes you think of that big decades old hotel chain, but as far as I know, this place has no connection to it.  Check in was courteous and efficient, and the desk clerks knew the answers to guest's questions, and effortlessly gave them.  There's six buildings, some with two stories, some with three and some with elevators, and some not.  All rooms are easy to find with the first digit of the four digits of the room number indicating the building you will be staying at.  Easy geographical layout of the property to find the rooms.  
+The rooms have electronic keys.  The room was extremely clean, spacious, and with a king size bed which was with a new and firm mattress, with four square pillows to rest your head on.  Everything worked, including the television, heater, air conditioner, fan, plumbing fixtures hot and cold, and there's an ironing board with iron in the room too.  What's...This modern, up to date hotel is within eye view of the southbound Santa Ana Freeway/Interstate 5 in Norwalk at the Rosecrans exit, which is how it was found.  At the time of this review (February, 2014) the freeway is undergoing widening and reconstruction, including the on and off ramps.  The construction will last into 2016 according to Caltrans.  Patience is needed to get off the long southbound offramp, but you get to the hotel just fine.  The green background and white lettered sign makes you think of that big decades old hotel chain, but as far as I know, this place has no connection to it.  Check in was courteous and efficient, and the desk clerks knew the answers to guest's questions, and effortlessly gave them.  There's six buildings, some with two stories, some with three and some with elevators, and some not.  All rooms are easy to find with the first digit of the four digits of the room number indicating the building you will be staying at.  Easy geographical layout of the property to find the rooms.  The rooms have electronic keys.  The room was extremely clean, spacious, and with a king size bed which was with a new and firm mattress, with four square pillows to rest your head on.  Everything worked, including the television, heater, air conditioner, fan, plumbing fixtures hot and cold, and there's an ironing board with iron in the room too.  What's missing that you might want is a microwave ($10 extra per night) and a motel size refrigerator ($10 extra per night).  The rate paid of $75 would be $95 with these commonly expected appliances, so be aware and ask for them if desired.  Despite the Caltrans jackhammers jackhammering away - which is audible from anywhere on the property on the date visited - once inside the room, it's quiet.  You can't hear the jackhammers.  That's good news for travelers considering this hotel.  A pool and Jacuzzi round out the amenities offered in the outdoor patio area, but I didn't have time to use any of them.  If you're looking for restaurants, there's several all through Norwalk and adjacent, but not any within walking distance.  If you know the area, not a problem, but if you are new to Southern California, this might be a concern if this is important to you.  Again, several restaurants are a mile or two miles away give or take in a number of directions, so you aren't without restaurants, just not within walking distance of them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r188412650-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>188412650</t>
+  </si>
+  <si>
+    <t>12/23/2013</t>
+  </si>
+  <si>
+    <t>More motel than hotel</t>
+  </si>
+  <si>
+    <t>When I walked into the room the smell hit me, it smelled like it was not properly clean and someone had been smoking in the no smoking room. The carpet was stained and looked very old, there were burn marks in the bedding, the shower head was detached from the wall and the bathroom had little bugs...disgusting!!!! I had to go and buy cleaning supplies and fabreez so that I can stay there. I will NEVER stay at guest house hotel again!!!!!!!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r175838998-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
@@ -902,9 +1222,6 @@
     <t>The motel was challenging to get to with construction going on around it. The front desk clerk was nice, but I was put off by seeing an undercover cop driving around the parking lot. There was only one big bath towel, hand towel, and wash cloth which was fine as I was alone, but this would have been an inconvenience had it been more than one traveler. There are not any places to eat nearby after 9 pm and I felt unsafe trying to find a place to eat by car and using Yelp. The walls were thin and I had to endure the sounds of my next door neighbors having sex for close to an hour. In hindsight, I would not have stayed there.More</t>
   </si>
   <si>
-    <t>Arun M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r168491016-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -926,9 +1243,6 @@
     <t>Worst Customer service ever. We reached at this hotel at 2 AM in the morning and guess what their key making machine is broken. Now we are standing there for 30 mins and she does not know what to do.Then she calls the security and he opens the door for us. This guy tries to show he is very tough instead of being nice to people who came at 2 AM. Now the door does not open because lock is broken. After struggling for 5 mins he opens the door. Next day we asked the lady to fix the lock. We called 2 times during the day and lady told us it is fixed. But after long day at disney land when we reached at room the door is still not fixed and we had to wait for 30 mins for security guy to come to open the door. Next day when we complained to the lady while checking out she said we cannot do anything. Instead of giving any kind compensation for the trouble she said you can write a review on yelp or call our manager.Will never recommend this place. Worst customer service ever.More</t>
   </si>
   <si>
-    <t>Arvilamay</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r157872127-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -953,7 +1267,37 @@
     <t>Staff was helpful, knowledge. Great location, highways, stores. Family friendly, pools looked awesome. Great welcoming atmosphere. Wish it was in Colorado, would be my home away from home. Beds comfortable, great cable channels, views!!!More</t>
   </si>
   <si>
-    <t>BosLegal83</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r153083015-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>153083015</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>Adequate</t>
+  </si>
+  <si>
+    <t>-'s Wi-if not working whole 4-day visit. Shower drain blocked. Train line out back but only infrequent trains  ie daily. + - close to freeway entrance. No additional charges for parking, wifi (maybe that's why they didn't bother to get it working despite 4 complaints).</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r152285172-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>152285172</t>
+  </si>
+  <si>
+    <t>02/16/2013</t>
+  </si>
+  <si>
+    <t>Great hotel to stay at</t>
+  </si>
+  <si>
+    <t>My stay at Guesthouse was very relaxing, the rooms are good for a great price.  The staff is friendly and very helpful.  I definitely would recommend others to stay here as well.  I had no problems that really hindered my stay here.  There is two pools and two jacuzzis to relax in when its warm enough.  Though Norwalk is not the greatest location, the hotel does more than an exceptional job at making you feel at home.  There is a bar and a restaurant, and usually they have parties going on in the banquet halls.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r150129558-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
@@ -971,9 +1315,6 @@
     <t xml:space="preserve">I stayed here for one night after arriving on a late flight from LAX. I just needed a place to lay my head down before going to a job in the morning. The rate was affordable for a Saturday night. They guy at the desk was friendly and gave me my requested room. I didn't have a reservation and they were still accommodating. The room was clean. The bed was clean. I stay at hundreds of hotels a year for business and this was a good stay . I will be back if I'm in the area again. </t>
   </si>
   <si>
-    <t>Jaywalke</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r149370000-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -989,12 +1330,6 @@
     <t>My family and I stayed here for a visit to relatives around New Years, we liked the rooms they smelled clean also bed sheets were nice and clean, kudos to house keeping! Be aware they do  offered a microwave and refrigerator but you will be charge $10 a day additional fee. But to be fair they do have it in writing  .. So Read!Also the Wifi signal was VERY VERY slow !! Not happy with about this.... Also besides the coffee maker in the room they do not offer any complementary coffee or breakfast but they do have a restaurant ...</t>
   </si>
   <si>
-    <t>January 2013</t>
-  </si>
-  <si>
-    <t>Jose G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r146521924-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -1010,7 +1345,46 @@
     <t>The rate was reasonable. I booked online and it was only $60 per night. Frontdesk was very friendly, lobby was very nice, room is clean and nice and they have a large swimming pool with jacuzzi. I was excited to find out that they filmed the vacation movie here.</t>
   </si>
   <si>
-    <t>esmith3432</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r144281570-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>144281570</t>
+  </si>
+  <si>
+    <t>11/01/2012</t>
+  </si>
+  <si>
+    <t>Sleep in your car instead Your radiator has more running water.</t>
+  </si>
+  <si>
+    <t>I had to stay in this filthy dump as my work put me there.When I checked in my toilet was clogged had to find a worker with a plunger I un-cloggeg it myself. no lights would work, One ice machine for 5 buildings.. Coach roaches in breakfast room.Shower was so bad I can pee faster and I'm not kidding. Save yourself some money,sleep in your car,it is most likely more comfortable.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r142824362-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>142824362</t>
+  </si>
+  <si>
+    <t>10/14/2012</t>
+  </si>
+  <si>
+    <t>Correct for one night</t>
+  </si>
+  <si>
+    <t>This hotel is correct for one night. Rooms are quiet old but it was clean. The hotel is far from everything but it's a decent place for a short period of time. The ceiling was creaking and could hear for hours people on the 2nd floor walking.MoreShow less</t>
+  </si>
+  <si>
+    <t>Guesthousenorwalk, Manager at GuestHouse Inn &amp; Suites Norwalk, responded to this reviewResponded October 15, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 15, 2012</t>
+  </si>
+  <si>
+    <t>This hotel is correct for one night. Rooms are quiet old but it was clean. The hotel is far from everything but it's a decent place for a short period of time. The ceiling was creaking and could hear for hours people on the 2nd floor walking.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r132573475-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
@@ -1040,9 +1414,6 @@
     <t>I have had the unpleasant chance to stay at this hotel 3 years in a row for business. While it has been refurbished recently they have done little to take care of the hotel. It has a fresh coat of paint, but the walls are dirty and the rooms smell. On occasion my linens appear to be unchanged as well. They need a new maid staff and new management! This property has come a long way since I first stayed here, but at this rate it will be right back very soon.More</t>
   </si>
   <si>
-    <t>Gary H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r130612908-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -1064,9 +1435,6 @@
     <t>I had stayed here before several years back and I remember being a little skeptical at first.  The city itself seems a bit sketchy but the price was decent enough for me to try.  The location was right next to the 5 freeway and my girlfriend and I decided to spend the night since we had been driving all day.  All I can remember is that I had a good nights sleep and was more then ready for the long journey back home.  There wasn't anything particularly special, but at the same time, nothing particularly bad.  However, this past week I decided to stay here for about three nights since I needed to be in the area for business.  I chose this place again because I had been here before without any problems, and the prices were the best compared to most others (the cheaper ones seemed way too inadequate for my taste).  I walked in the lobby and found the entire place had been changed.  It wasn't how I had remembered it years ago.  The lobby was different and seemed a lot more modern than my previous visit.  It seems as if they had done some work over the years.  The room itself didn't seem that much different then I had remembered, but I did see some minor improvements here and there.  Again, I had an excellent nights sleep and was fully refreshed in the morning.  Service was good...I had stayed here before several years back and I remember being a little skeptical at first.  The city itself seems a bit sketchy but the price was decent enough for me to try.  The location was right next to the 5 freeway and my girlfriend and I decided to spend the night since we had been driving all day.  All I can remember is that I had a good nights sleep and was more then ready for the long journey back home.  There wasn't anything particularly special, but at the same time, nothing particularly bad.  However, this past week I decided to stay here for about three nights since I needed to be in the area for business.  I chose this place again because I had been here before without any problems, and the prices were the best compared to most others (the cheaper ones seemed way too inadequate for my taste).  I walked in the lobby and found the entire place had been changed.  It wasn't how I had remembered it years ago.  The lobby was different and seemed a lot more modern than my previous visit.  It seems as if they had done some work over the years.  The room itself didn't seem that much different then I had remembered, but I did see some minor improvements here and there.  Again, I had an excellent nights sleep and was fully refreshed in the morning.  Service was good and the room provided me with everything I needed.  The next two nights were much of the same.  I have been to plenty of hotels in my lifetime and this place might not be a five star hotel, but its a great bargain.  I always do ratings according to what I get for the price.  My recommendation: If you're looking for a five-star hotel, go pay for one.  But, if you're looking for the best deal, I'd highly recommend this place.  From my own experience, this place exceeded expectations for its reasonable price.More</t>
   </si>
   <si>
-    <t>Steven V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r130103816-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -1088,7 +1456,43 @@
     <t>The worst hotel ever. Don't stay here. (F) Rating. Someone try to enter me and my wife's room with another key card without authorization.  Lucky i lock my door with the chain lock, so they couldn't get in.  Me and my wife were scared for our lives, we could've been robbed or killed.  Rape or anything if i didn't lock the door with that chain lock.  Me and my wife lefted this hotel right after the incident. The front desk didn't know what to say.  This is unacceptable for service.  This was my first time staying in this hotel.  This was the second room the hotel gave me because the first room was damaged. Latern frame was damaged, paint in the restroom was peeled off, damaged light panels and damaged pull out damaged.  The room had a new paint smell that made me and my wife feel sick too. I highly recommend no one stay here.  For your family safety, pay a little more extra to have your family safe and a clean room.  Across from our first room, a man and women were interacting have sex with the window open...  It seems like prositution hooker, the lady was dress up and dancing on him and kissing him...  It was just sick.  I wouldn't want a family with kids to see that... This was the view across from our first room and later we switch room and the second room...The worst hotel ever. Don't stay here. (F) Rating. Someone try to enter me and my wife's room with another key card without authorization.  Lucky i lock my door with the chain lock, so they couldn't get in.  Me and my wife were scared for our lives, we could've been robbed or killed.  Rape or anything if i didn't lock the door with that chain lock.  Me and my wife lefted this hotel right after the incident. The front desk didn't know what to say.  This is unacceptable for service.  This was my first time staying in this hotel.  This was the second room the hotel gave me because the first room was damaged. Latern frame was damaged, paint in the restroom was peeled off, damaged light panels and damaged pull out damaged.  The room had a new paint smell that made me and my wife feel sick too. I highly recommend no one stay here.  For your family safety, pay a little more extra to have your family safe and a clean room.  Across from our first room, a man and women were interacting have sex with the window open...  It seems like prositution hooker, the lady was dress up and dancing on him and kissing him...  It was just sick.  I wouldn't want a family with kids to see that... This was the view across from our first room and later we switch room and the second room some try to enter our room late that night.  It was worst experience staying in a hotel room in my life.  Motel 6 is better than this place.  Loud noise at night, people walking and talking... A drug dealing place and prosituition place.  Please don't stay here.  Respectfully Customer Steven.More</t>
   </si>
   <si>
-    <t>Eddy L</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r127697579-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>127697579</t>
+  </si>
+  <si>
+    <t>04/11/2012</t>
+  </si>
+  <si>
+    <t>Decent stay</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel one night late March before continuing on a tour. The room was reasonably big with a neat bathroom. The sheets were clean enough and the bed was also decent, resulting in a good night's sleep. It was ok for one night, but I would consider other options for a longer stay. Not very sure of the location as it is around 20-30 mins ride from LAX, and may not be the best place to stay if you are visiting all the touristic places in LA. Overall good value for the price I paid ($70 per night).MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel one night late March before continuing on a tour. The room was reasonably big with a neat bathroom. The sheets were clean enough and the bed was also decent, resulting in a good night's sleep. It was ok for one night, but I would consider other options for a longer stay. Not very sure of the location as it is around 20-30 mins ride from LAX, and may not be the best place to stay if you are visiting all the touristic places in LA. Overall good value for the price I paid ($70 per night).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r126631598-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>126631598</t>
+  </si>
+  <si>
+    <t>03/25/2012</t>
+  </si>
+  <si>
+    <t>Super Budget, Nice Staff</t>
+  </si>
+  <si>
+    <t>Just stayed here with a group. Its a fine budget hotel for large groups but you have to drive everywhere. Nothing is located here except an i5 entrance. Very nice staff. Lots of group tours and international travelers. Its safe, clean however it looks a little scary. It's so cheap that no, they probably can't give out extra towels and soap and give such a low nightly rate. BUDGET HOTEL folks!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Just stayed here with a group. Its a fine budget hotel for large groups but you have to drive everywhere. Nothing is located here except an i5 entrance. Very nice staff. Lots of group tours and international travelers. Its safe, clean however it looks a little scary. It's so cheap that no, they probably can't give out extra towels and soap and give such a low nightly rate. BUDGET HOTEL folks!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r126205791-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
@@ -1115,9 +1519,6 @@
 Carpet is years...We spent the past weekend here for a business trip. We had 6 rooms total shared with my colleagues. First thing, this is NOT a 3 star establishment.Lobby was locked WITHOUT any signs when we tried to check in late past 1am.Front desk will NOT help you with cleanliness, room switching, OR service.There is a night club/bar on the establishment so there will be LOUD music and inebriated people walking about at night. NOT a family friendly hotel.Housekeeping is ONLY available during the mornings and calling to the front desk to help past certain hours means them responding with Housekeeping isn't available or is closed try again tomorrow.Good luck asking for any towels, toiletries, or any type of service needed beyond the mornings. We asked for extra towels night of check in, DENIED; asked for towels the next morning, denied; asked for toiletries the following night, denied in ALL 6 rooms.We stayed in buildings 2, 4, and 6. Building 4 is supposedly newly remodeled and where I stayed for two nights. The only thing that looked remotely new was the tub but if you check the caulking it doesn’t look new at all. Drains are SLOW if not backed up and water will run cold after the second person. TVs are small and outdated.Dressers are NOT clean. You will want to keep your belongings in your luggage off the floors.Carpet is years old OR hasn’t been cleaned in months. You do not want to take your shoes off at all. Bed spread looks like something from the 80’s and is far from comfortable.Housekeeping will knock on your door EVERY hour, on the hour from 7am TILL check out. They won't give you extra towels.MoreShow less</t>
   </si>
   <si>
-    <t>March 2012</t>
-  </si>
-  <si>
     <t>Guesthousenorwalk, Manager at GuestHouse Inn &amp; Suites Norwalk, responded to this reviewResponded August 20, 2012</t>
   </si>
   <si>
@@ -1136,9 +1537,6 @@
 Carpet is years...We spent the past weekend here for a business trip. We had 6 rooms total shared with my colleagues. First thing, this is NOT a 3 star establishment.Lobby was locked WITHOUT any signs when we tried to check in late past 1am.Front desk will NOT help you with cleanliness, room switching, OR service.There is a night club/bar on the establishment so there will be LOUD music and inebriated people walking about at night. NOT a family friendly hotel.Housekeeping is ONLY available during the mornings and calling to the front desk to help past certain hours means them responding with Housekeeping isn't available or is closed try again tomorrow.Good luck asking for any towels, toiletries, or any type of service needed beyond the mornings. We asked for extra towels night of check in, DENIED; asked for towels the next morning, denied; asked for toiletries the following night, denied in ALL 6 rooms.We stayed in buildings 2, 4, and 6. Building 4 is supposedly newly remodeled and where I stayed for two nights. The only thing that looked remotely new was the tub but if you check the caulking it doesn’t look new at all. Drains are SLOW if not backed up and water will run cold after the second person. TVs are small and outdated.Dressers are NOT clean. You will want to keep your belongings in your luggage off the floors.Carpet is years old OR hasn’t been cleaned in months. You do not want to take your shoes off at all. Bed spread looks like something from the 80’s and is far from comfortable.Housekeeping will knock on your door EVERY hour, on the hour from 7am TILL check out. They won't give you extra towels.More</t>
   </si>
   <si>
-    <t>Icetara</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r125994725-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -1157,9 +1555,6 @@
     <t>I stayed here with my girlfriend for 2 nights and we were terrified. The first clue should have been the bail bond stores next door. We went for a walk and a City of Norwalk Police car pulled beside us and suggested it was not a great neighbourhood for 2 women to walk alone in! The lobby is new but the rooms are ancient and it appears some of the back buildings are used as dormitories. Please stay away! More</t>
   </si>
   <si>
-    <t>Annie U</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r120600783-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -1181,7 +1576,49 @@
     <t>We found the Guesthouse Hotel online and they had a great price and the pictures looked very pretty.  We booked a suite for one week at this location and we were very pleased with our stay.  They have two outdoor heated pools that was great as it was never over crowded.  The staff was very friendly and offered suggestions for places we can eat at even the nearby movie theatre and park.  We were always called by our names which made us feel welcome and safe a home away from home.More</t>
   </si>
   <si>
-    <t>CATHY J</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r120443421-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>120443421</t>
+  </si>
+  <si>
+    <t>11/10/2011</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>Stayed here for one night, it was ok, but would not stay more than 1 night. Interior room was clean, saw 1 small dead spider, no big deal. No bedbugs- that's a plus! TV was 'snowy', remote barely worked. Bed was uncomfortable. Very large complex- I believe not all is open to public, only a couple of buildings. Outside needs some TLC- wood rotting away &amp; peeling paint. No microwave or fridge in room. Went for breakfast the next morning- what was out was good, but it wasn't all ready &amp; I had an early appointment. All in all a decent stay- about on par w/ Motel 6. No restaurants within walking distance, but the hotel has one- not sure of hours.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>Guesthousenorwalk, Manager at GuestHouse Inn &amp; Suites Norwalk, responded to this reviewResponded August 21, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2012</t>
+  </si>
+  <si>
+    <t>Stayed here for one night, it was ok, but would not stay more than 1 night. Interior room was clean, saw 1 small dead spider, no big deal. No bedbugs- that's a plus! TV was 'snowy', remote barely worked. Bed was uncomfortable. Very large complex- I believe not all is open to public, only a couple of buildings. Outside needs some TLC- wood rotting away &amp; peeling paint. No microwave or fridge in room. Went for breakfast the next morning- what was out was good, but it wasn't all ready &amp; I had an early appointment. All in all a decent stay- about on par w/ Motel 6. No restaurants within walking distance, but the hotel has one- not sure of hours.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r120406569-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>120406569</t>
+  </si>
+  <si>
+    <t>11/09/2011</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>My friends and i headed out to the club in the same area. great music, wonderful crowd, and very convenient for us to stay. didnt want to drink and drive. I had seen the reviews online, its all bs. this is a great hotel. rooms were suprisingly clean. the room was gorgous. The customer service was great, i was helped by Ricky.he was very friendly and our lady friends thought he was handsome. He gave us a great rate and mentioned breakfast in the morning. all u can eat breakfast buffet for seven bucks. $7!!! thats a steal. we will definetely stay here again when i hit up the bar.I recomend this hotel for everyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>My friends and i headed out to the club in the same area. great music, wonderful crowd, and very convenient for us to stay. didnt want to drink and drive. I had seen the reviews online, its all bs. this is a great hotel. rooms were suprisingly clean. the room was gorgous. The customer service was great, i was helped by Ricky.he was very friendly and our lady friends thought he was handsome. He gave us a great rate and mentioned breakfast in the morning. all u can eat breakfast buffet for seven bucks. $7!!! thats a steal. we will definetely stay here again when i hit up the bar.I recomend this hotel for everyone.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r120255185-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
@@ -1199,21 +1636,9 @@
     <t>When we first read all the complains, we were not that sure to stay. But at checking time the girl at the front desk Melissa, let us check in earlier than regular time. She was very helpful and gave us perfect directions to shopping centers close to the hotel. The rooms were very cleaned and big. Ah also a great breakfast for the kids in the morning is buffet style only for $7.00.. We had freshly warm french toast and fresh coffee. I will definitely recommend Guesthouse Hotel to my family and friends. We'll go back on our next vacations.MoreShow less</t>
   </si>
   <si>
-    <t>October 2011</t>
-  </si>
-  <si>
-    <t>Guesthousenorwalk, Manager at GuestHouse Inn &amp; Suites Norwalk, responded to this reviewResponded August 21, 2012</t>
-  </si>
-  <si>
-    <t>Responded August 21, 2012</t>
-  </si>
-  <si>
     <t>When we first read all the complains, we were not that sure to stay. But at checking time the girl at the front desk Melissa, let us check in earlier than regular time. She was very helpful and gave us perfect directions to shopping centers close to the hotel. The rooms were very cleaned and big. Ah also a great breakfast for the kids in the morning is buffet style only for $7.00.. We had freshly warm french toast and fresh coffee. I will definitely recommend Guesthouse Hotel to my family and friends. We'll go back on our next vacations.More</t>
   </si>
   <si>
-    <t>Rama Joyce T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r119899719-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -1232,9 +1657,6 @@
     <t>September 2011</t>
   </si>
   <si>
-    <t>Caliqqqq</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r117716763-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -1253,7 +1675,43 @@
     <t>I was worried when I first read the reviews, most of them being negative.  Honestly after we checked in, we were actually quite surprised.  I must say, having lived in So. California all my life &amp; frequenting most of the cheaper motels/hotels, and also the higher quality 5 start hotels, I cant really say this was entirely bad. It wasn't.  If you have higher expectations of lodging, than its going to have to be the higher priced chains, because quite honestly reasonably priced in this area and allover LA county, you get what you pay for, in some cases worse.  With that said, this was not bad, but we weren't expecting it to be more than what we wanted for a one night stay.    The motel itself was huge...It was clean, it was alot bigger in size for that price compared to motel 6 amongst the others.  Yes I agree w/some the outside cosmetic features, as well as on the inside could use more updating/more of a facelift, but I did like the old hotel antique look about it, big burgundy &amp; mustard colar thick curtains and the cherry wood (looking) furniture made me feel the I was back in the 1970s, I love that cheezyness, it was classy.  Ok some flaws were shown, on the bathroom vanity &amp; bathroom were some scratches &amp; markings that couldn't be hidden, its normal when you have a lot of people staying there...I was worried when I first read the reviews, most of them being negative.  Honestly after we checked in, we were actually quite surprised.  I must say, having lived in So. California all my life &amp; frequenting most of the cheaper motels/hotels, and also the higher quality 5 start hotels, I cant really say this was entirely bad. It wasn't.  If you have higher expectations of lodging, than its going to have to be the higher priced chains, because quite honestly reasonably priced in this area and allover LA county, you get what you pay for, in some cases worse.  With that said, this was not bad, but we weren't expecting it to be more than what we wanted for a one night stay.    The motel itself was huge...It was clean, it was alot bigger in size for that price compared to motel 6 amongst the others.  Yes I agree w/some the outside cosmetic features, as well as on the inside could use more updating/more of a facelift, but I did like the old hotel antique look about it, big burgundy &amp; mustard colar thick curtains and the cherry wood (looking) furniture made me feel the I was back in the 1970s, I love that cheezyness, it was classy.  Ok some flaws were shown, on the bathroom vanity &amp; bathroom were some scratches &amp; markings that couldn't be hidden, its normal when you have a lot of people staying there throughout the years. Aside from that we were really ok w/it.  And we were placed by the pool area, not my first choice, but when we saw that it was mostly diverse families &amp; not the typical young party crowd/rebel rousers, we were really pleased, &amp; it wasn't that noisey, the families outside got quiet after a certain time.  They even have a resturant and a bar/lounge area that was actually another pleasant surprise and it was a dj/band catered to people our age 40's +, playing old school 80s stuff as well as oldies &amp; contemporary/rock music, I loved it. Prices weren't bad either.  The restaurant had alot people in it, so it couldn't have been that bad, we just didn't get a chance to try it.  Overall our experience was good, better than what we expected, for the price we paid.  Like I said anyone w/higher expectations (&amp; rightfully so) need not go there, but you will have to go to a higher priced motel/hotel and pay for what you expect, its the area and the masses of people it caters to.My only complaints would be the toilets were clogged, thank god for my husband being a jack of all trades &amp; resolving it (this w/out a plunger) and more towels.  Yes the bed was stiff as a board, and the pillows were quite tiny, but they did the job, they felt comfortalble, just half the size of standard twin size &amp; we slept like babies on the bed, even though it was hard.  The coffee pots are only one cup coffee (two per room) but I would think if they had the bigger ones, people in the past stay have ruined it by stealing them or breaking them.  Cable &amp; Internet was fine, had no problems.  It comes also w/the blow dryer, the mini fridge, iron/ironing board &amp; the usual stuff. so all in all I would say we were statisfied for what we paid for, had a peaceful night (being outside the pool area?? thats a plus) and would reccommend it to people that just want a decent place to sleep in for a night, maybe two, I wouldn't go past two though.  Staff was friendly &amp; helpful too.   And if your expecting more (more than Motel 6) than you really should consider the higher priced lodging accomodations.More</t>
   </si>
   <si>
-    <t>Bigasabear</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r117674815-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>117674815</t>
+  </si>
+  <si>
+    <t>09/04/2011</t>
+  </si>
+  <si>
+    <t>Definitely not three stars!</t>
+  </si>
+  <si>
+    <t>We made our reservations at the last minute and wonderful Expedia said it was three stars. Just few minutes after being in our room, we got a knock on the door from a guy who had a plunger dripping of dirty water asking if we had placed a call for a clogged toilet. Turns out it was the room next to ours. Shortly after that a maid just walked in without knocking and after realizing the room was occupied, she practically ran out of the room. One our 3rd day, we practically had to hunt down the cleaning lady to clean our room since it wasn't cleaned in two days. After it was cleaned, we had to complain to the manager, as there was no toilet paper or any towels in the bathroom. Before we were given new towels, another person came into our room to inspect if we didn't "hide" the towels. My over all experience was below satisfactory. It is ok for one night layover but anything more.....be warned!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>We made our reservations at the last minute and wonderful Expedia said it was three stars. Just few minutes after being in our room, we got a knock on the door from a guy who had a plunger dripping of dirty water asking if we had placed a call for a clogged toilet. Turns out it was the room next to ours. Shortly after that a maid just walked in without knocking and after realizing the room was occupied, she practically ran out of the room. One our 3rd day, we practically had to hunt down the cleaning lady to clean our room since it wasn't cleaned in two days. After it was cleaned, we had to complain to the manager, as there was no toilet paper or any towels in the bathroom. Before we were given new towels, another person came into our room to inspect if we didn't "hide" the towels. My over all experience was below satisfactory. It is ok for one night layover but anything more.....be warned!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r116822240-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>116822240</t>
+  </si>
+  <si>
+    <t>08/16/2011</t>
+  </si>
+  <si>
+    <t>It was very pleasant stay for us..</t>
+  </si>
+  <si>
+    <t>Very accommodating hotel for a reasonable price. They have a mini cocktail bar with big screen TV. The managers, and pretty much all entire staff was very pleasant and accommodating. They have 4 star lobby with 3 star room, their room were very cleaned and freshly appointed. They have fresh breakfast in the morning like buffet style, very good amenities all around.  We will return again :)MoreShow less</t>
+  </si>
+  <si>
+    <t>Very accommodating hotel for a reasonable price. They have a mini cocktail bar with big screen TV. The managers, and pretty much all entire staff was very pleasant and accommodating. They have 4 star lobby with 3 star room, their room were very cleaned and freshly appointed. They have fresh breakfast in the morning like buffet style, very good amenities all around.  We will return again :)More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r115827649-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
@@ -1277,9 +1735,6 @@
     <t>3 Stars is a joke! Centrally located if you need a bail bond or a pawn shop. We checked in and immediatly called Expedia to question the rating and were told that it was not a merit rating but was a self-assigned rating. The rooms are out of date and the beds are horrible. Expedia did try 4 times to get us released from the last 3 days of our stay but to no avail, they even HUNG UP on Expedia. The Expedia rep told us that it was his worst experience in dealing with a hotel and he even went to bat and got us a 200.00 credit from EXPEDIA not the hotel and found us a new hotel (2 stars but night and day nicer!) Please be forewarned about this facility. On the positive the grounds are quite nice.More</t>
   </si>
   <si>
-    <t>lockerua</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r114696211-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -1304,9 +1759,6 @@
     <t>Worst experience in all. The front desk could not find the reservation. Got non-cleaned room at 6PM. Wedding party was going until 12AM. They tried to charge us twice: Charged for the stay at the checkin and then tried to do again upon checkout. I had to search through the packed bags to find a copy of the receipt. Room cleaning always forgot to restock something.. eg. creamers or cups.More</t>
   </si>
   <si>
-    <t>yumabrad</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r110623748-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -1325,7 +1777,52 @@
     <t>Ok i read all the complants before going to this motel , and was quite scared, but the rooms were clean and very large, asked for a refer and got one, bathroom clean, motel was not like the reviews said,,staff was fine , went with a lot of kids , scoccer group and they had a blast.. NO BED  BUGS,,STAFF WAS NICE... for 65 dollars it was better than motel 6 , or days inn etc, you get the idea,,, oh yea i never make a comment but had too on this one,,, have a nice day...More</t>
   </si>
   <si>
-    <t>Materio</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r109607786-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>109607786</t>
+  </si>
+  <si>
+    <t>05/24/2011</t>
+  </si>
+  <si>
+    <t>Horrible experience</t>
+  </si>
+  <si>
+    <t>This hotel does not deserve a rating. The customer service was terrible when we first checked in the girl at the front desk was taking personal phone calls at the same time talking to us which was very un-professional. Not to mention her very wrickled and dirty uniform shirt. Room smelled like smoke. We also found a few cockaroaches then we saw a large cockaroach (about 2 inches in size) to which we called the front desk and complained and the girl acted as if we were lying to her so we brought the roach to her in a cup so she could see for herself. She moved us to another room, a suite which also smelled like smoke and the blankets also reeked of smoke and also throughout the room. Only to find the shower was plugged, so we had to take a shower in standing water up to our ankles. I am really surprised this place has not been reported to the health department considering it has roaches.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>Guesthousenorwalk, Manager at GuestHouse Inn &amp; Suites Norwalk, responded to this reviewResponded June 28, 2011</t>
+  </si>
+  <si>
+    <t>This hotel does not deserve a rating. The customer service was terrible when we first checked in the girl at the front desk was taking personal phone calls at the same time talking to us which was very un-professional. Not to mention her very wrickled and dirty uniform shirt. Room smelled like smoke. We also found a few cockaroaches then we saw a large cockaroach (about 2 inches in size) to which we called the front desk and complained and the girl acted as if we were lying to her so we brought the roach to her in a cup so she could see for herself. She moved us to another room, a suite which also smelled like smoke and the blankets also reeked of smoke and also throughout the room. Only to find the shower was plugged, so we had to take a shower in standing water up to our ankles. I am really surprised this place has not been reported to the health department considering it has roaches.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r107844089-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>107844089</t>
+  </si>
+  <si>
+    <t>05/11/2011</t>
+  </si>
+  <si>
+    <t>Awful Customer Service</t>
+  </si>
+  <si>
+    <t>Awful awful customer service. the hotel is highly understaffed and you have to wait around forever to get some help. They don't seem to care if customers walk out on them or if they are unhappy. Christine who runs the place is extremely rude. She doesn't know how to treat guests and often ignores them. I wouldn't recommend this place to anyone, you are better off going to a motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Guesthousenorwalk, General Manager at GuestHouse Inn &amp; Suites Norwalk, responded to this reviewResponded May 27, 2011</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2011</t>
+  </si>
+  <si>
+    <t>Awful awful customer service. the hotel is highly understaffed and you have to wait around forever to get some help. They don't seem to care if customers walk out on them or if they are unhappy. Christine who runs the place is extremely rude. She doesn't know how to treat guests and often ignores them. I wouldn't recommend this place to anyone, you are better off going to a motel.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r83495987-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
@@ -1352,9 +1849,6 @@
     <t>The hotel is located near the highway on the way to LA. The room was OK with a good bed. We went to the buffet that was very limited and of poor quality for 16$ per person. The personal was not very friendly, maybe because there was a wedding in the room next to the restaurant where a fight started. In conclusion it was ok for one night but I wouldn't stay there several days.More</t>
   </si>
   <si>
-    <t>DeweyA</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r77193971-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -1376,9 +1870,6 @@
     <t>I wouldnt tell anyone to stay away, but there are better places for the same price within reasonable distance, not unclean at all, I have seen no roaches, friendly staff, just not a super nice or new facility, and the price doesn't reflect that.More</t>
   </si>
   <si>
-    <t>DossFamBam</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r72671719-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -1400,7 +1891,46 @@
     <t>We stayed at Disneyland later then expected and my husband and i were just too tired to drive home especially with two little ones so last minute we decided to stay at the Guess house and just leave early morning. The fact that the room was old and not up to date didn't really bother us. Our shower was covered in hair and our comforter had holes and a funny odor. From having personal experience working in hotels i have learn that most hotels DO NOT wash their comforters to keep from looking old so the first thing i did was remove the comforters off the beds. It was a late night so my family and i decided to call it a night and go to bed early. my husband and I woke up and could not stop itching (from the BEDBUGS) so we decided to go ahead and force ourselves to take a shower in the hairy tub besides we didn't want to ride all the way home itchy. when we walked in the bathroom there was a bigger problem there were three roaches, my daughter screamed. Two ran in the crack of the wall and one HUGE one just sat there and stared at me as if i was an intruder. We immediately took all our things outside to shake them off my son had one in his shoe and that was the final straw i called the...We stayed at Disneyland later then expected and my husband and i were just too tired to drive home especially with two little ones so last minute we decided to stay at the Guess house and just leave early morning. The fact that the room was old and not up to date didn't really bother us. Our shower was covered in hair and our comforter had holes and a funny odor. From having personal experience working in hotels i have learn that most hotels DO NOT wash their comforters to keep from looking old so the first thing i did was remove the comforters off the beds. It was a late night so my family and i decided to call it a night and go to bed early. my husband and I woke up and could not stop itching (from the BEDBUGS) so we decided to go ahead and force ourselves to take a shower in the hairy tub besides we didn't want to ride all the way home itchy. when we walked in the bathroom there was a bigger problem there were three roaches, my daughter screamed. Two ran in the crack of the wall and one HUGE one just sat there and stared at me as if i was an intruder. We immediately took all our things outside to shake them off my son had one in his shoe and that was the final straw i called the front desk and the lady said she would send someone right away. A lady came from house keeping and we showed her the HUGE one that was still roaming around as if he owned the room and the lady looked at the roach as if it was normal and she just stepped on it CRUNCH!!!! (it was disgusting).. the roach still popped backed up and took off running so she got some tissue and just picked it up the freakin 3 1/2 inch roach (NO JOKE) like nothing and flushed it down the toilet then she smiled at us and said sorry.We get up the front desk to get reimbursed and the lady said all she can do is give us $20 dollars off of our $79+tax room and i was not going to settle for that so she calls the manager to talk to me and HE was totally RUDE and didn't want to accommodate us at all. I explained to him how i had small children in the room and there was a roach in my sons shoe and his response was well that's all i can do if you have a problem call the Better Business Bureau then he demanded to talk back to the front desk how rude is that. I don't understand how he is a manger of a hotel when he doesn't know a thing about customer service. you couldn't pay me to stay another night in that roach infested hotel.More</t>
   </si>
   <si>
-    <t>patty47</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r68447919-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>68447919</t>
+  </si>
+  <si>
+    <t>06/23/2010</t>
+  </si>
+  <si>
+    <t>The 3 R's...ROACHES,RUDE,RIP OFF</t>
+  </si>
+  <si>
+    <t>I stayed ther with my family in the middle of the night i went to the bathroom and roaches ran across the bathroom floor.....i went to the front desk at 4 am in the morning no manager till next morning   transfeered to building 4 after packing up all are stuff told they were aware of a roach problem but thought it was cleared up...guess not!!Went to front desk next morning to get my money back for the roaches and inconvience MAR LOU was rude never apologized and hassle to get money back this is not associated with the chain has private owner called him to complain about roaches and the lack of customer service never received a call back...looks like this whole hotel(motel) needs A NEW FACE LIFT AND ATTITUDE CHANGE!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>I stayed ther with my family in the middle of the night i went to the bathroom and roaches ran across the bathroom floor.....i went to the front desk at 4 am in the morning no manager till next morning   transfeered to building 4 after packing up all are stuff told they were aware of a roach problem but thought it was cleared up...guess not!!Went to front desk next morning to get my money back for the roaches and inconvience MAR LOU was rude never apologized and hassle to get money back this is not associated with the chain has private owner called him to complain about roaches and the lack of customer service never received a call back...looks like this whole hotel(motel) needs A NEW FACE LIFT AND ATTITUDE CHANGE!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r61142021-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>61142021</t>
+  </si>
+  <si>
+    <t>04/12/2010</t>
+  </si>
+  <si>
+    <t>Almost Perfect Place</t>
+  </si>
+  <si>
+    <t>We have stayed at this Guesthouse Hotel several times over the past two years with very positive experices. However, in the past Three times the front desk manager: Marilu has been very rude and accomodating to us.  Just today we checked in and we asked if our room had a fridge because NOT all the rooms have them and her answer was: "If you are asking for anything extra it will be $10 more per night" with a blunt look and unfriendly look on her face. Like I said this is the third rude encounter with this same woman who has NO Customer Service skills. I tried complaining to the hotel general manager directly and no one could tell me a name so I am writing on the "Public Page" and see if I get any response.  I hope I get a resolution to this unecessary on-going problem. Some nights were a bit noisy due to inconsiderate neighbors. But overall I like this hotel a lot.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>We have stayed at this Guesthouse Hotel several times over the past two years with very positive experices. However, in the past Three times the front desk manager: Marilu has been very rude and accomodating to us.  Just today we checked in and we asked if our room had a fridge because NOT all the rooms have them and her answer was: "If you are asking for anything extra it will be $10 more per night" with a blunt look and unfriendly look on her face. Like I said this is the third rude encounter with this same woman who has NO Customer Service skills. I tried complaining to the hotel general manager directly and no one could tell me a name so I am writing on the "Public Page" and see if I get any response.  I hope I get a resolution to this unecessary on-going problem. Some nights were a bit noisy due to inconsiderate neighbors. But overall I like this hotel a lot.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r60834395-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
@@ -1418,15 +1948,9 @@
     <t>The motel rooms are poorly lit, and sparser than any Motel 6.  I was told when I called to check that the motel had a fitness center. Too bad they didn't tell me it was closed for construction.I woke up covered in bug bites. I went to go take a shower and two large cockroaches jumped out at me.  I immediately removed everything from the room. I went to check out and was told by a clerk who could barely get off her personal phone call that the manager wasn't there yet. I asked if I could get a refund and she said she couldn't do that. I left my phone number but heard nothing back from the motel. Disgusting facility, right next to the railroad tracks and freeway so it was very noisy, and disgusting rooms.MoreShow less</t>
   </si>
   <si>
-    <t>April 2010</t>
-  </si>
-  <si>
     <t>The motel rooms are poorly lit, and sparser than any Motel 6.  I was told when I called to check that the motel had a fitness center. Too bad they didn't tell me it was closed for construction.I woke up covered in bug bites. I went to go take a shower and two large cockroaches jumped out at me.  I immediately removed everything from the room. I went to check out and was told by a clerk who could barely get off her personal phone call that the manager wasn't there yet. I asked if I could get a refund and she said she couldn't do that. I left my phone number but heard nothing back from the motel. Disgusting facility, right next to the railroad tracks and freeway so it was very noisy, and disgusting rooms.More</t>
   </si>
   <si>
-    <t>passio71</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r35058397-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -1448,9 +1972,6 @@
     <t>If you think you get a good deal for a 3 star hotel at such price (I got $53/night), be aware of the gap between your expectation and the reality. The lobby looked good, but the room was even worse than some of the motel 6/super 8 I've ever stayed in.  The room looked clean over all, but ever since I touched the blanket, I felt itchy. The bathroom was one of the worst I've ever used. The shower was dirty, and the shower nozzle is super low. I am 5'11 and I had to bend my legs and squat so I could rinse my hair. In-room wireless Internet never worked. There were tons of AP on the network list but none worked. Soon I found that I don't care all of above, because I just want to fall asleep ASAP so I could wake up and check out the next morning ASAP.If you're a tight budget traveler, this hotel might be one of your option. But I believe you could find a better, at least cleaner, one at the same price.More</t>
   </si>
   <si>
-    <t>charles7</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r24334464-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -1478,7 +1999,34 @@
     <t>3 Stars??? Give me a break. Based on a few reviews, I made a reservation for this hotel. I got a good deal: 50 USD. Norwalk is an ugly and scary town in the middle of L.A. If you don´t HAVE to come here, please don´t do so. This not a hotel, it´s a MOTEL. If you have ever stayed in a Motel 6, well is almost the same thing. The room was fairly clean, but totally basic and dated. I just recommend this hotel for one night (if you want a cheap room, in an ugly town, in a cheap motel).More</t>
   </si>
   <si>
-    <t>monson11</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r64674692-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>64674692</t>
+  </si>
+  <si>
+    <t>01/22/2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r20696665-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>20696665</t>
+  </si>
+  <si>
+    <t>10/07/2008</t>
+  </si>
+  <si>
+    <t>Fair price, good service!</t>
+  </si>
+  <si>
+    <t>This hotel is a good choice for most travelers, they offer quite a lot for the price! They have two pools, various accommodations, elevators, and on site restaurant and bar, as well as a gift shop! The room service is very good, and food prices reasonable. The basic rooms at this hotel are above average in most areas, but drops a little in the aging of the property. There are a few very minor fix ups needed in the rooms and around the property, but certainly nothing that will affect your overall stay. The SUITES are spacious and adequate (see my photos of the SUITE), and include a separate living room with a pull out bed in the couch. You will need to bring your own dishes and post/pans though to use in the kitchen, as it is not stocked with any kitchen needs, at all, except for a coffee maker, refrigerator, microwave, and 2 burner stove. I personally look forward to staying at this hotel when I am in town, and feel most travelers would to. Take note though, that because of it's close proximity to major Southern California attractions and freeways, it is a very, very busy place despite it's large size (6 buildings plus the restaurant and conference areas/rooms) it is not uncommon for this establishment to be booked up, or near booked up, so DO plan ahead, and make reservations! :)MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>This hotel is a good choice for most travelers, they offer quite a lot for the price! They have two pools, various accommodations, elevators, and on site restaurant and bar, as well as a gift shop! The room service is very good, and food prices reasonable. The basic rooms at this hotel are above average in most areas, but drops a little in the aging of the property. There are a few very minor fix ups needed in the rooms and around the property, but certainly nothing that will affect your overall stay. The SUITES are spacious and adequate (see my photos of the SUITE), and include a separate living room with a pull out bed in the couch. You will need to bring your own dishes and post/pans though to use in the kitchen, as it is not stocked with any kitchen needs, at all, except for a coffee maker, refrigerator, microwave, and 2 burner stove. I personally look forward to staying at this hotel when I am in town, and feel most travelers would to. Take note though, that because of it's close proximity to major Southern California attractions and freeways, it is a very, very busy place despite it's large size (6 buildings plus the restaurant and conference areas/rooms) it is not uncommon for this establishment to be booked up, or near booked up, so DO plan ahead, and make reservations! :)More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r20682297-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
@@ -1499,9 +2047,6 @@
     <t>September 2008</t>
   </si>
   <si>
-    <t>AsianKay</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r20121729-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -1526,9 +2071,6 @@
     <t>It looked like a clean hotel, but I woke up with bed bugs. I tried to call the front desk, but my phone wouldn't work. I immediately left and asked the manager to call me. I haven't heard from them, and their staff seemed unresponsive. I am horrified and I still get chills thinking about it. I took pictures of my bed to show the manager, but it didn't seem like they cared.More</t>
   </si>
   <si>
-    <t>Funinthesun411</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r17938494-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -1545,6 +2087,21 @@
   </si>
   <si>
     <t>July 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d281283-r17771115-GuestHouse_Inn_Suites_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>17771115</t>
+  </si>
+  <si>
+    <t>07/10/2008</t>
+  </si>
+  <si>
+    <t>Hidden Secret</t>
+  </si>
+  <si>
+    <t>We stumbled on this hotel driving off the 5 fwy.  The Lobby was 4 stars in our book and the Lounge and bar was even better!  This hotel was like an oasis in this city!  great product and the staff was pleasant.</t>
   </si>
 </sst>
 </file>
@@ -2049,59 +2606,55 @@
       <c r="A2" t="n">
         <v>7584</v>
       </c>
-      <c r="B2" t="n">
-        <v>181597</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>4</v>
-      </c>
-      <c r="S2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -2109,369 +2662,353 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>7584</v>
       </c>
-      <c r="B3" t="n">
-        <v>181598</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
       <c r="O3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>7584</v>
       </c>
-      <c r="B4" t="n">
-        <v>181599</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
         <v>67</v>
       </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" t="s">
-        <v>71</v>
-      </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>7584</v>
       </c>
-      <c r="B5" t="n">
-        <v>181600</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
         <v>74</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>79</v>
-      </c>
-      <c r="O5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P5" t="s"/>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>7584</v>
       </c>
-      <c r="B6" t="n">
-        <v>6793</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>7584</v>
       </c>
-      <c r="B7" t="n">
-        <v>18703</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>4</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>3</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7584</v>
       </c>
-      <c r="B8" t="n">
-        <v>181601</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
         <v>95</v>
-      </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
-        <v>96</v>
-      </c>
-      <c r="J8" t="s">
-        <v>97</v>
-      </c>
-      <c r="K8" t="s">
-        <v>98</v>
-      </c>
-      <c r="L8" t="s">
-        <v>99</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>100</v>
-      </c>
-      <c r="O8" t="s">
-        <v>101</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2485,115 +3022,113 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>7584</v>
       </c>
-      <c r="B9" t="n">
-        <v>181602</v>
-      </c>
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
       <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>7584</v>
       </c>
-      <c r="B10" t="n">
-        <v>15771</v>
-      </c>
-      <c r="C10" t="s">
-        <v>109</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2607,54 +3142,50 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>7584</v>
       </c>
-      <c r="B11" t="n">
-        <v>181603</v>
-      </c>
-      <c r="C11" t="s">
-        <v>116</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2668,116 +3199,108 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>7584</v>
       </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>122</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K12" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>7584</v>
       </c>
-      <c r="B13" t="n">
-        <v>181604</v>
-      </c>
-      <c r="C13" t="s">
-        <v>129</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
-      </c>
-      <c r="N13" t="s">
-        <v>135</v>
-      </c>
-      <c r="O13" t="s">
-        <v>54</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
@@ -2790,54 +3313,50 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>7584</v>
       </c>
-      <c r="B14" t="n">
-        <v>181605</v>
-      </c>
-      <c r="C14" t="s">
-        <v>136</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="J14" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="K14" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="O14" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2851,262 +3370,228 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>7584</v>
       </c>
-      <c r="B15" t="n">
-        <v>66075</v>
-      </c>
-      <c r="C15" t="s">
-        <v>144</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="O15" t="s">
-        <v>54</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>2</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>1</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>7584</v>
       </c>
-      <c r="B16" t="n">
-        <v>181606</v>
-      </c>
-      <c r="C16" t="s">
-        <v>152</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="J16" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="K16" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="L16" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="O16" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>3</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>7584</v>
       </c>
-      <c r="B17" t="n">
-        <v>80127</v>
-      </c>
-      <c r="C17" t="s">
-        <v>159</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="J17" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="K17" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="L17" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>2</v>
-      </c>
+      <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>3</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>166</v>
-      </c>
-      <c r="X17" t="s">
-        <v>167</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>7584</v>
       </c>
-      <c r="B18" t="n">
-        <v>181607</v>
-      </c>
-      <c r="C18" t="s">
-        <v>169</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="J18" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="K18" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="L18" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="O18" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
@@ -3116,61 +3601,53 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>176</v>
-      </c>
-      <c r="X18" t="s">
-        <v>177</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>7584</v>
       </c>
-      <c r="B19" t="n">
-        <v>181608</v>
-      </c>
-      <c r="C19" t="s">
-        <v>179</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="J19" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="K19" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="L19" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="O19" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3184,54 +3661,50 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>7584</v>
       </c>
-      <c r="B20" t="n">
-        <v>181609</v>
-      </c>
-      <c r="C20" t="s">
-        <v>186</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="J20" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="K20" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="L20" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="O20" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3245,54 +3718,50 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>7584</v>
       </c>
-      <c r="B21" t="n">
-        <v>55691</v>
-      </c>
-      <c r="C21" t="s">
-        <v>194</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="J21" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="K21" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="L21" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="O21" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3306,54 +3775,50 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>7584</v>
       </c>
-      <c r="B22" t="n">
-        <v>181610</v>
-      </c>
-      <c r="C22" t="s">
-        <v>202</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="J22" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="K22" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="L22" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="O22" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3367,125 +3832,123 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>7584</v>
       </c>
-      <c r="B23" t="n">
-        <v>181611</v>
-      </c>
-      <c r="C23" t="s">
-        <v>209</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="J23" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="K23" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="L23" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="O23" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>7584</v>
       </c>
-      <c r="B24" t="n">
-        <v>181612</v>
-      </c>
-      <c r="C24" t="s">
-        <v>216</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="J24" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="K24" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="L24" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="O24" t="s">
-        <v>62</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3493,191 +3956,179 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>7584</v>
       </c>
-      <c r="B25" t="n">
-        <v>181613</v>
-      </c>
-      <c r="C25" t="s">
-        <v>224</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="J25" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="K25" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="L25" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="O25" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
-      <c r="S25" t="n">
-        <v>2</v>
-      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>4</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>7584</v>
       </c>
-      <c r="B26" t="n">
-        <v>181614</v>
-      </c>
-      <c r="C26" t="s">
-        <v>232</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="J26" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="K26" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="L26" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="O26" t="s">
-        <v>239</v>
-      </c>
-      <c r="P26" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>7584</v>
       </c>
-      <c r="B27" t="n">
-        <v>3202</v>
-      </c>
-      <c r="C27" t="s">
-        <v>240</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="J27" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="K27" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="L27" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="O27" t="s">
-        <v>239</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
-      <c r="S27" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
         <v>3</v>
@@ -3688,66 +4139,60 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>7584</v>
       </c>
-      <c r="B28" t="n">
-        <v>181615</v>
-      </c>
-      <c r="C28" t="s">
-        <v>247</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="J28" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="K28" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="L28" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
-      </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
-      <c r="P28" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>201</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="n">
-        <v>2</v>
-      </c>
-      <c r="R28" t="n">
-        <v>3</v>
-      </c>
-      <c r="S28" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3755,545 +4200,479 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>7584</v>
       </c>
-      <c r="B29" t="n">
-        <v>91149</v>
-      </c>
-      <c r="C29" t="s">
-        <v>254</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="J29" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="K29" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="L29" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="O29" t="s">
-        <v>239</v>
-      </c>
-      <c r="P29" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
-      <c r="S29" t="s"/>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>220</v>
+      </c>
+      <c r="X29" t="s">
+        <v>221</v>
+      </c>
       <c r="Y29" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>7584</v>
       </c>
-      <c r="B30" t="n">
-        <v>181616</v>
-      </c>
-      <c r="C30" t="s">
-        <v>261</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="J30" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="K30" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="L30" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="O30" t="s">
-        <v>239</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>3</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
       <c r="R30" t="n">
-        <v>3</v>
-      </c>
-      <c r="S30" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="X30" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="Y30" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>7584</v>
       </c>
-      <c r="B31" t="n">
-        <v>181617</v>
-      </c>
-      <c r="C31" t="s">
-        <v>271</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="J31" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="K31" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="L31" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="O31" t="s">
-        <v>239</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
       <c r="R31" t="n">
-        <v>3</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>236</v>
+      </c>
+      <c r="X31" t="s">
+        <v>237</v>
+      </c>
       <c r="Y31" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>7584</v>
       </c>
-      <c r="B32" t="n">
-        <v>181618</v>
-      </c>
-      <c r="C32" t="s">
-        <v>278</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="J32" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="K32" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="L32" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="O32" t="s">
-        <v>71</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1</v>
-      </c>
-      <c r="S32" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>3</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>285</v>
-      </c>
-      <c r="X32" t="s">
-        <v>286</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>287</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>7584</v>
       </c>
-      <c r="B33" t="n">
-        <v>181619</v>
-      </c>
-      <c r="C33" t="s">
-        <v>288</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>289</v>
+        <v>245</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>290</v>
+        <v>246</v>
       </c>
       <c r="J33" t="s">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="K33" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="L33" t="s">
-        <v>293</v>
+        <v>249</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>294</v>
+        <v>250</v>
       </c>
       <c r="O33" t="s">
-        <v>239</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3</v>
-      </c>
-      <c r="R33" t="n">
-        <v>3</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>1</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>220</v>
+      </c>
+      <c r="X33" t="s">
+        <v>221</v>
+      </c>
       <c r="Y33" t="s">
-        <v>295</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>7584</v>
       </c>
-      <c r="B34" t="n">
-        <v>181620</v>
-      </c>
-      <c r="C34" t="s">
-        <v>296</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="J34" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="K34" t="s">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="L34" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s"/>
-      <c r="O34" t="s"/>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>257</v>
+      </c>
+      <c r="O34" t="s">
+        <v>131</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
-        <v>302</v>
-      </c>
-      <c r="X34" t="s">
-        <v>303</v>
-      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>7584</v>
       </c>
-      <c r="B35" t="n">
-        <v>181621</v>
-      </c>
-      <c r="C35" t="s">
-        <v>305</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>306</v>
+        <v>258</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>307</v>
+        <v>259</v>
       </c>
       <c r="J35" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="K35" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="L35" t="s">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
-      <c r="R35" t="n">
-        <v>4</v>
-      </c>
-      <c r="S35" t="n">
-        <v>4</v>
-      </c>
+      <c r="N35" t="s">
+        <v>257</v>
+      </c>
+      <c r="O35" t="s">
+        <v>95</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>4</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>7584</v>
       </c>
-      <c r="B36" t="n">
-        <v>181622</v>
-      </c>
-      <c r="C36" t="s">
-        <v>311</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="J36" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="K36" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="L36" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="O36" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4307,725 +4686,613 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>316</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>7584</v>
       </c>
-      <c r="B37" t="n">
-        <v>109631</v>
-      </c>
-      <c r="C37" t="s">
-        <v>318</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="J37" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="K37" t="s">
-        <v>322</v>
+        <v>274</v>
       </c>
       <c r="L37" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
-      </c>
-      <c r="N37" t="s"/>
-      <c r="O37" t="s"/>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>4</v>
-      </c>
-      <c r="R37" t="n">
-        <v>3</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>276</v>
+      </c>
+      <c r="O37" t="s">
+        <v>74</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>7584</v>
       </c>
-      <c r="B38" t="n">
-        <v>181623</v>
-      </c>
-      <c r="C38" t="s">
-        <v>324</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="J38" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="K38" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="L38" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="s">
-        <v>330</v>
-      </c>
-      <c r="O38" t="s">
-        <v>101</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s">
-        <v>331</v>
-      </c>
-      <c r="X38" t="s">
-        <v>332</v>
-      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>333</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>7584</v>
       </c>
-      <c r="B39" t="n">
-        <v>2993</v>
-      </c>
-      <c r="C39" t="s">
-        <v>334</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>335</v>
+        <v>282</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>336</v>
+        <v>283</v>
       </c>
       <c r="J39" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="K39" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
       <c r="L39" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>340</v>
+        <v>287</v>
       </c>
       <c r="O39" t="s">
-        <v>71</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="P39" t="s"/>
       <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R39" t="s"/>
       <c r="S39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>331</v>
-      </c>
-      <c r="X39" t="s">
-        <v>332</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>341</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>7584</v>
       </c>
-      <c r="B40" t="n">
-        <v>29695</v>
-      </c>
-      <c r="C40" t="s">
-        <v>342</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>344</v>
+        <v>289</v>
       </c>
       <c r="J40" t="s">
-        <v>345</v>
+        <v>290</v>
       </c>
       <c r="K40" t="s">
-        <v>346</v>
+        <v>291</v>
       </c>
       <c r="L40" t="s">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>348</v>
+        <v>287</v>
       </c>
       <c r="O40" t="s">
-        <v>54</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>1</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>331</v>
-      </c>
-      <c r="X40" t="s">
-        <v>332</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>7584</v>
       </c>
-      <c r="B41" t="n">
-        <v>181624</v>
-      </c>
-      <c r="C41" t="s">
-        <v>350</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>351</v>
+        <v>293</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>352</v>
+        <v>294</v>
       </c>
       <c r="J41" t="s">
-        <v>353</v>
+        <v>295</v>
       </c>
       <c r="K41" t="s">
-        <v>354</v>
+        <v>296</v>
       </c>
       <c r="L41" t="s">
-        <v>355</v>
+        <v>297</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>356</v>
+        <v>298</v>
       </c>
       <c r="O41" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="P41" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1</v>
-      </c>
-      <c r="R41" t="n">
-        <v>2</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
-        <v>357</v>
-      </c>
-      <c r="X41" t="s">
-        <v>358</v>
-      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>359</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>7584</v>
       </c>
-      <c r="B42" t="n">
-        <v>181625</v>
-      </c>
-      <c r="C42" t="s">
-        <v>360</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>361</v>
+        <v>300</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>362</v>
+        <v>301</v>
       </c>
       <c r="J42" t="s">
-        <v>363</v>
+        <v>302</v>
       </c>
       <c r="K42" t="s">
-        <v>364</v>
+        <v>303</v>
       </c>
       <c r="L42" t="s">
-        <v>365</v>
+        <v>304</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
-      <c r="N42" t="s"/>
-      <c r="O42" t="s"/>
-      <c r="P42" t="n">
-        <v>2</v>
-      </c>
+      <c r="N42" t="s">
+        <v>305</v>
+      </c>
+      <c r="O42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="n">
         <v>1</v>
       </c>
-      <c r="R42" t="n">
-        <v>1</v>
-      </c>
+      <c r="R42" t="s"/>
       <c r="S42" t="n">
         <v>2</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>357</v>
-      </c>
-      <c r="X42" t="s">
-        <v>358</v>
-      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>366</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>7584</v>
       </c>
-      <c r="B43" t="n">
-        <v>181626</v>
-      </c>
-      <c r="C43" t="s">
-        <v>367</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>368</v>
+        <v>307</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>369</v>
+        <v>308</v>
       </c>
       <c r="J43" t="s">
-        <v>370</v>
+        <v>309</v>
       </c>
       <c r="K43" t="s">
-        <v>371</v>
+        <v>310</v>
       </c>
       <c r="L43" t="s">
-        <v>372</v>
+        <v>311</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>373</v>
+        <v>312</v>
       </c>
       <c r="O43" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
       </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q43" t="s"/>
       <c r="R43" t="n">
-        <v>5</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="X43" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="Y43" t="s">
-        <v>374</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>7584</v>
       </c>
-      <c r="B44" t="n">
-        <v>181627</v>
-      </c>
-      <c r="C44" t="s">
-        <v>375</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>376</v>
+        <v>316</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>377</v>
+        <v>317</v>
       </c>
       <c r="J44" t="s">
-        <v>378</v>
+        <v>318</v>
       </c>
       <c r="K44" t="s">
-        <v>379</v>
+        <v>319</v>
       </c>
       <c r="L44" t="s">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
-      </c>
-      <c r="N44" t="s">
-        <v>381</v>
-      </c>
-      <c r="O44" t="s">
-        <v>62</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
       <c r="P44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s">
-        <v>382</v>
-      </c>
-      <c r="X44" t="s">
-        <v>383</v>
-      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>384</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>7584</v>
       </c>
-      <c r="B45" t="n">
-        <v>181628</v>
-      </c>
-      <c r="C45" t="s">
-        <v>385</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>386</v>
+        <v>321</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>387</v>
+        <v>322</v>
       </c>
       <c r="J45" t="s">
-        <v>388</v>
+        <v>323</v>
       </c>
       <c r="K45" t="s">
-        <v>389</v>
+        <v>324</v>
       </c>
       <c r="L45" t="s">
-        <v>390</v>
+        <v>325</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>391</v>
+        <v>326</v>
       </c>
       <c r="O45" t="s">
-        <v>239</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>3</v>
-      </c>
-      <c r="R45" t="n">
-        <v>3</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>4</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>390</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>7584</v>
       </c>
-      <c r="B46" t="n">
-        <v>181629</v>
-      </c>
-      <c r="C46" t="s">
-        <v>392</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>393</v>
+        <v>327</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>394</v>
+        <v>328</v>
       </c>
       <c r="J46" t="s">
-        <v>395</v>
+        <v>329</v>
       </c>
       <c r="K46" t="s">
-        <v>396</v>
+        <v>330</v>
       </c>
       <c r="L46" t="s">
-        <v>397</v>
+        <v>331</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>391</v>
+        <v>332</v>
       </c>
       <c r="O46" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="P46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q46" t="s"/>
       <c r="R46" t="s"/>
       <c r="S46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -5033,66 +5300,62 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>398</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>7584</v>
       </c>
-      <c r="B47" t="n">
-        <v>181630</v>
-      </c>
-      <c r="C47" t="s">
-        <v>399</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>401</v>
+        <v>334</v>
       </c>
       <c r="J47" t="s">
-        <v>402</v>
+        <v>335</v>
       </c>
       <c r="K47" t="s">
-        <v>403</v>
+        <v>336</v>
       </c>
       <c r="L47" t="s">
-        <v>404</v>
+        <v>337</v>
       </c>
       <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="s">
-        <v>405</v>
-      </c>
-      <c r="O47" t="s">
-        <v>54</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
       <c r="P47" t="n">
         <v>1</v>
       </c>
-      <c r="Q47" t="s"/>
-      <c r="R47" t="s"/>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -5100,124 +5363,116 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>406</v>
+        <v>338</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>7584</v>
       </c>
-      <c r="B48" t="n">
-        <v>181631</v>
-      </c>
-      <c r="C48" t="s">
-        <v>407</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>408</v>
+        <v>339</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>409</v>
+        <v>340</v>
       </c>
       <c r="J48" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="K48" t="s">
-        <v>411</v>
+        <v>342</v>
       </c>
       <c r="L48" t="s">
-        <v>412</v>
+        <v>343</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="s">
-        <v>405</v>
-      </c>
-      <c r="O48" t="s">
-        <v>62</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
       <c r="P48" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q48" t="s"/>
-      <c r="R48" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s">
-        <v>413</v>
-      </c>
-      <c r="X48" t="s">
-        <v>414</v>
-      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>415</v>
+        <v>343</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>7584</v>
       </c>
-      <c r="B49" t="n">
-        <v>181632</v>
-      </c>
-      <c r="C49" t="s">
-        <v>416</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>417</v>
+        <v>344</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>418</v>
+        <v>345</v>
       </c>
       <c r="J49" t="s">
-        <v>419</v>
+        <v>346</v>
       </c>
       <c r="K49" t="s">
-        <v>420</v>
+        <v>347</v>
       </c>
       <c r="L49" t="s">
-        <v>421</v>
+        <v>348</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
-      <c r="N49" t="s"/>
-      <c r="O49" t="s"/>
+      <c r="N49" t="s">
+        <v>349</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
       <c r="P49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q49" t="n">
         <v>5</v>
@@ -5226,7 +5481,7 @@
         <v>5</v>
       </c>
       <c r="S49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
@@ -5235,138 +5490,116 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s">
-        <v>413</v>
-      </c>
-      <c r="X49" t="s">
-        <v>414</v>
-      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>422</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>7584</v>
       </c>
-      <c r="B50" t="n">
-        <v>181633</v>
-      </c>
-      <c r="C50" t="s">
-        <v>423</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>424</v>
+        <v>351</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>425</v>
+        <v>352</v>
       </c>
       <c r="J50" t="s">
-        <v>426</v>
+        <v>353</v>
       </c>
       <c r="K50" t="s">
-        <v>427</v>
+        <v>354</v>
       </c>
       <c r="L50" t="s">
-        <v>428</v>
+        <v>355</v>
       </c>
       <c r="M50" t="n">
-        <v>3</v>
-      </c>
-      <c r="N50" t="s"/>
-      <c r="O50" t="s"/>
-      <c r="P50" t="n">
         <v>2</v>
       </c>
-      <c r="Q50" t="n">
-        <v>3</v>
-      </c>
-      <c r="R50" t="n">
-        <v>3</v>
-      </c>
-      <c r="S50" t="n">
-        <v>3</v>
-      </c>
+      <c r="N50" t="s">
+        <v>349</v>
+      </c>
+      <c r="O50" t="s">
+        <v>131</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="n">
-        <v>4</v>
-      </c>
+      <c r="U50" t="s"/>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s">
-        <v>429</v>
-      </c>
-      <c r="X50" t="s">
-        <v>430</v>
-      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>431</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>7584</v>
       </c>
-      <c r="B51" t="n">
-        <v>181634</v>
-      </c>
-      <c r="C51" t="s">
-        <v>432</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>433</v>
+        <v>356</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>434</v>
+        <v>357</v>
       </c>
       <c r="J51" t="s">
-        <v>435</v>
+        <v>358</v>
       </c>
       <c r="K51" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="L51" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>438</v>
+        <v>361</v>
       </c>
       <c r="O51" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="P51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R51" t="n">
         <v>3</v>
@@ -5376,78 +5609,74 @@
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>429</v>
+        <v>362</v>
       </c>
       <c r="X51" t="s">
-        <v>430</v>
+        <v>363</v>
       </c>
       <c r="Y51" t="s">
-        <v>439</v>
+        <v>364</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>7584</v>
       </c>
-      <c r="B52" t="n">
-        <v>181635</v>
-      </c>
-      <c r="C52" t="s">
-        <v>440</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>441</v>
+        <v>365</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>442</v>
+        <v>366</v>
       </c>
       <c r="J52" t="s">
-        <v>443</v>
+        <v>367</v>
       </c>
       <c r="K52" t="s">
-        <v>444</v>
+        <v>368</v>
       </c>
       <c r="L52" t="s">
-        <v>445</v>
+        <v>369</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>446</v>
+        <v>361</v>
       </c>
       <c r="O52" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="P52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R52" t="n">
         <v>3</v>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
@@ -5459,145 +5688,129 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>447</v>
+        <v>370</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>7584</v>
       </c>
-      <c r="B53" t="n">
-        <v>181636</v>
-      </c>
-      <c r="C53" t="s">
-        <v>448</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>449</v>
+        <v>371</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>450</v>
+        <v>372</v>
       </c>
       <c r="J53" t="s">
-        <v>451</v>
+        <v>373</v>
       </c>
       <c r="K53" t="s">
-        <v>452</v>
+        <v>374</v>
       </c>
       <c r="L53" t="s">
-        <v>453</v>
+        <v>375</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>454</v>
+        <v>376</v>
       </c>
       <c r="O53" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="P53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s">
-        <v>429</v>
-      </c>
-      <c r="X53" t="s">
-        <v>430</v>
-      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>455</v>
+        <v>377</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>7584</v>
       </c>
-      <c r="B54" t="n">
-        <v>181637</v>
-      </c>
-      <c r="C54" t="s">
-        <v>456</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>457</v>
+        <v>378</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>458</v>
+        <v>379</v>
       </c>
       <c r="J54" t="s">
-        <v>459</v>
+        <v>380</v>
       </c>
       <c r="K54" t="s">
-        <v>460</v>
+        <v>381</v>
       </c>
       <c r="L54" t="s">
-        <v>461</v>
+        <v>382</v>
       </c>
       <c r="M54" t="n">
-        <v>2</v>
-      </c>
-      <c r="N54" t="s">
-        <v>462</v>
-      </c>
-      <c r="O54" t="s">
-        <v>54</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
       <c r="P54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -5605,57 +5818,53 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>463</v>
+        <v>382</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>7584</v>
       </c>
-      <c r="B55" t="n">
-        <v>181638</v>
-      </c>
-      <c r="C55" t="s">
-        <v>464</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>465</v>
+        <v>383</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>466</v>
+        <v>384</v>
       </c>
       <c r="J55" t="s">
-        <v>467</v>
+        <v>385</v>
       </c>
       <c r="K55" t="s">
-        <v>468</v>
+        <v>386</v>
       </c>
       <c r="L55" t="s">
-        <v>469</v>
+        <v>387</v>
       </c>
       <c r="M55" t="n">
         <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>470</v>
+        <v>388</v>
       </c>
       <c r="O55" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="P55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q55" t="n">
         <v>2</v>
@@ -5668,72 +5877,68 @@
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>471</v>
+        <v>389</v>
       </c>
       <c r="X55" t="s">
-        <v>472</v>
+        <v>390</v>
       </c>
       <c r="Y55" t="s">
-        <v>473</v>
+        <v>391</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>7584</v>
       </c>
-      <c r="B56" t="n">
-        <v>181639</v>
-      </c>
-      <c r="C56" t="s">
-        <v>474</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>475</v>
+        <v>392</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>476</v>
+        <v>393</v>
       </c>
       <c r="J56" t="s">
-        <v>477</v>
+        <v>394</v>
       </c>
       <c r="K56" t="s">
-        <v>478</v>
+        <v>395</v>
       </c>
       <c r="L56" t="s">
-        <v>479</v>
+        <v>396</v>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>480</v>
+        <v>397</v>
       </c>
       <c r="O56" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="P56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R56" t="n">
         <v>3</v>
@@ -5743,7 +5948,7 @@
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
@@ -5751,145 +5956,129 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>479</v>
+        <v>398</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>7584</v>
       </c>
-      <c r="B57" t="n">
-        <v>181640</v>
-      </c>
-      <c r="C57" t="s">
-        <v>481</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="J57" t="s">
-        <v>484</v>
+        <v>401</v>
       </c>
       <c r="K57" t="s">
-        <v>485</v>
+        <v>402</v>
       </c>
       <c r="L57" t="s">
-        <v>486</v>
+        <v>403</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="s">
-        <v>480</v>
-      </c>
-      <c r="O57" t="s">
-        <v>71</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
       <c r="P57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>487</v>
+        <v>404</v>
       </c>
       <c r="X57" t="s">
-        <v>488</v>
+        <v>405</v>
       </c>
       <c r="Y57" t="s">
-        <v>489</v>
+        <v>406</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>7584</v>
       </c>
-      <c r="B58" t="n">
-        <v>181641</v>
-      </c>
-      <c r="C58" t="s">
-        <v>490</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>491</v>
+        <v>407</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>492</v>
+        <v>408</v>
       </c>
       <c r="J58" t="s">
-        <v>493</v>
+        <v>409</v>
       </c>
       <c r="K58" t="s">
-        <v>494</v>
+        <v>410</v>
       </c>
       <c r="L58" t="s">
-        <v>495</v>
+        <v>411</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
-      </c>
-      <c r="N58" t="s">
-        <v>496</v>
-      </c>
-      <c r="O58" t="s">
-        <v>101</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
       <c r="P58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -5897,7 +6086,2705 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>412</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>413</v>
+      </c>
+      <c r="J59" t="s">
+        <v>414</v>
+      </c>
+      <c r="K59" t="s">
+        <v>415</v>
+      </c>
+      <c r="L59" t="s">
+        <v>416</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>417</v>
+      </c>
+      <c r="O59" t="s">
+        <v>95</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>418</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>419</v>
+      </c>
+      <c r="J60" t="s">
+        <v>420</v>
+      </c>
+      <c r="K60" t="s">
+        <v>421</v>
+      </c>
+      <c r="L60" t="s">
+        <v>422</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>423</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>424</v>
+      </c>
+      <c r="J61" t="s">
+        <v>425</v>
+      </c>
+      <c r="K61" t="s">
+        <v>426</v>
+      </c>
+      <c r="L61" t="s">
+        <v>427</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>417</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>428</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>429</v>
+      </c>
+      <c r="J62" t="s">
+        <v>430</v>
+      </c>
+      <c r="K62" t="s">
+        <v>431</v>
+      </c>
+      <c r="L62" t="s">
+        <v>432</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>433</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>434</v>
+      </c>
+      <c r="J63" t="s">
+        <v>435</v>
+      </c>
+      <c r="K63" t="s">
+        <v>436</v>
+      </c>
+      <c r="L63" t="s">
+        <v>437</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>438</v>
+      </c>
+      <c r="O63" t="s">
+        <v>95</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>439</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>440</v>
+      </c>
+      <c r="J64" t="s">
+        <v>441</v>
+      </c>
+      <c r="K64" t="s">
+        <v>442</v>
+      </c>
+      <c r="L64" t="s">
+        <v>443</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>438</v>
+      </c>
+      <c r="O64" t="s">
+        <v>67</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>444</v>
+      </c>
+      <c r="X64" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>447</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>448</v>
+      </c>
+      <c r="J65" t="s">
+        <v>449</v>
+      </c>
+      <c r="K65" t="s">
+        <v>450</v>
+      </c>
+      <c r="L65" t="s">
+        <v>451</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>452</v>
+      </c>
+      <c r="O65" t="s">
+        <v>95</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>453</v>
+      </c>
+      <c r="X65" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>456</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>457</v>
+      </c>
+      <c r="J66" t="s">
+        <v>458</v>
+      </c>
+      <c r="K66" t="s">
+        <v>459</v>
+      </c>
+      <c r="L66" t="s">
+        <v>460</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>461</v>
+      </c>
+      <c r="O66" t="s">
+        <v>67</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>453</v>
+      </c>
+      <c r="X66" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>463</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>464</v>
+      </c>
+      <c r="J67" t="s">
+        <v>465</v>
+      </c>
+      <c r="K67" t="s">
+        <v>466</v>
+      </c>
+      <c r="L67" t="s">
+        <v>467</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>468</v>
+      </c>
+      <c r="O67" t="s">
+        <v>74</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>453</v>
+      </c>
+      <c r="X67" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>470</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>471</v>
+      </c>
+      <c r="J68" t="s">
+        <v>472</v>
+      </c>
+      <c r="K68" t="s">
+        <v>473</v>
+      </c>
+      <c r="L68" t="s">
+        <v>474</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>475</v>
+      </c>
+      <c r="O68" t="s">
+        <v>74</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>453</v>
+      </c>
+      <c r="X68" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>477</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>478</v>
+      </c>
+      <c r="J69" t="s">
+        <v>479</v>
+      </c>
+      <c r="K69" t="s">
+        <v>480</v>
+      </c>
+      <c r="L69" t="s">
+        <v>481</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>453</v>
+      </c>
+      <c r="X69" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>483</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>484</v>
+      </c>
+      <c r="J70" t="s">
+        <v>485</v>
+      </c>
+      <c r="K70" t="s">
+        <v>486</v>
+      </c>
+      <c r="L70" t="s">
+        <v>487</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>475</v>
+      </c>
+      <c r="O70" t="s">
+        <v>95</v>
+      </c>
+      <c r="P70" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>488</v>
+      </c>
+      <c r="X70" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>491</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>492</v>
+      </c>
+      <c r="J71" t="s">
+        <v>493</v>
+      </c>
+      <c r="K71" t="s">
+        <v>494</v>
+      </c>
+      <c r="L71" t="s">
         <v>495</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>488</v>
+      </c>
+      <c r="X71" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>497</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>498</v>
+      </c>
+      <c r="J72" t="s">
+        <v>499</v>
+      </c>
+      <c r="K72" t="s">
+        <v>500</v>
+      </c>
+      <c r="L72" t="s">
+        <v>501</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>502</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>453</v>
+      </c>
+      <c r="X72" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>504</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>505</v>
+      </c>
+      <c r="J73" t="s">
+        <v>506</v>
+      </c>
+      <c r="K73" t="s">
+        <v>507</v>
+      </c>
+      <c r="L73" t="s">
+        <v>508</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>509</v>
+      </c>
+      <c r="O73" t="s">
+        <v>95</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>510</v>
+      </c>
+      <c r="X73" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>513</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>514</v>
+      </c>
+      <c r="J74" t="s">
+        <v>515</v>
+      </c>
+      <c r="K74" t="s">
+        <v>516</v>
+      </c>
+      <c r="L74" t="s">
+        <v>517</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>509</v>
+      </c>
+      <c r="O74" t="s">
+        <v>131</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>510</v>
+      </c>
+      <c r="X74" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>519</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>520</v>
+      </c>
+      <c r="J75" t="s">
+        <v>521</v>
+      </c>
+      <c r="K75" t="s">
+        <v>522</v>
+      </c>
+      <c r="L75" t="s">
+        <v>523</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>509</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>510</v>
+      </c>
+      <c r="X75" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>525</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>526</v>
+      </c>
+      <c r="J76" t="s">
+        <v>527</v>
+      </c>
+      <c r="K76" t="s">
+        <v>528</v>
+      </c>
+      <c r="L76" t="s">
+        <v>529</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>530</v>
+      </c>
+      <c r="O76" t="s">
+        <v>131</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>531</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>532</v>
+      </c>
+      <c r="J77" t="s">
+        <v>533</v>
+      </c>
+      <c r="K77" t="s">
+        <v>534</v>
+      </c>
+      <c r="L77" t="s">
+        <v>535</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>530</v>
+      </c>
+      <c r="O77" t="s">
+        <v>74</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>537</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>538</v>
+      </c>
+      <c r="J78" t="s">
+        <v>539</v>
+      </c>
+      <c r="K78" t="s">
+        <v>540</v>
+      </c>
+      <c r="L78" t="s">
+        <v>541</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>542</v>
+      </c>
+      <c r="O78" t="s">
+        <v>95</v>
+      </c>
+      <c r="P78" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="n">
+        <v>2</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>2</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>544</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>545</v>
+      </c>
+      <c r="J79" t="s">
+        <v>546</v>
+      </c>
+      <c r="K79" t="s">
+        <v>547</v>
+      </c>
+      <c r="L79" t="s">
+        <v>548</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>542</v>
+      </c>
+      <c r="O79" t="s">
+        <v>74</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>510</v>
+      </c>
+      <c r="X79" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>550</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>551</v>
+      </c>
+      <c r="J80" t="s">
+        <v>552</v>
+      </c>
+      <c r="K80" t="s">
+        <v>553</v>
+      </c>
+      <c r="L80" t="s">
+        <v>554</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>555</v>
+      </c>
+      <c r="O80" t="s">
+        <v>74</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>557</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>558</v>
+      </c>
+      <c r="J81" t="s">
+        <v>559</v>
+      </c>
+      <c r="K81" t="s">
+        <v>560</v>
+      </c>
+      <c r="L81" t="s">
+        <v>561</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>555</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>562</v>
+      </c>
+      <c r="X81" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>565</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>566</v>
+      </c>
+      <c r="J82" t="s">
+        <v>567</v>
+      </c>
+      <c r="K82" t="s">
+        <v>568</v>
+      </c>
+      <c r="L82" t="s">
+        <v>569</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>562</v>
+      </c>
+      <c r="X82" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>571</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>572</v>
+      </c>
+      <c r="J83" t="s">
+        <v>573</v>
+      </c>
+      <c r="K83" t="s">
+        <v>574</v>
+      </c>
+      <c r="L83" t="s">
+        <v>575</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>576</v>
+      </c>
+      <c r="O83" t="s">
+        <v>74</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>577</v>
+      </c>
+      <c r="X83" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>579</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>580</v>
+      </c>
+      <c r="J84" t="s">
+        <v>581</v>
+      </c>
+      <c r="K84" t="s">
+        <v>582</v>
+      </c>
+      <c r="L84" t="s">
+        <v>583</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>576</v>
+      </c>
+      <c r="O84" t="s">
+        <v>74</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" t="n">
+        <v>1</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>584</v>
+      </c>
+      <c r="X84" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>587</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>588</v>
+      </c>
+      <c r="J85" t="s">
+        <v>589</v>
+      </c>
+      <c r="K85" t="s">
+        <v>590</v>
+      </c>
+      <c r="L85" t="s">
+        <v>591</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>592</v>
+      </c>
+      <c r="X85" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>595</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>596</v>
+      </c>
+      <c r="J86" t="s">
+        <v>597</v>
+      </c>
+      <c r="K86" t="s">
+        <v>598</v>
+      </c>
+      <c r="L86" t="s">
+        <v>599</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>600</v>
+      </c>
+      <c r="O86" t="s">
+        <v>95</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>592</v>
+      </c>
+      <c r="X86" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>602</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>603</v>
+      </c>
+      <c r="J87" t="s">
+        <v>604</v>
+      </c>
+      <c r="K87" t="s">
+        <v>605</v>
+      </c>
+      <c r="L87" t="s">
+        <v>606</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>607</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>609</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>610</v>
+      </c>
+      <c r="J88" t="s">
+        <v>611</v>
+      </c>
+      <c r="K88" t="s">
+        <v>612</v>
+      </c>
+      <c r="L88" t="s">
+        <v>613</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
+        <v>614</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>510</v>
+      </c>
+      <c r="X88" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>616</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>617</v>
+      </c>
+      <c r="J89" t="s">
+        <v>618</v>
+      </c>
+      <c r="K89" t="s">
+        <v>619</v>
+      </c>
+      <c r="L89" t="s">
+        <v>620</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>621</v>
+      </c>
+      <c r="O89" t="s">
+        <v>74</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>2</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>623</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>624</v>
+      </c>
+      <c r="J90" t="s">
+        <v>625</v>
+      </c>
+      <c r="K90" t="s">
+        <v>626</v>
+      </c>
+      <c r="L90" t="s">
+        <v>627</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>621</v>
+      </c>
+      <c r="O90" t="s">
+        <v>95</v>
+      </c>
+      <c r="P90" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>592</v>
+      </c>
+      <c r="X90" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>629</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>630</v>
+      </c>
+      <c r="J91" t="s">
+        <v>631</v>
+      </c>
+      <c r="K91" t="s">
+        <v>632</v>
+      </c>
+      <c r="L91" t="s">
+        <v>633</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" t="s">
+        <v>634</v>
+      </c>
+      <c r="O91" t="s">
+        <v>74</v>
+      </c>
+      <c r="P91" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>2</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2</v>
+      </c>
+      <c r="S91" t="n">
+        <v>2</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>2</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>636</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>637</v>
+      </c>
+      <c r="J92" t="s">
+        <v>638</v>
+      </c>
+      <c r="K92" t="s">
+        <v>639</v>
+      </c>
+      <c r="L92" t="s">
+        <v>640</v>
+      </c>
+      <c r="M92" t="n">
+        <v>2</v>
+      </c>
+      <c r="N92" t="s">
+        <v>641</v>
+      </c>
+      <c r="O92" t="s">
+        <v>74</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>2</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>642</v>
+      </c>
+      <c r="X92" t="s">
+        <v>643</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>645</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>646</v>
+      </c>
+      <c r="J93" t="s">
+        <v>647</v>
+      </c>
+      <c r="K93" t="s"/>
+      <c r="L93" t="s"/>
+      <c r="M93" t="n">
+        <v>2</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>2</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>1</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>2</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>648</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>649</v>
+      </c>
+      <c r="J94" t="s">
+        <v>650</v>
+      </c>
+      <c r="K94" t="s">
+        <v>651</v>
+      </c>
+      <c r="L94" t="s">
+        <v>652</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>653</v>
+      </c>
+      <c r="O94" t="s">
+        <v>95</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>2</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>655</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>656</v>
+      </c>
+      <c r="J95" t="s">
+        <v>657</v>
+      </c>
+      <c r="K95" t="s">
+        <v>658</v>
+      </c>
+      <c r="L95" t="s">
+        <v>659</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>660</v>
+      </c>
+      <c r="O95" t="s">
+        <v>95</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>3</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>661</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>662</v>
+      </c>
+      <c r="J96" t="s">
+        <v>663</v>
+      </c>
+      <c r="K96" t="s">
+        <v>664</v>
+      </c>
+      <c r="L96" t="s">
+        <v>665</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="s">
+        <v>660</v>
+      </c>
+      <c r="O96" t="s">
+        <v>67</v>
+      </c>
+      <c r="P96" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>2</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>1</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>1</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>666</v>
+      </c>
+      <c r="X96" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>669</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>670</v>
+      </c>
+      <c r="J97" t="s">
+        <v>671</v>
+      </c>
+      <c r="K97" t="s">
+        <v>672</v>
+      </c>
+      <c r="L97" t="s">
+        <v>673</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>674</v>
+      </c>
+      <c r="O97" t="s">
+        <v>95</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>7584</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>675</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>676</v>
+      </c>
+      <c r="J98" t="s">
+        <v>677</v>
+      </c>
+      <c r="K98" t="s">
+        <v>678</v>
+      </c>
+      <c r="L98" t="s">
+        <v>679</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>674</v>
+      </c>
+      <c r="O98" t="s">
+        <v>95</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>679</v>
       </c>
     </row>
   </sheetData>
